--- a/txt/output.xlsx
+++ b/txt/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIP\Project\Magic-Touch\Magic-Touch\txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5573EA-B967-4304-9CD3-4838F2ECE11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E1D023-1AA8-4D68-B896-9E1581188E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,34 +40,51 @@
     <t>在遥远的一个国度里，国王和王后站在宏伟的宫殿阳台上，双手合十，仰望天空，神情虔诚。</t>
   </si>
   <si>
-    <t>在遥远的一个国度里，国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)和王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)站在宏伟的宫殿阳台上，双手合十，仰望天空，神情虔诚。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, baroque architecture, cinematic lighting, (1man: middle-aged king, imposing countenance, golden robes, gem-encrusted crown, ornate sword at waist, solemn stance, regal gravity, hands clasped, looking upward), BREAK (1woman: queen in 30s, fair skin, flowing black hair, elegant silk gown with floral embroidery, pearl-studded hairpiece, maternal tenderness in eyes, standing beside king, delicate hands intertwined), grand palace balcony background, intricate stone carvings, draped velvet curtains, soft sunlight through clouds, glowing crown jewels, HDR, dramatic sky with ethereal glow, renaissance painting style, rich gold and crimson color palette</t>
-  </si>
-  <si>
-    <t>In a distant kingdom, a middle-aged king with an imposing countenance stood solemnly beside his queen upon the balcony of a grand palace. Clad in opulent golden robes, a gem-encrusted crown resting atop his head, and an exquisitely crafted sword dangling from his waist, his every movement exuded regal gravity. Beside him, the queen—a fair-skinned woman in her thirties with flowing raven hair—wore an elegant silk gown adorned with intricate floral embroidery. A pearl-studded hairpiece shimmered beneath the sunlight as her gentle eyes, radiating maternal tenderness, gazed upward alongside the king. Together, their hands clasped in silent devotion, they fixed their reverent expressions upon the heavens, as though entrusting unspoken hopes to the boundless sky.</t>
+    <t>在遥远的一个国度里，国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)和王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)站在宏伟的宫殿阳台上，双手合十，仰望天空，神情虔诚。</t>
+  </si>
+  <si>
+    <t>middle aged king and queen on balcony of grand palace, distant kingdom, solemn expressions, hands clasped, looking up at sky, starry night, flickering candlelight, dynamic composition, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail, professional, vivid colors, bokeh, physically-based rendering, warm color tone, gentle moonlight  
+BREAK  
+middle aged king with solemn expression, magnificent golden royal robe, gem-encrusted crown, finely crafted sword at waist, dignified posture, detailed facial features, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+queen about thirty years old, fair skin, slender figure, long black hair, elegant silk gown with intricate embroidery along hem, pearl hairpiece, gentle motherly gaze, graceful posture, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting  
+BREAK  
+balcony of grand palace with ornate stone railing, starry night sky, flickering candlelights nearby, soft moonlight illuminating scene, elegant architecture background, dynamic composition, warm ambient lighting</t>
+  </si>
+  <si>
+    <t>In a distant kingdom, the king—a middle-aged man with a solemn expression, dressed in a magnificent golden royal robe, wearing a crown adorned with gemstones, and a finely crafted sword hanging at his waist—and the queen, his original wife, a woman of about thirty with fair skin, a slender figure, long black hair, elegantly clad in a silk gown embroidered with intricate patterns along the hem, wearing a pearl hairpiece, and bearing a gentle, motherly gaze, stood together on the balcony of the grand palace. With their hands clasped, they looked up at the sky with a devout and solemn expression.</t>
   </si>
   <si>
     <t>国王和王后跪在华丽的礼拜堂内，向上苍祈祷，他们的脸上写满了渴望。</t>
   </si>
   <si>
-    <t>国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)和王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)跪在华丽的礼拜堂内，向上苍祈祷，他们的脸上写满了渴望。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1man: middle-aged, stern expression, golden robes, gem-studded crown, masterforged sword at hip, commanding presence, full body), BREAK (1woman: porcelain skin, dark flowing hair, silk gown with embroidered blossoms, pearls in hair, tender eyes, kneeling pose), gilded chapel background, soft glowing light, intricate gold details, stained glass windows, HDR, dramatic shadows, regal atmosphere, baroque style, divine lighting, whispered prayer focus, desperate hope expression, (unified bowing pose: facing altar), celestial rays through arches, velvet drapes, historical fantasy theme</t>
-  </si>
-  <si>
-    <t>The King—a middle-aged man with a stern, commanding presence, draped in opulent golden robes and a gem-studded crown, a masterfully forged sword resting at his hip—stood as a figure of unyielding authority. Beside him knelt the Queen, his lifelong companion, a woman in her thirties with porcelain skin, a lithe frame, and dark hair that cascaded like ink. Her gown, woven from silk and embroidered with intricate blossoms, shimmered faintly, while pearls glinted in her hair, framing eyes that held both tenderness and quiet strength. Together, they bowed in the gilded chapel, their faces alight with desperate hope as they whispered fervent pleas to the heavens.</t>
+    <t>国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)和王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)跪在华丽的礼拜堂内，向上苍祈祷，他们的脸上写满了渴望。</t>
+  </si>
+  <si>
+    <t>king kneeling in lavish chapel, middle aged dignified man, magnificent golden royal robe, crown adorned with precious gems, exquisite sword hanging at waist, queen kneeling beside him, about thirty, fair skin, slender figure, long black hair, elegant silk gown with intricate embroidery, pearl hair accessory, gentle maternal eyes, praying to heavens, faces full of longing, dynamic composition, starry sky background, flickering candlelights, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), studio lighting, vivid colors, ultra-fine painting, sharp focus  
+BREAK  
+middle aged king with dignified appearance, magnificent golden royal robe with intricate patterns, gem encrusted crown, exquisite sword at waist, detailed facial features, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+queen about thirty, fair skin, slender figure, long black hair, elegant silk gown embroidered with intricate hem patterns, pearl hair accessory, gentle maternal eyes, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, vivid colors, studio lighting, perfect lighting, (realistic,photorealistic:1.37)</t>
+  </si>
+  <si>
+    <t>The king, a middle-aged man with a dignified appearance, dressed in a magnificent golden royal robe, wearing a crown adorned with precious gems, and with an exquisite sword hanging at his waist, knelt inside the lavish chapel. Beside him knelt the queen, his original spouse, a woman of about thirty years old with fair skin and a slender figure. She had long black hair, wore an elegant silk gown embroidered with intricate patterns along the hem, and a pearl hair accessory crowned her head. Her eyes were gentle and filled with maternal love. Together, they prayed to the heavens, their faces full of longing.</t>
   </si>
   <si>
     <t>一片星空下，国王和王后站在花园中，闭目祈祷，周围点缀着摇曳的烛光。</t>
   </si>
   <si>
-    <t>一片星空下，国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)和王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)站在花园中，闭目祈祷，周围点缀着摇曳的烛光。</t>
-  </si>
-  <si>
-    <t>Beneath a canopy of twinkling stars, a middle-aged king with an imposing countenance stood solemnly in the palace garden. His regal frame was draped in a resplendent golden robe, its threads shimmering faintly in the ambient glow, while a gem-encrusted crown rested heavily upon his brow. A finely wrought sword hung motionless at his hip, its ornate hilt catching glimmers of nearby candlelight. Beside him, the queen—his first wife—radiated grace in her flowing silk gown embroidered with labyrinthine floral patterns. Her porcelain complexion contrasted with the night, framed by cascading ebony hair adorned with pearlescent pins. Though her eyes were closed in reverent prayer, an aura of tender maternal warmth seemed to envelop her stillness. Around them, countless candles flickered like earthbound constellations, their trembling flames casting dancing shadows across the silent tableau of royal devotion.</t>
+    <t>一片星空下，国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)和王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)站在花园中，闭目祈祷，周围点缀着摇曳的烛光。</t>
+  </si>
+  <si>
+    <t>under a vast starry sky, middle aged king and queen standing together in a garden, eyes closed in silent prayer, flickering candlelights surrounding them, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), vivid colors, studio lighting, perfect lighting  
+BREAK  
+middle aged king with a dignified expression, splendid golden royal robe, gem encrusted crown, finely crafted sword hanging at waist, beautiful detailed eyes, long eyelashes, extremely detailed eyes and face, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+queen about thirty years old, fair skin, slender figure, long black hair, elegant silk gown with intricate floral embroidery along hem, pearl hair accessory, gentle maternal eyes, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, realistic skin tones, vivid colors, studio lighting, perfect lighting</t>
+  </si>
+  <si>
+    <t>Under a vast starry sky, the king—a middle-aged man with a dignified expression, dressed in a magnificent golden royal robe, wearing a crown adorned with precious gems, and a finely crafted sword hanging at his waist—and the queen, his original spouse—a woman of about thirty years old with fair skin, a slender figure, long black hair, dressed in an elegant silk gown embroidered with intricate floral patterns along the hem, wearing a pearl hair accessory, her eyes gentle and full of maternal warmth—stood together in the garden, eyes closed in silent prayer, surrounded by the flickering glow of candlelight.</t>
   </si>
   <si>
     <t>王后躺在产床上，身旁是一个刚出生的婴儿，婴儿皮肤白皙如雪，双颊红润似苹果，乌黑柔顺的头发轻轻散在襁褓上。</t>
@@ -76,22 +93,23 @@
     <t>王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)躺在产床上，身旁是一个刚出生的婴儿，婴儿皮肤白皙如雪，双颊红润似苹果，乌黑柔顺的头发轻轻散在襁褓上。</t>
   </si>
   <si>
-    <t>(best quality,8k,highres,masterpiece:1.2), ultra-detailed, cinematic soft lighting, (1woman: fair skin, slender figure, long black hair, elegant silk gown, intricate floral embroidery, pearl-studded headpiece, tender maternal gaze, lying on birthing bed) BREAK (1baby: pale snow-like skin, rosy cheeks, jet-black wispy hair, swaddling cloth), royal chamber background, warm golden hour illumination, delicate fabric textures, HDR, Renaissance painting style, ornate furnishings, subtle atmospheric haze</t>
-  </si>
-  <si>
-    <t>The Queen (first consort)—a fair-skinned, slender woman in her thirties with long black hair, clad in an elegant silk gown embroidered with intricate floral patterns along its hem and adorned with a pearl-studded headpiece, her gaze tender and brimming with maternal warmth—lay upon the birthing bed. Beside her rested a newborn, its skin as pale as freshly fallen snow, cheeks flushed like rosy apples, and soft wisps of jet-black hair spilling gently across the swaddling cloth.</t>
+    <t>queen in her thirties with fair skin and slender figure lying on birthing bed wearing elegant silk gown embroidered with intricate floral patterns long black hair adorned with pearl hairpiece gentle maternal eyes soft gaze at newborn baby with snow-white skin rosy apple cheeks smooth black hair gently spread over swaddling cloth peaceful sleeping newborn beside mother (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, warm soft lighting, calm serene atmosphere  
+BREAK  
+queen with gentle maternal eyes beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes fair smooth skin slender figure elegant silk gown with intricate floral embroidery long black hair pearl hairpiece lying on birthing bed sharp focus ultra fine painting (masterpiece:1.2), (best quality,4k,8k,highres:1.3), realistic skin tones  
+BREAK  
+newborn baby with snow-white skin rosy cheeks like apples smooth black hair gently spread over soft swaddling cloth peaceful sleeping expression delicate tiny hands vibrant skin tones ultra-detailed (realistic,photorealistic:1.37), vivid colors, studio lighting, sharp focus, extreme detail description, soft gentle light</t>
+  </si>
+  <si>
+    <t>The queen, a woman of about thirty years old with fair skin and a slender figure, dressed in an elegant silk gown embroidered with intricate floral patterns, her long black hair adorned with a pearl hairpiece, lay on the birthing bed. Her gentle eyes, filled with maternal love, gazed softly at the newborn beside her. The baby, with snow-white skin, rosy cheeks like apples, and smooth black hair gently spread over the swaddling cloth, rested peacefully by her side.</t>
   </si>
   <si>
     <t>国王和王后站在婴儿床旁，脸上洋溢着幸福的笑容，他们低头注视着熟睡中的小公主，周围装饰着华丽的宫殿陈设。</t>
   </si>
   <si>
-    <t>国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)和王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)站在婴儿床旁，脸上洋溢着幸福的笑容，他们低头注视着熟睡中的白雪公主（儿童）(character features: 一位五六岁的小女孩，皮肤如雪般洁白，双颊红润如苹果，头发乌黑柔顺地垂在肩上，身穿淡粉色的棉质连衣裙，脚上是一双白色小皮鞋，眼神天真无邪。)，周围装饰着华丽的宫殿陈设。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, HDR, (1man: middle-aged king, golden robe with intricate embroidery, jewel-encrusted crown, radiant smile, holding sword at waist, regal posture, full body), BREAK (1woman: porcelain skin, slender frame, jet-black hair, silk gown with floral embroidery, pearl-studded hairpin, maternal gaze, standing beside cradle), BREAK (1girl: sleeping princess, snow-pale skin, pink cotton dress, raven-black shoulder-length hair, flushed cheeks, white shoes, innocence aura), fantasy palace interior, ornate cradle, gilded arches, lavish tapestries, polished marble floor, crystal chandeliers, soft sunlight through stained glass, royal opulence style, glowing details, warm golden tones</t>
-  </si>
-  <si>
-    <t>In a lavishly adorned chamber of the palace, a middle-aged king stood beside an ornate cradle, his imposing features softened by a radiant smile. Clad in a resplendent golden robe embroidered with intricate patterns, he wore a jewel-encrusted crown that glimmered under the chamber’s chandeliers. A finely crafted sword hung at his waist, its hilt gleaming as he moved with a measured, regal gait. Beside him stood his queen and devoted wife, a woman in her early thirties with porcelain skin and a slender frame. Her jet-black hair cascaded down her back, contrasting with the delicate silk gown she wore—a garment adorned with embroidered floral motifs that shimmered with every subtle movement. A pearl-studded hairpin glinted atop her head, framing eyes that radiated warmth and maternal affection. Together, the royal couple gazed down at their slumbering daughter, a child of five or six whose ethereal beauty seemed to illuminate the room. The young princess’s snow-pale skin glowed against the soft pink cotton of her dress, her cheeks flushed like ripened apples. Raven-black hair fell in silken waves to her shoulders, and her tiny white shoes peeked out from beneath the hem of her gown. An air of innocence surrounded her as she slept, her peaceful expression mirrored by the adoring faces of her parents. Around them, the opulence of the palace—gilded arches, tapestries, and polished marble—served as a silent witness to this tender moment.</t>
+    <t>国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)和王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)站在婴儿床旁，脸上洋溢着幸福的笑容，他们低头注视着熟睡中的白雪公主（儿童）(character features: 一位五六岁的小女孩，皮肤如雪般洁白，双颊红润如苹果，头发乌黑柔顺地垂在肩上，身穿淡粉色的棉质连衣裙，脚上是一双白色小皮鞋，眼神天真无邪。)，周围装饰着华丽的宫殿陈设。</t>
+  </si>
+  <si>
+    <t>The king, a middle-aged man with a majestic appearance, dressed in a luxurious golden royal robe, wearing a crown embedded with jewels, and a delicate sword hanging at his waist, stood beside the cradle. Alongside him was the queen, his original wife, a woman about thirty years old with fair skin and a slender figure. She had long black hair and wore an elegant silk gown embroidered with intricate floral patterns along the hem. A pearl hair accessory adorned her head, and her eyes were gentle and filled with motherly love. Both of them smiled happily as they looked down at the sleeping Snow White, a little girl of five or six with snow-white skin, rosy apple-like cheeks, smooth black hair resting on her shoulders, dressed in a pale pink cotton dress and wearing a pair of white little leather shoes. The surroundings were decorated with lavish palace furnishings.</t>
   </si>
   <si>
     <t>城堡外，举国欢庆的景象，街道上挂满了彩旗，人们手捧鲜花，脸上带着喜悦的表情，似乎正在为白雪公主的诞生送上祝福。</t>
@@ -100,10 +118,7 @@
     <t>城堡外，举国欢庆的景象，街道上挂满了彩旗，人们手捧鲜花，脸上带着喜悦的表情，似乎正在为白雪公主（儿童）(character features: 一位五六岁的小女孩，皮肤如雪般洁白，双颊红润如苹果，头发乌黑柔顺地垂在肩上，身穿淡粉色的棉质连衣裙，脚上是一双白色小皮鞋，眼神天真无邪。)的诞生送上祝福。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: porcelain skin, flushed cheeks, raven-black hair, wide-eyed innocence, pale pink cotton dress, polished white shoes, fairy tale aura, full body), BREAK (crowds in background: holding vibrant bouquets, jubilant expressions, cheering), fantasy kingdom celebration, shimmering banners, castle walls, glowing sunlight, HDR, vibrant color palette, soft floral atmosphere, radiant joy, epic style, (celebration details: dancing banners, festive attire, glowing lanterns)</t>
-  </si>
-  <si>
-    <t>Beyond the castle walls, the entire kingdom was alive with jubilant celebrations. Streets shimmered with vibrant banners, their colors dancing in the breeze, while crowds thronged the avenues, arms brimming with fragrant bouquets. Joy radiated from every face, laughter echoing like music—a collective tribute to the arrival of the infant princess. At the heart of the festivities stood a child of five or six, her porcelain skin glowing like freshly fallen snow, cheeks flushed as ripe apples. Raven-black tresses cascaded softly over her shoulders, framing a face lit by wide-eyed innocence. She wore a simple yet charming ensemble: a cotton dress in the palest blush of pink, paired with polished white shoes that gleamed like morning dew. To all who gazed upon her, she embodied a living fairy tale—a vision of purity celebrated by the realm’s jubilant cheers.</t>
+    <t>Outside the castle, the entire nation celebrated joyfully. The streets were adorned with colorful banners, and people held fresh flowers in their hands, their faces radiant with happiness. They appeared to be offering their blessings for the birth of Snow White, a little girl of five or six years old with skin as fair as snow, rosy cheeks like apples, and smooth black hair cascading gently over her shoulders. She wore a light pink cotton dress and white small leather shoes, her eyes innocent and pure.</t>
   </si>
   <si>
     <t>白雪公主站在城堡的花园中，周围是各种可爱的小动物，小鹿、小兔子、松鼠和小鸟环绕着她，她手里拿着食物正在喂它们。</t>
@@ -112,10 +127,16 @@
     <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)站在城堡的花园中，周围是各种可爱的小动物，小鹿、小兔子、松鼠和小鸟环绕着她，她手里拿着食物正在喂它们。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: snow-white complexion, rosy cheeks, long raven-black hair, pale blue silk gown, intricate lace detailing, silver high heels, standing gracefully, serene smile, extending hands, offering food, castle garden), BREAK (woodland creatures: fawn, rabbits, squirrels, songbirds, bright eyes, encircling, anticipation), soft sunlight, glowing effects, fairy tale atmosphere, regal elegance, detailed foliage, HDR, warm colors, (background: medieval castle garden, stone pathways, blooming roses, ivy-covered arches)</t>
-  </si>
-  <si>
-    <t>Snow White, now a young woman in her mid-teens, retained her snow-white complexion and rosy cheeks. Her long, raven-black hair cascaded to her waist, framing a face of gentle poise. Clad in a pale blue silk gown adorned with intricate lace detailing and silver high heels, she stood gracefully in the castle garden. A gathering of woodland creatures—a fawn, rabbits, squirrels, and chirping songbirds—encircled her, their eyes bright with anticipation. With a serene smile, she extended her hands, offering morsels of food to the eager animals, her movements radiating warmth and regal kindness.</t>
+    <t>Snow White young woman about fifteen or sixteen, pure white skin, rosy cheeks, long black hair waist length, delicate light blue silk gown with intricate lace decorations, silver high-heeled shoes, soft dignified expression, castle garden setting, deer rabbits squirrels birds surrounding, holding out food kindly feeding animals, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering  
+BREAK  
+Snow White young woman about fifteen or sixteen, pure white skin, rosy cheeks, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, long black hair waist length, delicate light blue silk gown with intricate lace decorations, silver high-heeled shoes, soft dignified expression, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+castle garden lush greenery flowers sunlight, various adorable animals deer rabbits squirrels birds gathering around, vivid colors, professional, HDR, UHD, studio lighting, bokeh, physically-based rendering  
+BREAK  
+Snow White holding out food kindly feeding animals gentle posture, warm lighting, detailed hands and food items, realistic textures, ultra-detailed, extreme detail description</t>
+  </si>
+  <si>
+    <t>Snow White, appearing as a young woman of about fifteen or sixteen, stood gracefully in the castle garden. Her skin remained as pure and white as snow, with rosy cheeks adding a touch of warmth to her gentle complexion. Long black hair cascaded down to her waist, complementing the delicate light blue silk gown she wore. The dress was adorned with intricate lace decorations, and on her feet were silver high-heeled shoes. Her expression was soft and dignified. Surrounding her were various adorable animals—deer, rabbits, squirrels, and birds—gathering around as she held out food, kindly feeding them.</t>
   </si>
   <si>
     <t>白雪公主坐在草地上，微笑着看着周围的动物们，一些小动物似乎正聚精会神地听她讲故事，阳光洒在她和动物们的身上。</t>
@@ -124,10 +145,16 @@
     <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)坐在草地上，微笑着看着周围的动物们，一些小动物似乎正聚精会神地听她讲故事，阳光洒在她和动物们的身上。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: long jet-black hair, pale blue silk gown with intricate lace details, silver heels, porcelain skin, rosy cheeks, gentle smile, sitting gracefully in meadow, full body, sunlit purity), BREAK (woodland creatures: rabbit nestled in grass, birds perched on branches, deer tilting heads), golden sunlight through canopy, ethereal glow, enchanted forest background, HDR, soft sunlight, enchanting atmosphere, detailed eyes, intricate fabric textures, radiant warmth, fairytale style</t>
-  </si>
-  <si>
-    <t>Snow White, now a young woman in her mid-teens, sat gracefully upon a sunlit meadow, her porcelain skin glowing with a snow-like purity and cheeks flushed rose-pink. Her jet-black hair cascaded freely to her waist, framing the intricate lace patterns of her pale blue silk gown, while silver heels glimmered beneath its hem. With gentle poise, she smiled at the woodland creatures encircling her—a rabbit nestled in the grass, birds perched on nearby branches, and deer tilting their heads attentively. The animals, utterly captivated, leaned closer as her melodic voice wove an enchanting tale. Golden sunlight spilled through the canopy above, draping the serene gathering in a warm, ethereal glow.</t>
+    <t>Snow White young woman fifteen sixteen sitting gracefully on grass pure white skin rosy cheeks gentle demeanor long black hair waist length delicate light blue silk gown intricate lace decorations silver high heels elegant appearance tender composed expression warm smile small animals gathered listening sunlight soft golden glow warm natural forest background (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail description professional vivid colors bokeh physically-based rendering bright warm color tone soft lighting  
+BREAK  
+Snow White young woman fifteen sixteen pure white skin rosy cheeks beautiful detailed eyes extremely detailed eyes and face beautiful detailed lips long eyelashes long black hair waist length delicate light blue silk gown intricate lace decorations silver high heels elegant posture tender composed expression warm smile realistic skin tones sharp focus ultra fine painting (masterpiece:1.2) (best quality,4k,8k,highres:1.3)  
+BREAK  
+small animals various species gathered closely attentive listening expression bright eyes soft fur fur texture realistic detailed tiny creatures natural poses bokeh soft golden sunlight warm glow vivid colors studio lighting  
+BREAK  
+soft golden glow sunlight warm natural light bathing Snow White and animals gentle warm atmosphere bright warm color tone soft natural environment forest meadow grass ultra-detailed HDR UHD professional vivid colors physically-based rendering</t>
+  </si>
+  <si>
+    <t>Snow White, a young woman of about fifteen or sixteen, sat gracefully on the grass. Her skin remained as pure and white as snow, with rosy cheeks that added a touch of warmth to her gentle demeanor. Her long black hair cascaded down to her waist, complementing the delicate light blue silk gown she wore, which was adorned with intricate lace decorations. Silver high heels enhanced her elegant appearance. With a tender and composed expression, she smiled warmly at the animals gathered around her. Several small creatures appeared to listen intently as she shared stories, while sunlight bathed both her and the animals in a soft, golden glow.</t>
   </si>
   <si>
     <t>白雪公主在花园里快乐地奔跑，身后跟着一群小动物，她的笑容灿烂，显得非常幸福。</t>
@@ -136,10 +163,16 @@
     <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)在花园里快乐地奔跑，身后跟着一群小动物，她的笑容灿烂，显得非常幸福。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, soft sunlight, cinematic lighting, (1girl: age 15-16, pale snow skin, rosy cheeks, waist-length black hair, flowing azure silk gown, intricate lace patterns, silver heels, playful running, gentle elegance, quiet dignity, luminous smile, joyful expression), BREAK sunlit garden background, emerald grass, woodland creatures trailing, blooming blossoms, vibrant colors, HDR, glowing effects, dynamic pose, cinematic composition, fantasy atmosphere</t>
-  </si>
-  <si>
-    <t>In a sunlit garden, a young woman of fifteen or sixteen years—her skin as pale as freshly fallen snow, cheeks flushed with a rosy hue, waist-length ebony hair cascading freely—darted playfully across the emerald grass. Clad in a flowing azure silk gown adorned with intricate lace patterns, her silver heels glinting beneath the hem, she moved with a blend of gentle elegance and quiet dignity. A chorus of woodland creatures trailed behind her, drawn to her warmth. Her luminous smile, brimming with unguarded joy, seemed to breathe life into the blossoms around her, painting the air with contentment.</t>
+    <t>Snow White young woman about fifteen or sixteen, skin pure white as snow, rosy cheeks, long black hair waist length, light blue silk gown delicate lace, silver high heels, joyful expression, radiant smile, running through lush garden, accompanied by small animals like rabbits, birds, squirrels, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, soft natural lighting, vibrant green foliage, colorful flowers, dynamic composition  
+BREAK  
+Snow White gentle and dignified expression, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, fair flawless skin, long flowing black hair with natural shine, light blue silk gown with intricate lace patterns, silver high heels reflecting light, radiant smile showing happiness, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), realistic skin tones, photorealistic details  
+BREAK  
+garden lush green foliage, vibrant colorful flowers in various shades, soft sunlight filtering through trees, small animals including rabbits, birds perched and flying, squirrels on branches, natural and lively atmosphere, ultra detailed plants and textures, vivid colors, bokeh highlights, physically based rendering, studio lighting  
+BREAK  
+small animals group following Snow White, playful rabbits hopping, bright birds fluttering, curious squirrels, ultra detailed fur and feathers, lively dynamic poses, natural color tones, sharp focus, photorealistic detail</t>
+  </si>
+  <si>
+    <t>Snow White, now a young woman of about fifteen or sixteen, with skin as pure and white as snow and rosy cheeks, let her long black hair flow down to her waist. She wore a light blue silk gown adorned with delicate lace, and silver high heels graced her feet. Her expression was gentle and dignified as she joyfully ran through the garden, followed closely by a group of small animals. Her radiant smile reflected a deep sense of happiness.</t>
   </si>
   <si>
     <t>白雪公主站在已故母亲的画像前，神情悲伤，周围是昏暗的房间，墙上挂着已故王后的肖像，显得格外凄凉。</t>
@@ -148,22 +181,34 @@
     <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)站在已故母亲的画像前，神情悲伤，周围是昏暗的房间，墙上挂着王后（原配）(character features: 一位约三十岁的女子，皮肤白皙，身材修长，留着黑色长发，穿着优雅的丝绸长裙，裙摆绣有繁复的花纹，头戴珍珠发饰，眼神温柔且充满母爱。)的肖像，显得格外凄凉。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: age 15-16, porcelain skin, rosy cheeks, long black hair, pale blue silk gown, intricate lace patterns, silver heels, sorrowful expression, standing before portrait, candlelight illumination), BREAK (1woman: late 30s, elegant silk robes, floral embroidery, pearled ornaments, raven hair, maternal gaze, portrait on wall), dimly lit chamber, flickering candlelight, oppressive silence, oil painting style, HDR, soft shadows, dramatic atmosphere, rich textures, golden frame details</t>
-  </si>
-  <si>
-    <t>In a dimly lit chamber, a young maiden of fifteen or sixteen stood before the portrait of her deceased mother, her figure illuminated faintly by the flickering candlelight. Her porcelain skin retained the purity of freshly fallen snow, cheeks flushed with a delicate rosy hue, while waves of jet-black hair cascaded down to her slender waist. Clad in a pale blue silk gown adorned with intricate lace patterns, she stood poised in silver heels, her demeanor radiating gentle grace tinged with sorrow. The oppressive silence of the room was deepened by the presence of another portrait on the wall – that of the late queen, a statuesque woman in her thirties depicted in elegant silk robes embroidered with elaborate floral motifs. The former monarch's raven tresses were crowned with pearled ornaments, her pale complexion framed by features softened by maternal warmth, her gaze frozen in time as a tender, loving counterpoint to the mournful scene below.</t>
+    <t>Snow White young woman about fifteen sixteen, pure white skin, rosy cheeks, long black hair cascading to waist, light blue silk gown with delicate lace, silver high-heeled shoes, gentle dignified demeanor, sorrowful expression, dimly lit melancholy room, portrait of late mother hanging on wall, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, soft warm light, muted color tone  
+BREAK  
+Snow White young woman about fifteen sixteen, pure white skin, rosy cheeks, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, long black hair cascading to waist, light blue silk gown with delicate lace, silver high-heeled shoes, gentle dignified demeanor, sorrowful expression, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, soft warm light  
+BREAK  
+portrait of Queen mother woman about thirty, fair skin, slender figure, long black hair framing face, elegant silk dress embroidered with intricate floral patterns, pearl hairpiece, warm maternal eyes, loving expression, realistic skin tones, beautiful detailed eyes, long eyelashes, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37), professional, soft warm lighting, muted colors  
+BREAK  
+dimly lit melancholy room surrounding snow white and portrait, heavy sorrowful atmosphere, soft shadows, textured walls, wooden floor, subtle background details, muted and warm color palette, HDR, UHD, studio lighting, ultra-fine painting, bokeh</t>
+  </si>
+  <si>
+    <t>Snow White, now a young woman of about fifteen or sixteen, stood before the portrait of her late mother with a sorrowful expression. Her skin remained as pure and white as snow, her cheeks flushed with a gentle rosy hue. Her long black hair cascaded down to her waist, and she wore a light blue silk gown adorned with delicate lace. On her feet were silver high-heeled shoes, and her demeanor was both gentle and dignified. The dimly lit room around her felt heavy with melancholy. Hanging on the wall was a portrait of the Queen, her mother, who appeared to be around thirty years old. The Queen had fair skin and a slender figure, her long black hair framing an elegant silk dress embroidered with intricate floral patterns. A pearl hairpiece adorned her head, and her eyes reflected warmth and maternal love, which only deepened the sense of sorrow in the room.</t>
   </si>
   <si>
     <t>国王带着一位身着华丽长裙、面容美丽但表情骄傲冷漠的新王后走进大厅，新王后手中捧着一面装饰精美的魔镜，镜面泛着奇异的光芒。</t>
   </si>
   <si>
-    <t>国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)带着一位身着华丽长裙、面容美丽但表情骄傲冷漠的新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)走进大厅，新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)手中捧着一面装饰精美的魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)，镜面泛着奇异的光芒。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1man: middle-aged, austere expression, golden robes, jewel-encrusted diadem, ornate sword at hip, regal posture, full body), BREAK (1woman: porcelain complexion, chestnut curls, deep brown eyes, icy gaze, black and crimson brocade gown, golden-threaded embroidery, emerald necklaces, ornate rings, holding ornate silver mirror, obsidian marble frame, intricate carvings, glowing aura), grand hall interior, dramatic lighting, regal atmosphere, HDR, photorealistic, intricate details</t>
-  </si>
-  <si>
-    <t>The king—a middle-aged man with an austere countenance, draped in opulent golden robes and crowned with a jewel-encrusted diadem, a finely wrought sword swaying at his hip—strode into the grand hall with deliberate, regal steps. Beside him glided the newly crowned queen, a woman in her forties whose striking beauty was tempered by an icy aloofness. Her porcelain complexion contrasted with cascading chestnut curls, while her deep brown eyes held a distant chill. Adorned in a lavish gown of black and crimson brocade, its hem shimmering with golden-threaded embroidery, she wore emerald-studded necklaces and earrings, her fingers laden with ornate rings. Clutched in her hands was an ornate silver mirror, its obsidian marble frame carved with intricate patterns. The glass surface gleamed with an otherworldly luminescence, reflecting flawless images yet exuding an aura of enigmatic power.</t>
+    <t>国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)带着一位身着华丽长裙、面容美丽但表情骄傲冷漠的新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)走进大厅，新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)手中捧着一面装饰精美的魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)，镜面泛着奇异的光芒。</t>
+  </si>
+  <si>
+    <t>middle aged king with majestic appearance, magnificent golden royal robe, crown adorned with gemstones, exquisite sword hanging at waist, new queen about forty years old, proud indifferent expression, fair skin, deep brown curly hair, dark brown eyes, black and red brocade gown with golden embroidery hem, jade necklace and earrings, multiple rings on fingers, noble demeanor with hint of arrogance, elaborately decorated magical mirror large silver with black marble frame carved intricate patterns, mirror surface smooth like water reflecting clear images, mysterious aura, mirror shimmering strange light, entering hall, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, dramatic warm lighting, regal color tone  
+BREAK  
+middle aged king, majestic face, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, splendid golden robe with intricate embroidery, gem encrusted crown, exquisite sword at waist, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), regal posture  
+BREAK  
+queen about forty, proud expression, fair smooth skin, deep brown curly hair, beautiful detailed dark brown eyes, perfectly shaped eyebrows, elegant long eyelashes, black and red brocade gown detailed golden embroidery hem, jade necklace and earrings, multiple ornate rings, noble and slightly arrogant demeanor, realistic skin textures, vivid colors, studio lighting  
+BREAK  
+elaborately decorated magical mirror, large silver surface framed by black marble carved with intricate patterns, smooth water-like reflective surface showing clear but featureless reflection, mysterious aura, shimmering with strange light, ultra detailed texture, sharp focus, professional ultra-fine painting</t>
+  </si>
+  <si>
+    <t>The king, a middle-aged man with a majestic appearance, dressed in a magnificent golden royal robe and wearing a crown adorned with gemstones, with an exquisite sword hanging at his waist, entered the hall accompanied by the new queen. She was a beautiful woman of about forty years old, her expression proud and indifferent, with fair skin and deep brown curly hair. Her eyes were dark brown, and she wore a brocade gown in black and red, the hem decorated with golden embroidery. She adorned herself with a jade necklace and earrings, wore multiple rings on her fingers, and her noble demeanor carried a hint of arrogance. In her hands, she held an elaborately decorated magical mirror—a large silver mirror framed with black marble carved with intricate patterns. The mirror's surface was smooth like water, reflecting clear images, devoid of any distinct facial features but exuding a mysterious aura. The mirror’s surface shimmered with a strange light as they stepped into the hall.</t>
   </si>
   <si>
     <t>新王后站在宫殿内，对着魔镜喃喃自语，镜中浮现出模糊的影像，映衬出她那既自负又阴沉的神情。</t>
@@ -172,10 +217,16 @@
     <t>新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)站在宫殿内，对着魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)喃喃自语，镜中浮现出模糊的影像，映衬出她那既自负又阴沉的神情。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: 40s, sharp icy beauty, porcelain skin, long chestnut curls, dark piercing eyes, black and crimson brocade gown, gold-threaded embroidery, emerald necklace and earrings, multiple rings, regal posture, haughty gaze, full body, standing before mirror), BREAK (enchanted mirror: massive silver surface, obsidian marble frame, twisting cryptic carvings, rippling reflection, hazy shifting images, glowing runes), grand palace hall background, dramatic shadows, soft glowing light, HDR, intricate embroidery details, eerie atmosphere, royal elegance style, brooding ambiance, (jewel sparkle:1.1), (regal authority:1.1)</t>
-  </si>
-  <si>
-    <t>The newly crowned queen—a striking woman in her forties with sharp, icy beauty, porcelain skin, and cascading chestnut curls framing her dark, piercing eyes—stood within the grand palace hall. Her opulent gown of black-and-crimson brocade shimmered with gold-threaded embroidery, while emeralds glinted at her throat and ears, their cold brilliance matched by the cluster of rings adorning her slender fingers. Her posture radiated regal authority, yet a haughty sharpness lingered in her gaze. Before her loomed the enchanted mirror—an imposing slab of silver framed by obsidian marble carved with twisting, cryptic patterns. Its surface, smooth as still water, cast back her reflection with unnatural clarity. As she addressed the mirror in a low, contemplative voice, the glass rippled like a disturbed pond, conjuring hazy, shifting images that seemed to amplify her imperious sneer and the brooding shadows etched across her features. The air hummed with the mirror’s eerie, wordless presence, its silence heavy with secrets.</t>
+    <t>new queen about forty, striking yet slightly stern beauty, fair skin, dark brown curly hair, deep brown eyes, black and red brocade gown with gold thread embroidery at the hem, jade necklace and earrings, several rings glinting on fingers, regal demeanor with hint of arrogance, standing inside ornate palace, facing enormous silver mirror framed with black marble and intricate carvings, smooth surface reflecting crystal clear images, blurred image in mirror showing prideful yet gloomy expression, mysterious atmosphere, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail, professional, vivid colors, bokeh, physically-based rendering  
+BREAK  
+queen about forty, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, fair skin with realistic skin texture, dark brown curly hair, deep brown eyes, regal and slightly stern expression, subtle arrogance in posture, elegant black and red brocade gown with intricate gold embroidery at hem, multiple shining rings on fingers, detailed jade necklace and earrings, sharp focus, ultra-fine painting, (best quality,4k,8k,highres:1.3), masterpiece  
+BREAK  
+enormous silver mirror, framed with black marble richly adorned with intricate carvings, smooth reflective surface showing distorted blurred image matching queen’s expression, crystal-clear reflections elsewhere, mysterious aura, detailed textures on frame, sharp focus, UHD, HDR, ultra-detailed, photorealistic rendering  
+BREAK  
+ornate palace interior, elaborate architectural details subtly lit by studio lighting, warm and rich color tones emphasizing regal atmosphere, vivid colors, bokeh background emphasizing queen and mirror as focal points, ultra-fine painting, extreme detail, professional composition</t>
+  </si>
+  <si>
+    <t>The new queen, a woman of about forty with a striking yet slightly stern beauty, stood inside the palace. Her fair skin complemented her dark brown curly hair and deep brown eyes. She wore a black and red brocade gown adorned with gold thread embroidery at the hem, and her jade necklace and earrings added to her noble appearance. Several rings glinted on her fingers, and despite her regal demeanor, there was a hint of arrogance about her. Facing the enormous silver mirror framed with black marble and intricate carvings, its smooth surface reflecting images with crystal clarity, she murmured to herself. The mirror, emanating an air of mystery without any distinct features, revealed a blurred image that mirrored her expression—prideful yet gloomy.</t>
   </si>
   <si>
     <t>王后站在魔镜前，神情专注地等待着魔镜的回答。</t>
@@ -184,11 +235,16 @@
     <t>新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)站在魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)前，神情专注地等待着魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)的回答。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: pale complexion, chestnut curly hair, dark amber eyes, crimson and black brocade gown, golden embroidery, jade necklace, multiple rings, regal posture, haughty expression, sharp gaze:1.3), BREAK (enchanted mirror: liquid mercury surface, black marble frame, esoteric carvings, glowing mystical patterns, ominous aura), royal chamber interior, magical atmosphere, dramatic shadows, glowing effects, HDR, dark fantasy style, intricate details, volumetric light, golden accents</t>
-  </si>
-  <si>
-    <t>The new queen, a woman in her early forties with striking beauty tempered by an air of aloofness, stood before the enchanted mirror. Her pale complexion contrasted with the deep chestnut curls framing her face, while her dark amber eyes fixed intently on the glass. She wore a gown of black and crimson brocade, its hem adorned with intricate golden embroidery that shimmered faintly. A jade necklace and earrings complemented the multiple rings glittering on her slender fingers, her regal bearing carrying an undercurrent of haughtiness.  
-The massive silver mirror loomed before her, its frame carved from black marble with swirling, esoteric patterns. The surface rippled like liquid mercury, reflecting her image with crystalline clarity. Though devoid of any discernible features, the mirror exuded an unsettling, otherworldly presence, as though it harbored secrets older than the stone surrounding it. With piercing focus, the queen awaited the enchanted looking glass's pronouncement, her breath stilled in the heavy silence.</t>
+    <t>the new queen a woman about forty years old with beautiful slightly stern features fair skin deep brown curly hair dark brown eyes standing before an enchanted mirror wearing a long brocade gown interwoven with black and red hem adorned with gold thread embroidery jade jewelry on neck and ears multiple rings on fingers noble demeanor tinged with arrogance massive silver mirror framed with black marble carved with intricate patterns surface smooth as water reflecting clear images aura of mystery best quality 4k 8k highres masterpiece 1.2 ultra-detailed realistic photorealistic photo-realistic 1.37 HDR UHD studio lighting ultra-fine painting sharp focus extreme detail description professional vivid colors bokeh physically-based rendering warm color tone dramatic lighting  
+BREAK  
+queen about forty years old beautiful slightly stern facial features fair skin deep brown curly hair dark brown eyes beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes noble expression multiple jade rings on fingers jade necklace jade earrings detailed brocade gown interwoven black red gold thread embroidery realistic photorealistic sharp focus ultra fine painting masterpiece 1.2 best quality 4k 8k highres  
+BREAK  
+massive enchanted mirror silver frame black marble intricate pattern carvings smooth water-like surface clear reflection aura of mystery no distinct features photorealistic ultra-detailed HDR UHD studio lighting sharp focus vivid colors physically-based rendering  
+BREAK  
+background dimly lit room subtle shadows warm dramatic lighting emphasizing queen and mirror ultra-fine painting vivid colors soft bokeh professional composition</t>
+  </si>
+  <si>
+    <t>The new queen, a woman of about forty years old with beautiful yet slightly stern features, fair skin, deep brown curly hair, and dark brown eyes, stood before the enchanted mirror. She wore a long brocade gown interwoven with black and red, its hem adorned with gold thread embroidery. Around her neck and ears hung jade jewelry, and multiple rings adorned her fingers. Her demeanor was noble, though tinged with a hint of arrogance. She waited intently and focused on the enchanted mirror—a massive silver mirror framed with black marble carved with intricate patterns, its surface smooth as water, reflecting clear images, emitting an aura of mystery despite lacking any distinct features—for its response.</t>
   </si>
   <si>
     <t>魔镜的表面泛起奇异的光芒，显示出白雪公主比王后美丽的画面。</t>
@@ -197,10 +253,16 @@
     <t>魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)的表面泛起奇异的光芒，显示出白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)比新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)美丽的画面。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: snow-pale skin, rosy cheeks, jet-black waist-length hair, sky-blue silk gown with delicate lace, silver heels, gentle regal demeanor, serene expression, full body), BREAK (1woman: late thirties, alabaster complexion, deep chestnut curls, piercing brown eyes, crimson and black brocade gown with gold embroidery, jade necklace and rings, haughty posture, icy features), polished black marble mirror frame with intricate patterns, ancient mysterious aura, glowing uncanny light, fantasy royal contrast, soft ethereal glow, HDR, detailed fabric textures, dramatic chiaroscuro, (opulent palace background:1.1)</t>
-  </si>
-  <si>
-    <t>The surface of the enormous silver mirror—framed in polished black marble carved with intricate patterns, its glass smooth as still water and radiating an aura of ancient mystery—rippled with an uncanny light. A vision materialized, revealing that the now-adult Snow White, a maiden of sixteen with snow-pale skin, rosy cheeks, and cascading jet-black hair that fell to her waist, outshone the new Queen in beauty. Snow White stood serenely in a sky-blue silk gown adorned with delicate lace, her silver heels glinting softly, her demeanor gentle yet regal. In stark contrast, the Queen—a woman nearing forty with striking but icy features, her alabaster complexion framed by deep chestnut curls and piercing brown eyes—wore a gown of crimson and black brocade embroidered with gold thread. Her jade necklace and rings gleamed opulently, though her haughty posture betrayed a brittle arrogance.</t>
+    <t>magic mirror surface massive silver glass framed black marble intricate carvings smooth water glow unusual light reflection adult Snow White snow white skin rosy cheeks long black hair waist length light blue silk gown delicate lace silver high heels gentle dignified expression more beautiful than new queen woman around forty striking slightly stern fair skin deep brown curly hair dark brown eyes black red brocade gown golden embroidered hem emerald necklace earrings multiple rings noble air hint arrogance (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail professional vivid colors bokeh physically-based rendering cool color tone soft lighting  
+BREAK  
+magic mirror surface silver reflective glass black marble frame intricate detailed carvings smooth polished water like shine glowing ethereal light mystical atmosphere ultra detailed (best quality,4k,8k,highres:1.3) HDR UHD sharp focus professional vivid colors bokeh  
+BREAK  
+Snow White girl fifteen sixteen snow white skin rosy cheeks extremely detailed eyes beautiful detailed lips long eyelashes long flowing black hair waist length light blue silk gown lace embroidery silver high heels gentle dignified calm expression (realistic,photorealistic:1.37) sharp focus ultra-fine painting vivid colors soft lighting  
+BREAK  
+new queen woman about forty striking slightly stern appearance fair skin deep brown curly hair dark brown eyes black red brocade gown golden thread embroidery hem emerald necklace emerald earrings multiple rings on fingers noble aristocratic air slight arrogance (realistic,photorealistic:1.37) HDR UHD studio lighting ultra-detailed sharp focus vivid colors</t>
+  </si>
+  <si>
+    <t>The surface of the magic mirror, a massive silver-looking glass framed with black marble intricately carved with complex patterns and smooth as water, began to glow with an unusual light. It clearly reflected an image of Snow White as an adult—a girl of about fifteen or sixteen with snow-white skin, rosy cheeks, long black hair flowing down to her waist, dressed in a light blue silk gown adorned with delicate lace, wearing silver high heels, and bearing a gentle and dignified expression. This image showed Snow White to be more beautiful than the new queen, a woman of around forty with a striking yet slightly stern appearance, fair skin, deep brown curly hair, dark brown eyes, dressed in a black and red brocade gown embroidered with golden threads at the hem, adorned with an emerald necklace and earrings, fingers decorated with multiple rings, exuding a noble air tinged with a hint of arrogance.</t>
   </si>
   <si>
     <t>新王后面容扭曲，眼中充满愤怒，双手紧握成拳。</t>
@@ -209,10 +271,16 @@
     <t>新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)面容扭曲，眼中充满愤怒，双手紧握成拳。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1woman: middle-aged, striking beauty, icy stern expression, fair complexion, long deep brown curls, dark piercing eyes, furious face, eyes blazing, clenched fists, white knuckles, lavish black and crimson brocade gown, gold-threaded embroidery, jade necklace and earrings, ornate rings, standing rigidly, full body view), grand throne room background, intricate pillars, crimson drapes, golden accents, dramatic shadows, HDR, sharp focus, realistic texture, regal atmosphere, soft glowing chandelier light, royal portraiture style</t>
-  </si>
-  <si>
-    <t>The new queen — a woman in her forties with striking beauty tempered by an icy sternness — stood rigidly. Her fair complexion contrasted sharply with her deep brown curls and equally dark, piercing eyes. Adorned in a lavish brocade gown of black and crimson, its hem shimmering with gold-threaded embroidery, she wore jade at her throat and ears, her fingers burdened by ornate rings that spoke of both wealth and imperiousness. Now, her face twisted with rage, eyes blazing, fists clenched so tightly her knuckles whitened, she radiated a wrath as sharp as the jewels upon her.</t>
+    <t>the new queen about forty years old woman with beautiful slightly stern features fair skin deep brown curly hair dark brown eyes wearing black and red brocade gown gold thread embroidery along hem jade necklace earrings multiple rings on fingers noble demeanor hint of arrogance angry facial expression blazing fury clenched fists intense mood indoor throne room background (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail professional vivid colors bokeh physically-based rendering warm lighting dramatic shadows elegant ornate setting  
+BREAK  
+woman about forty years old new queen beautiful slightly stern facial features fair skin deep brown curly hair dark brown eyes angry fierce expression blazing fury clenched fists extremely detailed eyes and face long eyelashes beautiful detailed lips realistic skin tones sharp focus ultra-fine painting (masterpiece:1.2) (best quality,4k,8k,highres:1.3)  
+BREAK  
+black and red brocade gown with gold thread embroidery along hem jade necklace jade earrings multiple ornate rings on fingers intricate jewelry realistic textures vivid colors sharp details (realistic,photorealistic:1.37) studio lighting  
+BREAK  
+noble elegant posture hint of arrogance indoor throne room dim warm lighting ornate background rich textures dramatic shadows HDR UHD professional ultra detailed bokeh physically-based rendering</t>
+  </si>
+  <si>
+    <t>The new queen, a woman of about forty years old with beautiful yet slightly stern features, fair skin, deep brown curly hair, and dark brown eyes, was dressed in a black and red brocade gown adorned with gold thread embroidery along the hem. She wore a jade necklace and earrings, and multiple rings decorated her fingers. Her noble demeanor carried a hint of arrogance. At that moment, her face twisted with anger, her eyes blazing with fury, and her hands clenched tightly into fists.</t>
   </si>
   <si>
     <t>宫廷内，王后威严地向武士下达命令，她的表情冷酷而决绝，手指向远方示意武士离开。</t>
@@ -221,12 +289,16 @@
     <t>宫廷内，新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)威严地向武士(character features: 一位壮年男子，约三十五岁，身材魁梧，留着短发，肤色黝黑，身穿铁灰色铠甲，腰间佩带一把锋利的长剑，脚穿厚重的皮靴，神情严肃且忠诚。)下达命令，她的表情冷酷而决绝，手指向远方示意武士(character features: 一位壮年男子，约三十五岁，身材魁梧，留着短发，肤色黝黑，身穿铁灰色铠甲，腰间佩带一把锋利的长剑，脚穿厚重的皮靴，神情严肃且忠诚。)离开。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.3), ultra-detailed, royal palace interior, dramatic lighting, (1woman:40s, sharp icy beauty, pale complexion, long dark chestnut curls, deep brown eyes, regal posture, lavish black crimson brocade gown, gold-threaded embroidery, emerald necklace earrings, ornate rings, imperious expression, raised hand gesture), BREAK (1man:35s, broad-shouldered, sun-weathered face, cropped hair, steel-gray armor, green cape, leather boots, longsword at belt, stoic loyal expression, standing firm), stone floor, glowing candlelight, golden accents, intricate pillars, HDR, cinematic composition, royal elegance style, chiaroscuro shadows</t>
-  </si>
-  <si>
-    <t>Within the opulent halls of the royal palace, the newly crowned queen—a striking woman in her forties with sharp, icy beauty, pale complexion, and cascading dark chestnut curls—stood imperiously. Her deep brown eyes glinted with authority as she addressed the warrior. Clad in a lavish gown of black and crimson brocade, its hem shimmering with gold-threaded embroidery, she adorned herself with emerald jewels at her throat and ears, her fingers laden with ornate rings. Her posture exuded regality, yet an undercurrent of haughtiness sharpened her tone.  
-Before her stood the warrior—a broad-shouldered man of thirty-five, his sun-weathered face framed by cropped hair, his muscular frame encased in steel-gray armor. A formidable longsword hung at his belt, its edge honed to lethal precision, while heavy leather boots anchored him to the stone floor. His expression, unwavering and dutiful, mirrored his loyalty.  
-With a frigid resolve, the queen lifted her hand, her jeweled fingers gesturing commandingly toward the distant horizon. "Go," she declared, her voice slicing through the air like a blade, "and do not return until your task is complete." The order brooked no dissent, her chilling gaze leaving no doubt of the consequences of failure.</t>
+    <t>inside an ornate palace hall, a beautiful yet stern new queen in her forties with fair skin, deep brown curly hair, dark brown eyes, wearing a long black and red brocade dress with gold thread embroidery at the hem, adorned with a jade necklace, jade earrings, multiple rings on her fingers, exuding noble and slightly arrogant air, solemnly issuing orders to a burly thirty-five year old warrior with short hair, dark skin, clad in iron-gray armor, sharp long sword at his waist, heavy leather boots, cold and resolute expression, gesturing toward the distance, commanding the warrior to leave, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, warm indoor lighting, rich colors, baroque style palace interior, elegant and majestic atmosphere  
+BREAK  
+new queen in her forties, beautiful detailed eyes, extremely detailed eyes and face, beautiful detailed lips, long eyelashes, fair skin, deep brown curly hair, dark brown eyes, wearing black and red long brocade dress with gold embroidery, jade necklace and earrings, multiple rings on fingers, stern and noble expression, cold and resolute look, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+burly warrior about thirty-five years old, short hair, dark skin, iron-gray armor, sharp long sword at waist, heavy leather boots, standing attentively, serious expression, realistic skin textures, sharp focus, ultra-detailed, (realistic,photorealistic:1.37), vivid colors, studio lighting  
+BREAK  
+palace hall interior, baroque style, ornate decorations, warm indoor lighting, intricate marble floors, grand pillars, richly decorated walls, majestic atmosphere, bokeh background, extremely detailed environment, professional lighting</t>
+  </si>
+  <si>
+    <t>Inside the palace, the new queen, a beautiful yet somewhat stern woman in her forties with fair skin, deep brown curly hair, and dark brown eyes, wore a long brocade dress in black and red adorned with gold thread embroidery at the hem. She also wore a jade necklace and earrings, with multiple rings on her fingers, exuding a noble yet slightly arrogant air. She solemnly issued orders to the warrior, a burly man around thirty-five years old with short hair and dark skin, clad in iron-gray armor, a sharp long sword at his waist, and heavy leather boots. Her expression was cold and resolute as she gestured toward the distance, commanding the warrior to leave.</t>
   </si>
   <si>
     <t>森林中，武士抽出刀对准白雪公主，但看到公主正在采花，纯洁善良的模样让他停下了动作，他的脸上露出挣扎与不忍的神情。</t>
@@ -235,10 +307,16 @@
     <t>森林中，武士(character features: 一位壮年男子，约三十五岁，身材魁梧，留着短发，肤色黝黑，身穿铁灰色铠甲，腰间佩带一把锋利的长剑，脚穿厚重的皮靴，神情严肃且忠诚。)抽出刀对准白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)，但看到白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)正在采花，纯洁善良的模样让他停下了动作，他的脸上露出挣扎与不忍的神情。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1man: broad chest, cropped jet-black hair, sun-darkened skin, steel-plated armor, razor-edged longsword, tense muscles, conflicted expression, stormcloud metallic sheen, weathered boots, mid-swing pose), BREAK (1girl: snow-marble complexion, rose-flushed cheeks, nightfall black hair, cerulean silk gown with lace trim, silver slippers, porcelain hands holding wild blooms, kneeling pose, guileless smile, foxgloves and ferns surrounding), shadowed woodland background, morning golden light, fantasy battle atmosphere, glowing sword effects, HDR, dramatic contrast, (quivering swordtip:1.1), crushed forest loam underfoot, soft sunlight filtering through trees, intricate armor details, hyper-realistic eyes, emotional tension, Baroque-inspired composition</t>
-  </si>
-  <si>
-    <t>In the shadowed woodland, a battle-worn warrior—a broad-chested man of thirty-five with cropped jet hair, sun-darkened skin, and steel-plated armor glinting like storm clouds—drew his razor-edged longsword with a metallic hiss. His weathered boots ground into the forest loam as he leveled the blade toward Snow White, now a maiden of sixteen summers. She knelt amidst foxgloves and ferns, the morning light gilding her snow-marble complexion and rose-flushed cheeks. Her nightfall hair spilled over the cerulean silk of her lace-trimmed gown, silver slippers peeking beneath the hem as she cradled wild blooms with porcelain hands. The warrior's arm froze mid-strike, tendons standing rigid beneath his vambrace. Years of battlefield resolve crumbled as her guileless smile pierced his core—a sacred flame melting iron purpose. His jaw clenched, the swordtip quivering like a compass needle caught between duty and mercy, until at last his weapon sank earthward, its deadly arc undone by compassion's silent triumph.</t>
+    <t>(sturdy warrior man about thirty-five years old, short hair, dark skin, iron-gray armor, sharp longsword at waist, heavy leather boots, drawing blade, conflicted reluctant expression, forest background, snow white young woman fifteen or sixteen, snow-white skin, rosy cheeks, long black hair waist-length, light blue silk gown with delicate lace, silver high heels, gathering flowers, gentle dignified demeanor, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail, professional, vivid colors, bokeh, physically-based rendering, natural color tones, soft lighting)  
+BREAK  
+sturdy warrior man about thirty-five years old, short hair, dark skin, iron-gray armor with detailed texture, sharp longsword at waist, heavy leather boots, conflicted reluctant facial expression, beautiful detailed eyes, extremely detailed eyes and face, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+young woman snow white fifteen or sixteen, snow-white skin, rosy cheeks, long black hair flowing down waist, light blue silk gown with delicate lace embroidery, silver high heels, gentle dignified demeanor, gathering wildflowers, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, vivid colors, studio lighting, (realistic,photorealistic:1.37), UHD, sharp focus, ultra fine painting  
+BREAK  
+forest environment, lush greenery, dappled sunlight through leaves, wildflowers scattered on ground, serene natural setting, soft natural lighting, bokeh background, ultra-detailed foliage, photorealistic textures, HDR, professional quality, vivid natural colors</t>
+  </si>
+  <si>
+    <t>In the forest, a warrior—a sturdy man of about thirty-five years old with short hair and dark skin, clad in iron-gray armor, a sharp longsword at his waist, and heavy leather boots on his feet—drew his blade, aiming it at Snow White, a young woman of fifteen or sixteen. Snow White had snow-white skin, rosy cheeks, and long black hair flowing down to her waist. She wore a light blue silk gown adorned with delicate lace and silver high heels, exuding a gentle and dignified demeanor. However, when the warrior saw Snow White gathering flowers, her pure and kind appearance caused him to halt his action. A conflicted and reluctant expression showed on his face.</t>
   </si>
   <si>
     <t>武士宰杀了一头猪，取下心和舌头放入容器中，随后他转身朝皇宫方向走去，背影坚定。</t>
@@ -247,25 +325,52 @@
     <t>武士(character features: 一位壮年男子，约三十五岁，身材魁梧，留着短发，肤色黝黑，身穿铁灰色铠甲，腰间佩带一把锋利的长剑，脚穿厚重的皮靴，神情严肃且忠诚。)宰杀了一头猪，取下心和舌头放入容器中，随后他转身朝皇宫方向走去，背影坚定。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1man: short-cropped hair, weathered face, mid thirties, iron-gray armor, calloused hands, holding polished brass vessel with glistening boar heart and tongue, standing over slain boar, determined expression, full body), rugged battlefield background, distant palace gates, soft sunlight, leather boots, razor-edged longsword at hip, crimson blood details, HDR, epic style, dramatic shadows, (armor gleaming dully under sunlight:1.1), resolute march posture, squared shoulders, atmospheric depth</t>
-  </si>
-  <si>
-    <t>A burly, short-cropped warrior in his mid-thirties, his weathered features hardened by years of duty, stood over the slain boar. Clad in iron-gray armor that gleamed dully beneath the sun, he methodically severed the animal’s heart and tongue, their crimson surfaces glistening as he placed them into a polished brass vessel. His calloused hands, accustomed to the grip of the razor-edged longsword at his hip, moved with practiced precision. Without hesitation, he pivoted on the heels of his rugged leather boots, shoulders squared and gaze fixed ahead, and began his resolute march toward the distant palace gates, the vessel clutched tightly—a silent vow etched into every stride.</t>
+    <t>a robust man in his mid-thirties with short hair and dark skin clad in iron-gray armor wearing heavy leather boots carrying a sharp long sword at his waist solemn loyal expression slaughtered pig careful removed heart and tongue placing into container turning walking resolutely toward imperial palace firm determined silhouette (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail description professional vivid colors bokeh physically-based rendering dramatic lighting medieval fantasy tone  
+BREAK  
+robust man mid-thirties short hair dark skin iron-gray armor heavy leather boots sharp long sword solemn loyal expression extremely detailed eyes and face beautiful detailed eyes beautiful detailed lips long eyelashes realistic skin tones sharp focus ultra fine painting (masterpiece:1.2) (best quality,4k,8k,highres:1.3)  
+BREAK  
+slaughtered pig detailed anatomy realistic blood texture natural pose ultra detailed texture sharp focus vivid colors  
+BREAK  
+imperial palace background grand majestic architecture distant silhouette firm determined posture atmospheric depth dramatic lighting UHD professional rendering</t>
+  </si>
+  <si>
+    <t>A robust man in his mid-thirties, with short hair and dark skin, clad in iron-gray armor, wearing heavy leather boots, and carrying a sharp long sword at his waist, solemn and loyal in expression, slaughtered a pig. He carefully removed its heart and tongue, placing them into a container. Then, turning around, he walked resolutely toward the imperial palace, his silhouette firm and determined.</t>
+  </si>
+  <si>
+    <t>白雪公主听到猫头鹰叫声，走在阴森的森林中，表情惊恐。突然，她看到一栋小木屋，脸上露出又惊又喜的神情。</t>
   </si>
   <si>
     <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)听到猫头鹰叫声，走在阴森的森林中，表情惊恐。突然，她看到一栋小木屋，脸上露出又惊又喜的神情。</t>
   </si>
   <si>
-    <t>Snow White, now a young woman in her mid-teens, retained her porcelain complexion and rosy cheeks, her jet-black hair cascading to her waist. Clad in a pale blue silk gown adorned with delicate lace patterns and silver heels that glimmered faintly, she carried herself with serene elegance. Startled by the ominous hoot of an owl, she quickened her pace through the shadow-draped forest, her eyes wide with unease. Suddenly, a quaint wooden cottage emerged from the mist-shrouded trees. Her breath caught—a flicker of hope softened her fearful expression, lips parting in a blend of awe and tentative joy.</t>
+    <t>Snow White teenage girl about fifteen or sixteen, skin as white and pure as snow, rosy cheeks, long black hair flowing down to her waist, light blue silk gown with delicate lace, silver high heels, gentle graceful demeanor, eerie dark forest background, hooting owl, terrified expression, small wooden cabin in the distance, face lit with surprise and joy, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail, professional, vivid colors, bokeh, physically-based rendering, cool color tone, atmospheric lighting  
+BREAK  
+Snow White teenage girl, skin snow white and pure, rosy cheeks, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, long black hair waist length, light blue silk gown with delicate lace embroidery, silver high heels, gentle and graceful posture, terrified slightly open mouth, sharp focus, ultra-fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+Eerie dark forest full of twisted trees, moonlight filtering through branches, shadowy owl perched on a branch, cool bluish tones, foggy atmosphere, photorealistic texture, ultra-detailed background, subtle motion blur on owl wings, HDR, UHD, studio lighting  
+BREAK  
+Small rustic wooden cabin with warm yellow light glowing from windows, moss covered roof, surrounded by dark trees, face of Snow White illuminated with surprise and joy, warm contrast with cool background, vivid colors, bokeh, physically-based rendering, ultra-detailed</t>
+  </si>
+  <si>
+    <t>Snow White, a teenage girl of about fifteen or sixteen, had skin as white and pure as snow, rosy cheeks, and long black hair flowing down to her waist. She wore a light blue silk gown adorned with delicate lace and silver high heels. Her demeanor was gentle and graceful. As she walked through the eerie forest, she heard the hooting of an owl and looked terrified. Suddenly, she spotted a small wooden cabin and her face lit up with a mixture of surprise and joy.</t>
   </si>
   <si>
     <t>白雪公主进入小木屋，看到整齐排列的七张小床，疲惫的她躺在上面睡着了。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: pale complexion, rosy cheeks, long black hair, cerulean silk gown with lace patterns, silver heels, tender regal gaze, full body, smoothing skirts, sitting on bed), BREAK rustic cabin interior, seven small beds aligned with military precision, soft honeyed lamplight, warm golden tones, HDR, intricate fabric textures, shimmering lace details, atmospheric sleep scene, fairytale ambiance, muted wood grain textures</t>
-  </si>
-  <si>
-    <t>A young maiden of fifteen winters, her complexion pale as fresh-fallen snow with cheeks flushed rose, entered the rustic cabin. Raven tresses cascaded to her waist beneath the cerulean silk of her gown, its delicate lace patterns shimmering as she moved. Silver heels clicked softly against the floorboards while her gaze, tender yet regal, fell upon seven diminutive beds aligned with military precision. With a sigh that carried the weight of a thousand leagues, the weary princess smoothed her skirts, nestled into the nearest cot, and let sleep claim her beneath the cabin's honeyed lamplight.</t>
+    <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)进入小木屋，看到整齐排列的七张小床，疲惫的她躺在上面睡着了。</t>
+  </si>
+  <si>
+    <t>Snow White young woman fifteen sixteen years old pure white skin glowing healthy blush long black hair waist length light blue silk gown delicate lace silver high heels gentle dignified expression small wooden cottage cozy interior seven small neatly arranged beds exhausted lying down asleep serene peaceful atmosphere warm soft lighting (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail, professional, vivid colors, bokeh, physically-based rendering soft natural color tones warm cozy ambient light  
+BREAK  
+Snow White beautiful detailed eyes extremely detailed eyes and face beautiful detailed lips long eyelashes pure white flawless skin glowing healthy blush long black flowing hair reaching waist light blue silk gown with delicate lace silver high heels gentle dignified serene expression sharp focus ultra fine painting (best quality,4k,8k,highres:1.3), (realistic,photorealistic:1.37), vivid colors, studio lighting  
+BREAK  
+small wooden cottage interior rustic cozy warm ambient light seven small wooden beds neatly arranged soft blankets shadows and highlights ultra-detailed textured wood ultra-fine painting professional lighting (best quality,4k,8k,highres,masterpiece:1.2), HDR, UHD, sharp focus vivid warm color tones  
+BREAK  
+Snow White lying down on one of the beds exhausted peaceful sleeping posture serene face resting long black hair spread softly photo-realistic highly detailed skin and fabric textures delicate lace visible soft shadows gentle lighting professional composition ultra-detailed (best quality,4k,8k,highres), studio lighting, sharp focus, vivid colors, bokeh</t>
+  </si>
+  <si>
+    <t>Snow White, now a young woman of about fifteen or sixteen years old, still possessed skin as pure and white as snow. Her cheeks glowed with a healthy blush, and her long black hair flowed down to her waist. She wore a light blue silk gown adorned with delicate lace, and her feet were slipped into silver high heels. With a gentle and dignified expression, she entered the small wooden cottage. Inside, she saw seven neatly arranged small beds. Exhausted, she lay down on one of them and quickly fell asleep.</t>
   </si>
   <si>
     <t>傍晚，七个小矮人扛着锄头回来，看到白雪公主睡在他们的床上，小矮人们露出疑惑的表情。</t>
@@ -274,10 +379,16 @@
     <t>傍晚，七个小矮人(character features: 七位身材矮小的男子，年龄各异，从二十岁到五十岁不等，留着各式胡须和发型，皮肤粗糙，穿着简单的工作服，颜色分别为深蓝、绿色、棕色、灰色、橙色、紫色和红色，脚穿结实的皮靴，每个人都有独特的神态和动作。)扛着锄头回来，看到白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)睡在他们的床上，小矮人们露出疑惑的表情。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (7men: 20s-50s, weathered faces, untamed beards, mismatched hairstyles, patched tunics in navy/moss/umber/slate/tangerine/violet/crimson, muddy leather boots, carrying pickaxes, hunched/squinting/scratching head poses, bewildered expressions), BREAK (1girl: alabaster skin, flushed cheeks, waist-length ebony hair, pale azure silk gown with intricate lace, silver-heeled slippers, serene sleeping pose, hands on chest), fantasy cottage interior, rustic wooden furniture, lumpy straw mattress, warm firelight glow, HDR, storybook illustration style, detailed textures, clustered composition, soft glowing light</t>
-  </si>
-  <si>
-    <t>As dusk settled over the forest, seven diminutive men—ranging in age from their twenties to fifties, their weathered faces framed by untamed beards and mismatched hairstyles, clad in patched work tunics faded to shades of navy, moss, umber, slate, tangerine, violet, and crimson, their sturdy leather boots caked with mud—trudged back from the mines, pickaxes slung over shoulders. Each bore a distinct posture: one hunched, another squinting, a third scratching his head, their collective exhaustion etched into every step. Upon entering their cottage, they froze. There, atop their lumpy straw mattress, lay a slumbering young woman—her alabaster skin luminous against the firelight, cheeks flushed like dawn roses, ebony hair cascading to her waist. She wore a gown of pale azure silk adorned with intricate lace, its delicate folds pooling around silver-heeled slippers. Her hands rested gently on her chest, breaths even, an air of serene nobility softening the humble surroundings. The dwarves clustered at the foot of the bed, brows furrowed, tools forgotten, a silent chorus of bewilderment in their widened eyes.</t>
+    <t>seven dwarfs and Snow White in evening scene, seven dwarfs short-statured men aged twenty to fifty, distinct beards and hairstyles, rough skin, simple work clothes in deep blue, green, brown, gray, orange, purple, red, sturdy leather boots, unique expressions and movements, carrying hoes, Snow White young woman about fifteen or sixteen, skin as white as snow, rosy cheeks, long black hair flowing to waist, light blue silk gown with delicate lace, silver high heels, gentle dignified demeanor, sleeping on bed, dwarfs puzzled expressions, warm evening light, forest background, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail, professional, vivid colors, bokeh, physically-based rendering  
+BREAK  
+seven dwarfs short-statured men aged twenty to fifty, distinct beards and hairstyles, rough skin, simple work clothes in deep blue, green, brown, gray, orange, purple, red, sturdy leather boots, each carrying hoes, unique expressions and movements, puzzled expressions, dynamic poses, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+Snow White young woman about fifteen or sixteen, skin as white as snow, rosy cheeks, long black hair flowing down to waist, light blue silk gown with delicate lace, silver high heels, gentle dignified demeanor, sleeping on bed with soft blankets, detailed face with beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, vivid colors, studio lighting, photorealistic, (realistic,photo-realistic:1.37), HDR, UHD, sharp focus, ultra fine painting, masterpiece quality  
+BREAK  
+evening forest background with warm glowing light, subtle shadows, soft bokeh effect, natural setting enhancing scene atmosphere, professional composition, ultra-detailed foliage and textures, vivid colors, physically-based rendering, cinematic lighting</t>
+  </si>
+  <si>
+    <t>In the evening, seven dwarfs—short-statured men ranging in age from twenty to fifty, each sporting distinct beards and hairstyles, rough-skinned, dressed in simple work clothes of deep blue, green, brown, gray, orange, purple, and red, wearing sturdy leather boots, and each displaying unique expressions and movements—returned carrying their hoes. They saw Snow White, a young woman of about fifteen or sixteen, with skin as white as snow, rosy cheeks, long black hair flowing down to her waist, dressed in a light blue silk gown adorned with delicate lace, wearing silver high heels, and bearing a gentle and dignified demeanor, sleeping on their bed. The dwarfs showed puzzled expressions upon seeing her.</t>
   </si>
   <si>
     <t>新王后站在魔镜前，魔镜的表面映出文字回答，显示白雪公主在森林中和七个小矮人过着快乐幸福的生活。</t>
@@ -286,10 +397,16 @@
     <t>新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)站在魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)前，魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)的表面映出文字回答，显示白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)在森林中和七个小矮人(character features: 七位身材矮小的男子，年龄各异，从二十岁到五十岁不等，留着各式胡须和发型，皮肤粗糙，穿着简单的工作服，颜色分别为深蓝、绿色、棕色、灰色、橙色、紫色和红色，脚穿结实的皮靴，每个人都有独特的神态和动作。)过着快乐幸福的生活。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1woman:40s, icy beauty, porcelain skin, stern expression, deep chestnut curls, obsidian-and-crimson brocade gown, golden embroidery, jade necklace and earrings, jeweled rings, narrowed hazel eyes, full body), BREAK (1girl:16 years old, snow-pale skin, flushed cheeks, ebony hair, sky-blue silk gown, lace details, silver heels, gentle smile), BREAK (7men: burly build, weathered faces, wild beards, patched work tunics in red/yellow/green/blue, scuffed boots, holding berries and tools), enchanted black marble mirror with serpentine carvings, liquid silver surface, glowing ancient script, fantasy forest clearing background, sunlit atmosphere, soft golden rays, glowing energy effects, HDR, dramatic baroque style, intricate embroidery details</t>
-  </si>
-  <si>
-    <t>The new queen—a striking woman in her forties with icy beauty, porcelain skin, and deep chestnut curls cascading around her stern face—stood before the enchanted mirror. Her obsidian-and-crimson brocade gown, embroidered with golden threads, rustled softly as she tilted her head, the jade at her throat and ears catching the dim light. The mirror’s vast silver surface, framed by black marble carved with serpentine patterns, rippled like liquid. Mysterious energy pulsed from its flawless plane as glowing script materialized, revealing a scene: Snow White, now a young woman of sixteen, stood in a sunlit forest clearing. Her snow-pale cheeks flushed with warmth, ebony hair flowing over a sky-blue silk gown adorned with lace. Silver heels peeked beneath her hem as she smiled gently, surrounded by seven dwarves—burly men in patched work tunics of vivid hues, their weathered faces framed by wild beards, boots scuffed from labor, laughter crinkling their eyes as they gathered berries and tools. The mirror’s words hung in the air: *They thrive in joy.* The queen’s jeweled fingers tightened, rings glinting like her narrowed hazel eyes.</t>
+    <t>the new queen about forty years old with a beautiful slightly stern appearance fair skin deep brown curly hair dark brown eyes long brocade gown black and red golden embroidery jade necklace earrings rings on fingers noble demeanor trace of arrogance magic mirror huge silver frame black marble carved complex patterns smooth water-like surface clear reflection mysterious aura words appearing on mirror surface showing snow white adult young woman fifteen sixteen snow-white skin rosy cheeks long black hair waist-length light blue silk gown delicate lace silver high heels gentle dignified expression living happily forest seven dwarfs small-statured men ages twenty to fifty distinct beards hairstyles rough skin simple work clothes dark blue green brown gray orange purple red sturdy leather boots unique expressions movements (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, warm lighting, elegant color tone, dramatic shadows  
+BREAK  
+the new queen about forty years old beautiful slightly stern appearance fair skin deep brown curly hair dark brown eyes long black and red brocade gown golden embroidery jade necklace earrings rings on fingers noble and arrogant demeanor sharp focus ultra fine painting (masterpiece:1.2), (best quality,4k,8k,highres:1.3), realistic skin tones extremely detailed eyes and face long eyelashes physically based rendering vivid colors studio lighting dramatic warm light  
+BREAK  
+the magic mirror huge silver frame black marble intricately carved complex patterns surface smooth like water clear reflection mysterious aura words appearing on mirror showing adult snow white young woman fifteen sixteen snow-white skin rosy cheeks long black hair waist-length light blue silk gown delicate lace silver high heels gentle dignified expression ultra-detailed highres sharp focus photorealistic lighting vivid colors bokeh HDR UHD  
+BREAK  
+seven dwarfs seven small-statured men ages twenty to fifty distinct beards hairstyles rough skin simple work clothes dark blue green brown gray orange purple red sturdy leather boots unique expressions and movements photorealistic ultra-detailed high resolution professional vivid colors sharp focus natural forest lighting physically based rendering</t>
+  </si>
+  <si>
+    <t>The new queen, a woman of about forty years old with a beautiful yet slightly stern appearance, fair skin, deep brown curly hair, and dark brown eyes, stood before the magic mirror. She was dressed in a long brocade gown of black and red, adorned with golden embroidery along the hem, wearing a jade necklace and earrings, and several rings on her fingers. Her noble demeanor was tinged with a trace of arrogance. The magic mirror, a huge silver mirror framed with black marble intricately carved with complex patterns, had a surface as smooth as water that reflected clear images and exuded a mysterious aura. On the surface of the mirror, words appeared in response, showing Snow White as an adult—a young woman about fifteen or sixteen years old with snow-white skin, rosy cheeks, long black hair flowing down to her waist, wearing a light blue silk gown decorated with delicate lace and silver high heels, her expression gentle and dignified. The reflection revealed that she lived happily in the forest with the seven dwarfs, seven small-statured men of varying ages from twenty to fifty, each with distinct beards and hairstyles, rough skin, dressed in simple work clothes in dark blue, green, brown, gray, orange, purple, and red, wearing sturdy leather boots, each displaying unique expressions and movements.</t>
   </si>
   <si>
     <t>王后打扮成老太婆的模样，提着一篮鲜红的苹果，苹果上涂着她调配的毒药，来到小矮人的小木屋前。</t>
@@ -298,10 +415,16 @@
     <t>新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)打扮成老太婆的模样，提着一篮鲜红的苹果，苹果上涂着她调配的毒药，来到小矮人的小木屋前。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1woman: middle-aged, striking beauty, sharp icy features, pale complexion, deep chestnut curls, dark brown eyes, calculated gaze, opulent black and red brocade gown, golden embroidery, jade jewelry, emerald earrings, serpentine necklace, slender fingers, regal poise, disdainful expression, full body), BREAK (disguised as frail crone: wrinkled face, hunched posture, tattered cloak, holding woven basket, glossy crimson apples, poison glaze, sinister intent), dwarves cottage background, stone walls, wooden door, dim interior, soft shadows, HDR, dramatic style, fantasy theme, atmospheric tension</t>
-  </si>
-  <si>
-    <t>The new queen, a woman of striking beauty with sharp, icy features despite her forty years, stood at the threshold of the dwarves’ cottage. Her pale complexion contrasted with her deep chestnut curls, and her dark brown eyes gleamed with calculated intent. Clad in an opulent gown of black and red brocade, its hem shimmering with golden embroidery, she wore jade jewelry that clinked softly—emerald droplets at her ears, a serpentine necklace at her throat, and rings glinting on her slender fingers. Yet her regal poise carried an undercurrent of disdain. Disguised now as a frail crone, she clutched a woven basket brimming with apples, their glossy crimson skins glazed with a poison of her own meticulous design.</t>
+    <t>the new queen disguised as an old woman carrying a basket of bright red poison apples approaching a little wooden cottage of dwarfs, strikingly beautiful yet somewhat stern features, pale skin, deep brown curly hair, black and red brocade gown with gold embroidery along the hem, emerald necklace and earrings, several rings on her fingers, noble bearing with a hint of arrogance, small rustic wooden cottage surrounded by forest foliage, mysterious atmosphere, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, cinematic lighting, moody color palette  
+BREAK  
+queen disguised as old woman with strikingly beautiful yet stern facial features, pale skin, extremely detailed eyes and face, beautiful detailed eyes, beautiful detailed lips, long eyelashes, deep brown curly hair, black and red brocade gown with intricate gold embroidery along the hem, emerald necklace and earrings, several elegant rings on fingers, noble and arrogant expression, sharp focus, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+basket full of bright red apples coated with poison, woven rustic basket held by queen’s hand, vivid glossy texture on apples, subtle toxic sheen, surrounded by dense forest leaves, ultra-detailed, photorealistic, studio lighting, bokeh background  
+BREAK  
+small wooden cottage of dwarfs with aged timber walls, moss on roof, small glowing windows, nestled among forest foliage, warm inviting light from inside contrasting with dark mystic woods, ultra-detailed, (realistic,photorealistic:1.37), HDR, sharp focus, cinematic atmosphere</t>
+  </si>
+  <si>
+    <t>The new queen, a woman of about forty with strikingly beautiful yet somewhat stern features, pale skin, and deep brown curly hair, dressed in a black and red brocade gown adorned with gold embroidery along the hem, wearing an emerald necklace and earrings, and several rings on her fingers—her noble bearing tinged with a hint of arrogance—disguised herself as an old woman. Carrying a basket of bright red apples coated with a poison she had concocted, she approached the little wooden cottage of the dwarfs.</t>
   </si>
   <si>
     <t>白雪公主倒在地上，手中还拿着那个被咬了一口的毒苹果，坏心的王后在一旁大笑着。</t>
@@ -310,46 +433,68 @@
     <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)倒在地上，手中还拿着那个被咬了一口的毒苹果，坏心的新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)在一旁大笑着。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: 15 years old, pale snow-white skin, jet-black waist-length hair, sky-blue silk gown with lace trimmings, lying motionless on stone floor, half-eaten poisoned apple in hand, pale lips, faded rosy cheeks), BREAK (1woman: 40s, sharp marble-like features, chestnut curls, blood-red and midnight-black brocade gown with golden embroidery, emerald jewelry, laughing with cold satisfaction, obsidian eyes, ring-laden hand on chest), dimly lit chamber background, glowing poison effects, HDR, Baroque-style drama, soft dim sunlight, intricate fabric textures, dramatic shadows</t>
-  </si>
-  <si>
-    <t>A young maiden of fifteen or sixteen lay motionless on the cold stone floor, her pale skin still as white as snow, cheeks faintly flushed with fading warmth. Her jet-black hair cascaded like a silken veil down to her waist, mingling with the delicate lace trimmings of her sky-blue silk gown. A half-eaten poisoned apple glinted ominously in her limp hand, its fatal bite marked by pale lips. Beside her, a regal woman in her forties stood triumphant, her sharp features carved from marble-like perfection beneath cascading chestnut curls. Clad in a lavish gown of blood-red and midnight-black brocade, its hem shimmering with golden embroidery, the queen's emerald jewels caught the dim light as she laughed—a cold, ringing sound that echoed through the chamber. Her ring-laden hand pressed against her chest in mock pity, though her obsidian eyes burned with cruel satisfaction.</t>
+    <t>Snow White young woman about fifteen or sixteen years old skin as pure and white as snow rosy cheeks long black hair flowing down to her waist light blue silk gown adorned with delicate lace silver high heels gentle dignified expression lying on the ground holding bitten poisoned apple wicked new queen woman around forty beautiful slightly stern face fair skin deep brown curly hair dark brown eyes laughing long brocade gown black and red embroidered with gold thread at hem jade necklace and earrings multiple rings on fingers noble arrogant air nearby (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail professional vivid colors bokeh physically-based rendering soft natural lighting warm color tone  
+BREAK  
+Snow White young woman about fifteen or sixteen years old skin as pure and white as snow rosy cheeks long black hair flowing down to her waist light blue silk gown adorned with delicate lace silver high heels holding bitten poisoned apple gentle dignified expression lying on the ground ultra-detailed beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes realistic skin tones sharp focus ultra fine painting (masterpiece:1.2) (best quality,4k,8k,highres:1.3)  
+BREAK  
+wicked new queen woman around forty beautiful slightly stern face fair skin deep brown curly hair dark brown eyes laughing long brocade gown black and red embroidered with gold thread at hem jade necklace and earrings multiple rings on fingers noble arrogant air ultra-detailed beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes realistic skin tones sharp focus ultra fine painting (masterpiece:1.2) (best quality,4k,8k,highres:1.3)</t>
+  </si>
+  <si>
+    <t>Snow White, a young woman of about fifteen or sixteen years old with skin as pure and white as snow, rosy cheeks, and long black hair flowing down to her waist, lay on the ground. She wore a light blue silk gown adorned with delicate lace, silver high heels on her feet, and bore a gentle and dignified expression. In her hand, she still clutched the poisoned apple with a bite taken out of it. Nearby, the wicked new queen, a woman of around forty with a beautiful but slightly stern face, fair skin, deep brown curly hair, and dark brown eyes, stood laughing. She was dressed in a long brocade gown of black and red, embroidered with gold thread at the hem, wearing a jade necklace and earrings, her fingers adorned with multiple rings, exuding a noble yet somewhat arrogant air.</t>
   </si>
   <si>
     <t>小矮人们抬着白雪公主放在装满鲜花的玻璃棺材内，周围是哭泣的小矮人和哀伤的小动物们，邻国的王子站在一旁注视着玻璃棺材中的白雪公主。</t>
   </si>
   <si>
-    <t>七个小矮人(character features: 七位身材矮小的男子，年龄各异，从二十岁到五十岁不等，留着各式胡须和发型，皮肤粗糙，穿着简单的工作服，颜色分别为深蓝、绿色、棕色、灰色、橙色、紫色和红色，脚穿结实的皮靴，每个人都有独特的神态和动作。)抬着白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)放在装满鲜花的玻璃棺材内，周围是哭泣的小矮人和哀伤的小动物们，邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)子站在一旁注视着玻璃棺材中的白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, fantasy forest background, soft sunlight, (7dwarves: short stature, rough skin, varied beards, (attire: deep blue, green, brown, gray, orange, purple, red work clothes), leather boots, unique gestures, sorrowful expressions, carrying glass coffin), BREAK (Snow White: mid-teens, snow-pale skin, rose cheeks, waist-length ebony hair, light-blue silk gown with lace trim, silver high-heeled shoes, serene expression, lying in flower-filled coffin), BREAK (prince: middle-aged, authoritative face, golden ornate robe, gemmed crown, jeweled sword at waist, solemn stance), surrounding weeping dwarves, mourning forest creatures (rabbits, deer, birds), glowing floral accents, HDR, painterly style, dramatic shadows</t>
-  </si>
-  <si>
-    <t>A group of seven dwarves (character features: men of short stature, varying in age from twenty to fifty, with distinct beards and hairstyles, rough-textured skin, dressed in simple work attire colored deep blue, green, brown, gray, orange, purple, and red, wearing sturdy leather boots, each bearing unique gestures and expressions) carry the lifeless body of Snow White (adult) (character features: a maiden in her mid-teens, skin pale as snow, cheeks flushed rose, waist-length ebony hair cascading freely, clad in a light-blue silk gown adorned with delicate lace trim, silver high-heeled shoes, demeanor gentle and regal) inside a glass coffin overflowing with fresh blossoms. Surrounding them, weeping dwarves and mournful woodland creatures gather in sorrow. Nearby, the prince of a neighboring kingdom (character features: a middle-aged man with an authoritative countenance, draped in an ornate golden royal robe, a gem-encrusted crown atop his head, an intricately crafted sword hanging at his waist, strides marked by measured gravity) stands solemnly, his gaze fixed upon Snow White (adult) within the translucent coffin.</t>
+    <t>七个小矮人(character features: 七位身材矮小的男子，年龄各异，从二十岁到五十岁不等，留着各式胡须和发型，皮肤粗糙，穿着简单的工作服，颜色分别为深蓝、绿色、棕色、灰色、橙色、紫色和红色，脚穿结实的皮靴，每个人都有独特的神态和动作。)抬着白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)放在装满鲜花的玻璃棺材内，周围是哭泣的小矮人和哀伤的小动物们，邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)子站在一旁注视着玻璃棺材中的白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)。</t>
+  </si>
+  <si>
+    <t>seven dwarfs carrying Snow White, seven short-statured men aged twenty to fifty, varied beards and hairstyles, rough skin, simple work clothes in dark blue, green, brown, gray, orange, purple, red, sturdy leather boots, Snow White with pale skin, rosy cheeks, long black waist-length hair, light blue silk gown with delicate lace trim, silver high-heeled shoes, gentle dignified expression, glass coffin filled with fresh flowers, small animals around weeping sorrowfully, neighboring king standing nearby, middle-aged man with solemn face, magnificent golden royal robe, gem-encrusted crown, finely crafted sword hanging at side, grave respectful gaze, forest background, soft natural lighting, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail, professional, vivid colors, bokeh, physically-based rendering  
+BREAK  
+seven dwarfs diverse ages twenty to fifty, each unique beard and hairstyle, rough textured skin, wearing simple rugged work clothes in various earthy tones dark blue green brown gray orange purple red, sturdy leather boots detailed wrinkles, carrying Snow White gently, dynamic expressive poses, ultra-detailed facial features, beautiful detailed eyes and lips, extremely detailed eyes and face, long eyelashes, realistic skin textures, sharp focus, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+Snow White young woman about fifteen or sixteen, skin as white as snow, rosy cheeks, long flowing black hair to waist with subtle highlights, light blue silk gown adorned with delicate lace, silver high-heeled shoes visible, gentle dignified expression with beautiful detailed eyes and lips, extremely detailed face, long eyelashes, soft diffused lighting emphasizing delicate fabrics, surrounded by fresh flowers inside a crystal clear glass coffin, very realistic reflections and transparency, (realistic,photorealistic:1.37), vivid colors, sharp focus, studio lighting  
+BREAK  
+neighboring king mature middle-aged man with solemn expression, magnificent golden royal robe richly embroidered, gem-encrusted crown shining with intricate details, finely crafted sword hanging at side, dignified posture, grave respectful gaze directed at Snow White in coffin, natural forest background with soft bokeh lighting, UHD, HDR, ultra-fine painting, physically-based rendering, professional quality, vivid color palette</t>
+  </si>
+  <si>
+    <t>Seven dwarfs—seven short-statured men of varying ages ranging from twenty to fifty, each sporting different styles of beards and hairstyles, with rough skin and dressed in simple work clothes in dark blue, green, brown, gray, orange, purple, and red, wearing sturdy leather boots—were carrying Snow White, a young woman of about fifteen or sixteen years old. Her skin was as white as snow, her cheeks rosy, and her long black hair flowing down to her waist. She wore a light blue silk gown adorned with delicate lace and silver high-heeled shoes. Her expression was gentle and dignified. They placed her in a glass coffin filled with fresh flowers. Around the coffin, the dwarfs and small animals wept sorrowfully. Nearby, the neighboring king, a middle-aged man with a solemn face, donned in a magnificent golden royal robe, wearing a crown studded with precious gems and a finely crafted sword hanging at his side, stood watching Snow White inside the glass coffin with a grave and respectful gaze.</t>
   </si>
   <si>
     <t>王子俯身亲吻躺在玻璃棺材中的白雪公主，白雪公主正吐出苹果，逐渐睁开双眼，脸上恢复了红润。</t>
   </si>
   <si>
-    <t>邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)子俯身亲吻躺在玻璃棺材中的白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)，白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)正吐出苹果，逐渐睁开双眼，脸上恢复了红润。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1man: middle-aged, imposing countenance, golden robes, gem-studded crown, sword at waist, kneeling, kissing forehead, regal aura), BREAK (1girl: snow-pale skin, flushed cheeks, raven-black silk hair, azure lace gown, silver heels, lying in glass coffin, eyes opening softly, regal gaze, revived vitality), glass coffin, glowing effects, intricate lace details, fantasy castle background, soft sunlight, HDR, dramatic atmosphere, renaissance painting style</t>
-  </si>
-  <si>
-    <t>The prince of the neighboring kingdom—a middle-aged man with an imposing countenance, draped in opulent golden robes and a gem-studded crown, a finely crafted sword swaying at his waist—lowered himself with deliberate gravity. His lips brushed the forehead of Snow White, now a young woman of fifteen or sixteen, who lay motionless within the glass coffin. Her snow-pale skin glowed anew with vitality, cheeks flushed rose-pink, her raven-black hair cascading like silk over the azure gown adorned with intricate lace. Silver heels gleamed faintly beneath the hem as her chest stirred. A fragment of poisoned apple slipped from her parted lips, and her eyelids fluttered open, revealing eyes soft yet regal, the warmth of life flooding back into her serene face.</t>
+    <t>邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)子俯身亲吻躺在玻璃棺材中的白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)，白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)正吐出苹果，逐渐睁开双眼，脸上恢复了红润。</t>
+  </si>
+  <si>
+    <t>middle aged king with solemn expression kissing a sleeping girl in a glass coffin, magnificent golden royal robe, crown adorned with gemstones, exquisite sword at his waist, fifteen or sixteen year old girl with snow white skin, rosy cheeks, long black hair flowing to waist, light blue silk gown with delicate lace, silver high heeled shoes, girl gently waking up, rosy complexion returning, enchanted forest background, soft ethereal light, magical atmosphere, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, romantic and mystical mood  
+BREAK  
+middle aged king with solemn expression, magnificent golden royal robe, crown adorned with colorful gemstones, detailed facial features, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, exquisite sword hanging at his waist, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+sleeping girl with skin as white as snow, rosy cheeks, long black hair flowing down to her waist, wearing light blue silk gown decorated with delicate lace, silver high heeled shoes, gentle and dignified expression, opening her eyes slowly, complexion regaining rosy glow, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting  
+BREAK  
+glass coffin reflecting soft magical light, enchanted forest faintly visible in the background, soft ethereal illumination, mystical atmosphere, delicate details on glass surface, sparkling bokeh highlights, ultra-fine painting, sharp focus, HDR, UHD, professional quality, physically-based rendering</t>
+  </si>
+  <si>
+    <t>The neighboring king, a middle-aged man with a solemn expression, dressed in a magnificent golden royal robe and wearing a crown adorned with gemstones, with an exquisite sword hanging at his waist, bent down to kiss the sleeping Snow White lying in a glass coffin. Snow White, a fifteen or sixteen-year-old girl with skin as white as snow, rosy cheeks, long black hair flowing down to her waist, dressed in a light blue silk gown decorated with delicate lace and wearing silver high-heeled shoes, appeared gentle and dignified. As she gradually spat out the apple, Snow White slowly opened her eyes, her complexion regaining its rosy glow.</t>
   </si>
   <si>
     <t>白雪公主苏醒后坐起身来，小矮人们在周围欢呼雀跃，动物们吱吱喳喳地叫着，王子握着白雪公主的双手，面带温柔喜悦的笑容。</t>
   </si>
   <si>
-    <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)苏醒后坐起身来，七个小矮人(character features: 七位身材矮小的男子，年龄各异，从二十岁到五十岁不等，留着各式胡须和发型，皮肤粗糙，穿着简单的工作服，颜色分别为深蓝、绿色、棕色、灰色、橙色、紫色和红色，脚穿结实的皮靴，每个人都有独特的神态和动作。)在周围欢呼雀跃，动物们吱吱喳喳地叫着，邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)子握着白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)的双手，面带温柔喜悦的笑容。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: age 15-16, pale snow-white skin, rosy cheeks, long flowing black hair, azure silk gown with lace details, silver heels, sitting upright, delicate features, detailed eyes, soft dawn lighting), BREAK (7men: dwarves, ages 20-50, coarse skin, wild beards, mismatched hairstyles, rugged work tunics in blue/green/brown/gray/orange/purple/red, stomping boots, lively gestures, excited expressions, unique quirks), BREAK (1man: middle-aged king, regal face, golden jewel-embroidered robes, gem-studded crown, ornate sword at hip, kneeling pose, holding maiden's hands, tender joyful smile, commanding presence), fantasy forest background, chirping woodland creatures, glowing dawn light, opulent details, vivid colors, HDR, storybook illustration style, intricate textures, soft sunlight</t>
-  </si>
-  <si>
-    <t>In the soft glow of dawn, a young maiden of fifteen or sixteen stirred awake. Her skin remained as pale as fresh snowfall, cheeks flushed with a rosy hue, and cascading black hair spilled down to her waist. Clad in a delicate azure silk gown adorned with intricate lace, she sat upright, her silver heels catching the light. Around her, seven dwarves—men of varying ages, from twenty to fifty, with coarse skin, untamed beards, and mismatched hairstyles—leaped and cheered. Dressed in rugged work tunics of deep blue, green, brown, gray, orange, purple, and red, their sturdy boots stamped the floor as each gestured with lively, distinct quirks. Creatures of the forest chirped and chattered nearby. At her side stood a middle-aged king from a neighboring realm, his face regal and commanding, draped in opulent golden robes embroidered with jewels. A gem-studded crown rested atop his head, and a finely crafted sword hung at his hip. With steady, deliberate steps, he knelt, cradling the maiden’s hands in his own, his stern features softened by a tender, joyful smile.</t>
+    <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)苏醒后坐起身来，七个小矮人(character features: 七位身材矮小的男子，年龄各异，从二十岁到五十岁不等，留着各式胡须和发型，皮肤粗糙，穿着简单的工作服，颜色分别为深蓝、绿色、棕色、灰色、橙色、紫色和红色，脚穿结实的皮靴，每个人都有独特的神态和动作。)在周围欢呼雀跃，动物们吱吱喳喳地叫着，邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)子握着白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)的双手，面带温柔喜悦的笑容。</t>
+  </si>
+  <si>
+    <t>snow white young woman about fifteen sixteen, pristine white skin, rosy cheeks, long black hair flowing to waist, light blue silk gown with delicate lace, silver high heels, gentle dignified expression, seven dwarfs short stature men age twenty to fifty, different beards and hairstyles, rough skin, simple work clothes dark blue green brown gray orange purple red, sturdy leather boots, unique expressions and movements, joyful chirping animals nearby, middle aged king stern face, magnificent golden royal robe, crown embedded with jewels, exquisite sword at waist, holding snow white hands warmly, gentle happiness, forest background, bright natural daylight, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering  
+BREAK  
+snow white young woman about fifteen sixteen, pristine white skin, rosy cheeks, long black hair flowing to waist, light blue silk gown with delicate lace, silver high heels, gentle dignified expression, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+seven dwarfs short stature men age twenty to fifty, different beards and hairstyles, rough skin, simple work clothes dark blue green brown gray orange purple red, sturdy leather boots, unique expressions and movements, cheering excitedly, joyful chirping animals nearby, vivid colors, studio lighting, perfect lighting  
+BREAK  
+middle aged king stern face, magnificent golden royal robe, crown embedded with jewels, exquisite sword at waist, holding snow white hands warmly, face beaming with gentle happiness, professional, HDR, UHD, sharp details, bokeh, physically based rendering, ultra detailed overall</t>
+  </si>
+  <si>
+    <t>Snow White, now a young woman of about fifteen or sixteen, awakened and sat up. Her skin remained as pristine and white as snow, her cheeks rosy, and her long black hair flowed down to her waist. She wore a light blue silk gown adorned with delicate lace, and her feet were clad in silver high heels. Her expression was gentle and dignified. Around her, the seven dwarfs—seven short-statured men ranging in age from twenty to fifty, each sporting different beards and hairstyles, with rough skin and simple work clothes in dark blue, green, brown, gray, orange, purple, and red—cheered excitedly. They wore sturdy leather boots, and each displayed unique expressions and movements. The animals nearby chirped and chattered joyfully. A neighboring king, a middle-aged man with a stern face, dressed in a magnificent golden royal robe, wearing a crown embedded with jewels, and carrying an exquisite sword at his waist, held Snow White’s hands warmly, his face beaming with gentle happiness.</t>
   </si>
   <si>
     <t>坏心的王后站在宫殿内，面带得意的笑容，她面前悬浮着一面古老的魔镜，镜面中映出她自信而扭曲的面容。</t>
@@ -358,10 +503,16 @@
     <t>坏心的新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)站在宫殿内，面带得意的笑容，她面前悬浮着一面古老的魔镜(character features: 一面巨大的银色镜子，边框由黑色大理石制成，雕刻着复杂的花纹，表面光滑如水，能反射出清晰的画面，没有任何外貌特征，但散发出神秘的气息。)，镜面中映出她自信而扭曲的面容。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: porcelain complexion, long dark curly hair, deep brown eyes, cold authoritative gaze, smug triumphant smile, lavish black and crimson brocade gown, gold-embroidered hem, jade necklace, emerald earrings, ornate rings, standing poised, full body), BREAK (ancient silver mirror: obsidian marble frame, cryptic symbols, hovering mid-air, glowing mystic aura), grand palace hall interior, intricate architecture, regal arrogance, mystical atmosphere, HDR, soft ambient light, regal style</t>
-  </si>
-  <si>
-    <t>Within the grand hall of the palace stood the malevolent Queen, a woman of striking yet icy beauty. Her porcelain complexion contrasted with the rich, dark curls cascading past her shoulders, while her deep brown eyes glinted with cold authority. Clad in a lavish brocade gown woven with black and crimson threads, its hem shimmering with gold-embroidered patterns, she exuded regal arrogance. A jade necklace draped her collarbone, matching emerald earrings catching the light, and her slender fingers bore an array of ornate rings. A smug, triumphant smile curled her lips as she gazed at the ancient silver mirror hovering before her. Its obsidian marble frame, etched with cryptic symbols, encased a surface as smooth as still water. The artifact radiated an unsettling mystique, its flawless reflection capturing not only her poised figure but also the unnerving twist of pride that marred her otherwise flawless visage.</t>
+    <t>new queen woman about forty years old standing inside palace, fair skin, deep brown curly hair, dark brown eyes gleaming with elegance and arrogance, beautiful yet slightly stern appearance, luxurious long black and red brocade gown with gold thread embroidery along hem, emerald necklace and earrings, multiple rings on fingers, noble and haughty demeanor, ancient magical mirror floating before her, massive silver surface framed by black marble carved with intricate patterns, mirror smooth as water reflecting clear image, mysterious aura, confident twisted reflection with smug smile, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail, professional, vivid colors, bokeh, physically-based rendering  
+BREAK  
+new queen woman about forty years old, beautiful detailed eyes, extremely detailed eyes and face, long eyelashes, beautiful detailed lips, fair skin, deep brown curly hair, dark brown eyes gleaming with elegance and arrogance, slightly stern expression, ultra fine painting, sharp focus, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+luxurious long black and red brocade gown adorned with gold thread embroidery along hem, emerald necklace and earrings, multiple decorative rings on fingers, noble and haughty demeanor, vivid colors, studio lighting, realistic textures  
+BREAK  
+ancient magical mirror floating, massive silver smooth surface framed by black marble with intricate carving patterns, reflecting clear image without physical features, emanating mysterious aura, confident twisted reflection with smug smile, HDR, UHD, ultra-detailed, photorealistic</t>
+  </si>
+  <si>
+    <t>The new queen, a woman of about forty years old with a beautiful yet slightly stern appearance, stood inside the palace. Her fair skin contrasted with her deep brown curly hair, and her dark brown eyes gleamed with a mix of elegance and arrogance. She wore a luxurious long gown made of black and red brocade, adorned with gold thread embroidery along the hem. Emerald necklace and earrings complemented her attire, while multiple rings decorated her fingers, all contributing to her noble yet haughty demeanor. Before her floated an ancient magical mirror—a massive silver surface framed by black marble intricately carved with elaborate patterns. The mirror’s surface was smooth as water, reflecting clear images without any physical features of its own, emanating a mysterious aura. Within the mirror appeared her confident yet twisted reflection, matching the smug smile on her lips.</t>
   </si>
   <si>
     <t>王后骑着魔扫帚，手持魔剑，飞向邻国的途中，天空乌云密布，一道闪电正朝她劈下，她的表情充满惊恐。</t>
@@ -370,10 +521,16 @@
     <t>新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)骑着魔扫帚，手持魔剑，飞向邻国的途中，天空乌云密布，一道闪电正朝她劈下，她的表情充满惊恐。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: 40 years old, porcelain skin, long dark chestnut curls, piercing mahogany eyes, icy demeanor, luxurious black and crimson brocade gown, golden threadwork, emerald necklace, emerald earrings, ornate rings, gripping gleaming arcane sword, riding enchanted broomstick, terrified expression, wide eyes, full body), storm darkened sky, tempest, distant kingdom silhouette in background, jagged lightning bolt approaching, glowing effects, HDR, dramatic lighting, fantasy style, dynamic pose, dark clouds, wind swept hair, intricate fabric details, volumetric clouds</t>
-  </si>
-  <si>
-    <t>The new queen—a woman of around forty, strikingly beautiful yet bearing an icy demeanor, her porcelain skin contrasted by cascading dark chestnut curls and piercing mahogany eyes—clung to her enchanted broomstick as it sliced through the storm-darkened heavens. Draped in a lavish gown of black and crimson brocade, its hem shimmering with golden threadwork, she gripped a gleaming arcane sword. Emerald jewels glinted at her throat and ears, while her fingers, adorned with ornate rings, trembled against the broom’s handle. A jagged bolt of lightning tore through the clouds, hurtling toward her. Her regal composure shattered, eyes wide with terror, she veered sharply, the neighboring kingdom’s silhouette barely visible through the tempest ahead.</t>
+    <t>new queen about forty years old with strikingly beautiful slightly stern features fair skin deep brown curly hair dark brown eyes flowing brocade gown black and red golden embroidery jade necklace earrings multiple rings noble aura hint of arrogance riding magical broomstick wielding mystical sword flying toward neighboring country dark cloudy sky lightning bolt striking terrified expression (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail description professional vivid colors bokeh physically-based rendering dramatic lighting dynamic composition  
+BREAK  
+new queen about forty years old with strikingly beautiful slightly stern facial features beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes fair skin deep brown curly hair dark brown eyes flowing brocade gown black and red golden embroidery jade necklace earrings multiple rings showing noble aura hint of arrogance terrified expression (masterpiece:1.2) sharp focus ultra fine painting (best quality,4k,8k,highres:1.3)  
+BREAK  
+magical broomstick detailed ornate design flying dynamic motion surrounded by mist and sparks mystical sword glowing runes held firmly flying toward neighboring country dark cloudy sky  
+BREAK  
+dark cloudy sky filled with swirling ominous clouds dramatic bolt of lightning striking downward illuminating queen’s face and surroundings HDR UHD vivid colors physical based rendering</t>
+  </si>
+  <si>
+    <t>The new queen, a woman of about forty years old with strikingly beautiful yet slightly stern features, fair skin, deep brown curly hair, and dark brown eyes, wore a flowing brocade gown interwoven with black and red, its hem embroidered with golden threads. She adorned herself with a jade necklace and earrings, multiple rings decorating her fingers, exuding a noble aura tinged with a hint of arrogance. Riding a magical broomstick and wielding a mystical sword, she flew toward a neighboring country. Above her, the sky was filled with dark clouds, and a bolt of lightning was striking down in her direction, her face filled with terror.</t>
   </si>
   <si>
     <t>女巫王后从扫帚上坠落，摔在地上，魔剑掉在一旁，天空中闪电交织，仿佛上天对她的审判已然降临。</t>
@@ -382,22 +539,36 @@
     <t>新王后(character features: 一位约四十岁的女子，容貌美丽但略显冷峻，皮肤白皙，留着深棕色卷发，眼睛呈深褐色，身穿黑色与红色相间的锦缎长裙，裙摆点缀金线刺绣，佩戴翡翠项链和耳环，手指戴着多枚戒指，气质高贵却透着一丝傲慢。)从扫帚上坠落，摔在地上，魔剑掉在一旁，天空中闪电交织，仿佛上天对她的审判已然降临。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, dramatic lighting, (1woman: pale skin, deep chestnut curls, dark brown eyes, black-and-crimson brocade gown, golden thread embroidery, jade necklace and earrings, multiple rings, haughty expression, falling pose), BREAK (enchanted sword on ground, cracked earth), stormy sky, jagged lightning, ominous clouds, dark fantasy theme, glowing accents, HDR, cinematic shadows, intricate textures, (nobility:1.3), dynamic composition, magical aura, (brocade fabric details:1.2), celestial wrath atmosphere</t>
-  </si>
-  <si>
-    <t>The new queen—a woman in her forties with striking yet icy beauty, pale skin, deep chestnut curls, and dark brown eyes—wore a black-and-crimson brocade gown embroidered with golden threads at the hem. A jade necklace and earrings gleamed against her attire, while multiple rings adorned her fingers, exuding nobility laced with haughtiness. Suddenly, she tumbled from her broom, crashing to the ground as her enchanted sword clattered beside her. Above, jagged lightning split the sky, weaving a furious tapestry that seemed to herald the heavens’ wrathful judgment upon her.</t>
+    <t>a woman about forty years old with beautiful yet slightly stern features fair skin deep brown curly hair dark brown eyes wearing a black and red brocade gown with gold thread embroidery along the hem jade necklace earrings multiple rings on fingers noble demeanor with a trace of arrogance fallen from a broomstick crashing to the ground magical sword lying beside her lightning intertwined across dark stormy sky dramatic thunderstorm atmosphere (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail professional vivid colors bokeh physically-based rendering cinematic lighting  
+BREAK  
+the new queen with slightly stern and beautiful detailed face extremely detailed eyes and face deep brown curly hair dark brown beautiful detailed eyes long eyelashes realistic skin tones sharp focus jade necklace earrings multiple rings black and red brocade gown with intricate gold thread embroidery elegant posture noble expression (masterpiece:1.2) (best quality,4k,8k,highres:1.3) ultra-fine painting  
+BREAK  
+fallen broomstick on the ground detailed wood texture dynamic angle sharp focus realistic lighting  
+BREAK  
+magical sword with ornate hilt and glowing runes lying next to the queen realistic metallic reflections crystalline blade sharp focus ultra-detailed  
+BREAK  
+dark stormy sky filled with intertwined lightning bolts dramatic clouds HDR UHD vivid colors cinematic lighting intense atmosphere</t>
+  </si>
+  <si>
+    <t>The new queen, a woman of about forty years old with beautiful yet slightly stern features, fair skin, deep brown curly hair, and dark brown eyes, wore a black and red brocade gown adorned with gold thread embroidery along the hem. She accessorized with a jade necklace and earrings, and multiple rings adorned her fingers. Her noble demeanor carried a trace of arrogance. Suddenly, she fell from her broomstick and crashed to the ground. Her magical sword tumbled beside her. Lightning intertwined across the sky, as if the heavens themselves had descended to pass judgment upon her.</t>
   </si>
   <si>
     <t>王子的国家张灯结彩，街道上充满欢庆的氛围，到处是庆祝的人群。</t>
   </si>
   <si>
-    <t>邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)子的国家张灯结彩，街道上充满欢庆的氛围，到处是庆祝的人群。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), cinematic lighting, (1man: middle-aged monarch, stern facial expression, opulent golden robes, jeweled crown, ornate sword at waist, standing regally, full-body view, radiating authority), BREAK fantasy kingdom background, celebration spectacle, lanterns and banners draped across buildings, crowded streets, cheering crowds with raised hands, vibrant tapestry of unity, glowing effects, HDR, vibrant colors, intricate details, soft golden hour sunlight, epic renaissance painting style</t>
-  </si>
-  <si>
-    <t>The neighboring kingdom, ruled by a stern-faced middle-aged monarch clad in opulent golden robes and a jeweled crown, his waist adorned with an ornate sword and his stride radiating authority, had transformed into a spectacle of celebration. Lanterns and banners draped every corner of the prince’s realm, while streets thrummed with elation, overflowing with crowds whose cheers and laughter wove through the air like a vibrant tapestry of unity and joy.</t>
+    <t>邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)子的国家张灯结彩，街道上充满欢庆的氛围，到处是庆祝的人群。</t>
+  </si>
+  <si>
+    <t>neighboring king middle-aged man stern countenance magnificent golden royal robe jewel-encrusted crown exquisite sword hanging at waist presiding over country festive lanterns decorations streets joyous atmosphere bustling crowds celebrating everywhere (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail description professional vivid colors bokeh physically-based rendering warm color tone dynamic lighting  
+BREAK  
+middle-aged man with stern countenance detailed facial features beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes realistic skin tones magnificent golden royal robe intricate embroidery jewel-encrusted crown exquisite sword hanging at waist sharp focus ultra fine painting (masterpiece:1.2) (best quality,4k,8k,highres:1.3)  
+BREAK  
+festive country scene decorated with colorful lanterns decorations streets filled with joyous atmosphere crowds celebrating vibrant dynamic composition vivid colors HDR UHD studio lighting bokeh ultra-detailed physically-based rendering photorealistic  
+BREAK  
+busy streets filled with diverse crowds joyous celebrations dynamic poses vibrant clothing bright festive lighting ultra-detailed sharp focus professional vivid colors bokeh HDR UHD realistic photorealistic</t>
+  </si>
+  <si>
+    <t>The neighboring king, a middle-aged man with a stern countenance, dressed in a magnificent golden royal robe and wearing a jewel-encrusted crown, with an exquisite sword hanging at his waist, presided over a country adorned with festive lanterns and decorations. The streets were filled with a joyous atmosphere, bustling with crowds celebrating everywhere.</t>
   </si>
   <si>
     <t>小矮人和森林的动物们站在婚礼现场，周围是盛大的婚礼布置和满怀喜悦的国民。</t>
@@ -406,37 +577,65 @@
     <t>七个小矮人(character features: 七位身材矮小的男子，年龄各异，从二十岁到五十岁不等，留着各式胡须和发型，皮肤粗糙，穿着简单的工作服，颜色分别为深蓝、绿色、棕色、灰色、橙色、紫色和红色，脚穿结实的皮靴，每个人都有独特的神态和动作。)和森林的动物们站在婚礼现场，周围是盛大的婚礼布置和满怀喜悦的国民。</t>
   </si>
   <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (7men: age 20-50, weathered skin, unique beards and hairstyles, simple workwear in deep blue, green, brown, gray, orange, purple, red, sturdy leather boots, animated gestures), BREAK (forest creatures: serene, woodland animals, rabbits, deer, birds), BREAK (townsfolk: delighted, celebrating, jubilant crowd), lavishly decorated wedding venue, fantasy theme, vibrant colors, soft sunlight, glowing effects, HDR, epic style</t>
-  </si>
-  <si>
-    <t>Amidst a jubilant crowd and a lavishly decorated wedding venue, seven diminutive men—ranging in age from twenty to fifty—stood alongside a gathering of forest creatures. Each dwarf bore weathered skin, sported a unique beard and hairstyle, and wore simple workwear in distinct hues: deep blue, green, brown, gray, orange, purple, and red. Their sturdy leather boots and animated gestures contrasted with the serene woodland animals, as the townsfolk, brimming with delight, celebrated the joyous occasion around them.</t>
+    <t>seven dwarfs short-statured men age twenties to fifties diverse beards and hairstyles rough skin simple work clothes deep blue green brown gray orange purple red sturdy leather boots unique expressions and gestures standing together forest animals wedding venue elaborate wedding decorations joyful citizens happiness dynamic composition (best quality,4k,8k,highres,masterpiece:1.2) ultra-detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra-fine painting sharp focus extreme detail description professional vivid colors bokeh physically-based rendering warm natural lighting
+BREAK
+dwarf one twenties deep blue clothes short beard rugged face beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes sturdy leather boots sharp focus ultra fine painting (masterpiece:1.2) (best quality,4k,8k,highres:1.3)
+BREAK
+dwarf two thirties green clothes medium-length beard weathered skin beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes sturdy leather boots sharp focus ultra fine painting vivid colors (best quality,4k,8k,highres:1.3)
+BREAK
+dwarf three forties brown clothes full beard rough skin beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes sturdy leather boots sharp focus ultra fine painting photo-realistic
+BREAK
+dwarf four fifties gray clothes short gray beard rugged skin beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes sturdy leather boots sharp focus ultra fine painting professional vivid colors  
+BREAK
+dwarf five twenties orange clothes scruffy beard young face beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes sturdy leather boots sharp focus ultra fine painting bokeh  
+BREAK
+dwarf six thirties purple clothes styled beard mature face beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes sturdy leather boots sharp focus ultra fine painting vivid colors HDR  
+BREAK
+dwarf seven forties red clothes thick beard rugged face beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes sturdy leather boots sharp focus ultra fine painting physically-based rendering  
+BREAK
+forest animals variety deer rabbits birds squirrels lively natural posture detailed fur and feathers beautiful detailed eyes lush green forest background soft natural light HDR ultra-detailed realistic  
+BREAK
+wedding venue elaborate decorations flowers ribbons lanterns happy citizens colorful medieval-style clothing diverse ages joyful expressions festive atmosphere sharp focus vivid colors UHD professional ultra-fine painting bokeh warm natural sunlight</t>
+  </si>
+  <si>
+    <t>Seven dwarfs—each a short-statured man varying in age from their twenties to fifties, sporting diverse beards and hairstyles, rough skin, and dressed in simple work clothes colored deep blue, green, brown, gray, orange, purple, and red respectively, wearing sturdy leather boots, with each displaying unique expressions and gestures—stood together with the forest animals at the wedding venue, surrounded by elaborate wedding decorations and joyful citizens filled with happiness.</t>
   </si>
   <si>
     <t>王子与白雪公主身着婚礼礼服，在众人祝福的目光中相视而立。</t>
   </si>
   <si>
-    <t>邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑，行走时步伐沉稳。)子与白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)身着婚礼礼服，在众人祝福的目光中相视而立。</t>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: pale skin, rose-pink cheeks, long black hair, delicate azure silk gown, intricate lace patterns, silver stilettos, regal composure, gentle expression, full body), BREAK (1boy: middle-aged man, stern countenance, golden robes, jewel-encrusted crown, ornate sword at hip, opulent attire, facing forward), grand hall background, shimmering tapestries, vaulted ceilings, admiring crowd in background, soft sunlight through stained glass, glowing ambient light, HDR, Renaissance painting style, intricate fabric textures, matrimonial splendor atmosphere</t>
-  </si>
-  <si>
-    <t>In the grand hall adorned with shimmering tapestries, the neighboring kingdom's monarch—a middle-aged man with a stern countenance, draped in opulent golden robes, a jewel-encrusted crown resting atop his head, and an exquisitely crafted sword swaying at his hip—stood facing Snow White, now a young woman of fifteen or sixteen. Her skin retained its ethereal paleness, cheeks flushed like rose petals, her raven-black hair cascading freely to her waist. Clad in a delicate azure silk gown adorned with intricate lace patterns, her silver stilettos glinting faintly, she radiated a blend of gentleness and regal composure. The two, united in matrimonial splendor, exchanged tender glances beneath the vaulted ceilings, their poised figures framed by the admiring gazes of the assembled crowd.</t>
-  </si>
-  <si>
-    <t>白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)进入小木屋，看到整齐排列的七张小床，疲惫的她躺在上面睡着了。</t>
+    <t>邻国王(character features: 一位中年男子，面容威严，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的宝剑。)子与白雪公主（成年）(character features: 一位十五六岁的少女，皮肤依旧如雪般洁白，双颊红润，黑色长发披散至腰间，身穿浅蓝色的丝质长裙，裙子上有精致的蕾丝装饰，脚穿银色高跟鞋，神态温柔而端庄。)身着婚礼礼服，在众人祝福的目光中相视而立。</t>
+  </si>
+  <si>
+    <t>middle aged king with a dignified expression standing face to face with young woman about fifteen or sixteen years old with snow white skin rosy cheeks long black hair flowing down to waist wearing light blue silk gown with delicate lace and silver high heeled shoes both in wedding attire exchanging loving glances amid a crowd of assembled people festive atmosphere, exquisite sword hanging at king's waist splendid golden royal robe gem encrusted crown, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, ultra-fine painting, sharp focus, extreme detail description, professional, vivid colors, bokeh, physically-based rendering, warm lighting  
+BREAK  
+middle aged king with dignified expression, splendid golden royal robe, gem encrusted crown, exquisite detailed sword at waist, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+young woman about fifteen or sixteen years old with skin pure as snow, rosy cheeks, long black hair flowing to waist, light blue silk gown decorated with delicate lace, silver high heeled shoes, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting  
+BREAK  
+assembled crowd of people in festive attire, blessings atmosphere, warm lighting, slight bokeh background, festive colors, detailed crowd expressions, outdoor wedding scene, vivid colors</t>
+  </si>
+  <si>
+    <t>The neighboring king, a middle-aged man with a dignified expression, dressed in a splendid golden royal robe and wearing a crown adorned with gemstones, with an exquisite sword hanging at his waist, stood face to face with Snow White, now a young woman of about fifteen or sixteen. She had skin as pure and white as snow, rosy cheeks, long black hair flowing down to her waist, and wore a light blue silk gown decorated with delicate lace, complemented by silver high-heeled shoes. Both were clad in their wedding attire, standing together as they exchanged loving glances amid the blessings of the assembled crowd.</t>
+  </si>
+  <si>
+    <t>outside the castle, festive celebration, entire nation joyful, colorful banners hanging across streets, people holding fresh flowers, radiant smiling faces, lively crowd, bright sunny day, (best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, (realistic,photorealistic,photo-realistic:1.37), vibrant colors, sharp focus, studio lighting, cheerful atmosphere, detailed architecture of castle in background, dynamic composition  
+BREAK  
+little girl about five or six years old, snow white skin, rosy cheeks like apples, smooth black hair cascading softly over shoulders, wearing light pink cotton dress, white small leather shoes, innocent pure eyes, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, gentle smile, soft natural lighting, (masterpiece:1.2), ultra-fine painting, sharp focus, vivid colors, photorealistic facial features  
+BREAK  
+people in streets celebrating, diverse joyful crowd, holding fresh flowers, colorful traditional clothing, smiling faces with radiant happiness, some clapping, some waving banners, (realistic,photorealistic:1.37), ultra-detailed expressions, ambient natural daylight, dynamic poses, intricate details on banners and flowers, professional vivid colors, bokeh background effects  
+BREAK  
+colorful banners, fluttering in gentle breeze, various bright colors and patterns, hanging across street near castle walls, detailed textures, illuminated by sunlight, (best quality,highres), sharp focus, photorealistic rendering, vibrant saturated colors, enhancing festive mood</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>白雪公主听到猫头鹰叫声，走在阴森的森林中，表情惊恐。突然，她看到一栋小木屋，脸上露出又惊又喜的神情。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), ultra-detailed, cinematic lighting, (1girl: porcelain skin, rosy cheeks, long black hair, pale blue silk gown with delicate lace patterns, silver heels, wide fearful eyes, parted lips, soft hopeful expression, full body), dark enchanted forest background, shadow-draped trees, glowing mist, quaint wooden cottage in distance, ominous owl perched on branch, soft sunlight through fog, HDR, fantasy realism style, dramatic atmosphere, intricate foliage details</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(best quality,4k,8k,highres,masterpiece:1.2), cinematic lighting, HDR, (1man: middle-aged king, imposing countenance, golden robe with shimmering threads, gem-encrusted crown, ornate sword at hip, stern gaze, full body, palace garden), BREAK (1woman: queen, flowing silk gown with floral embroidery, porcelain complexion, cascading ebony hair, pearlescent hairpins, closed eyes in prayer, maternal aura, beside king), night sky with twinkling stars, countless flickering candles, dancing shadows, regal atmosphere, soft ambient glow, royal devotion theme, intricate details, oil painting style, soft shadows, (background: ancient palace architecture, stone pathways, moonlit foliage)</t>
+    <t>the king a middle aged man with majestic appearance dressed in luxurious golden royal robe wearing a crown embedded with jewels delicate sword hanging at his waist standing beside the cradle the queen his original wife a woman about thirty years old fair skin slender figure long black hair elegant silk gown embroidered with intricate floral patterns along the hem pearl hair accessory gentle maternal eyes both smiling happily looking down at sleeping snow white a little girl five or six with snow white skin rosy apple like cheeks smooth black hair resting on her shoulders wearing pale pink cotton dress white little leather shoes lavish palace furnishings richly decorated (best quality,4k,8k,highres,masterpiece:1.2) ultra detailed (realistic,photorealistic,photo-realistic:1.37) HDR UHD studio lighting ultra fine painting sharp focus extreme detail description professional vivid colors bokeh physically-based rendering warm soft lighting golden color tone  
+BREAK  
+middle aged king with majestic appearance wearing golden royal robe richly detailed fabric gem encrusted crown delicate sword hanging at his waist beautiful detailed eyes beautiful detailed lips extremely detailed eyes and face long eyelashes sharp focus realistic skin tones ultra fine painting (masterpiece:1.2) (best quality,4k,8k,highres:1.3)  
+BREAK  
+queen original wife about thirty years old fair skin slender figure long black hair elegant silk gown with intricate floral embroidery along hem pearl hair ornament gentle maternal eyes smiling beautifully detailed eyes long eyelashes realistic skin tones sharp focus ultra fine painting (realistic,photorealistic:1.37) vivid colors studio lighting perfect lighting  
+BREAK  
+sleeping snow white little girl five or six snow white skin rosy apple like cheeks smooth black hair pale pink cotton dress white little leather shoes sleeping peacefully detailed face beautiful delicate eyes long eyelashes soft natural skin texture ultra detailed soft lighting warm color tone</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +655,6 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -817,16 +1015,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.19921875" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" customWidth="1"/>
-    <col min="3" max="3" width="132.06640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="158.59765625" customWidth="1"/>
+    <col min="3" max="3" width="99" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -846,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="405" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -860,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="378" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -874,7 +1069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="297" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -882,41 +1077,41 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="378" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="351" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="283.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -924,388 +1119,388 @@
         <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="364.5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="405" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="81" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/txt/output.xlsx
+++ b/txt/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,816 +434,2507 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>在遥远的一个国度里，住着一个国王(一位中年男子，面容威严，身穿华丽的王袍，头戴金色皇冠，留有整齐的胡须，举止沉稳。)和王后，他们渴望有一个孩子。 于是很诚意的向上苍祈祷。 “上帝啊！ 我们都是好国王(一位中年男子，面容威严，身穿华丽的王袍，头戴金色皇冠，留有整齐的胡须，举止沉稳。)好王后，请您赐给我们一个孩子吧！”</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>In a faraway kingdom, there lived a king—a middle-aged man with a dignified appearance, wearing splendid royal robes, adorned with a golden crown, sporting a neatly trimmed beard, and exhibiting composed manners—and his queen. They longed for a child with all their hearts. Thus, they earnestly prayed to the heavens. The king, standing before an altar in the grand palace chapel, his voice filled with sincerity, addressed the Almighty: "O Lord! We, the benevolent king and virtuous queen of this land, humbly beseech You to grant us the blessing of a child!"</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>king in a grand palace chapel, middle-aged man with a dignified appearance, splendid royal robes adorned with golden embroidery, golden crown on his head, neatly trimmed beard, composed and respectful expression, beautiful detailed eyes filled with sincerity, strong nose, beautiful detailed lips expressing devotion, long eyelashes, queen standing beside him in elegant attire, both praying earnestly at an altar, intricate stone architecture surrounding them, stained glass windows casting colorful light, rich textures in fabrics and walls, high-quality realistic painting, renaissance artistic style, warm golden color tone, soft natural lighting from above, detailed backgrounds, regal atmosphere, majestic composition, 8k ultra-high definition</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>在遥远的一个国度里，住着一个国王和王后，他们渴望有一个孩子。 于是很诚意的向上苍祈祷。 “上帝啊！ 我们都是好国王好王后，请您赐给我们一个孩子吧！”</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Chinese Content</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Replaced Content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Translated Content</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SD Content</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>不久以后，王后果然生下了一个可爱的小公主，这个女孩的皮肤白得像雪一般，双颊红得有如苹果，头发乌黑柔顺，因此，国王(一位中年男子，面容威严，身穿华丽的王袍，头戴金色皇冠，留有整齐的胡须，举止沉稳。)和王后就把她取名为“白雪公主”。 全国的人民都为白雪公主深深祝福。</t>
+          <t>一个遥远国度的全景，展现出宏伟的宫殿和周围的自然景观。</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Not long after, the queen indeed gave birth to a lovely little princess. The baby girl had skin as white as snow, cheeks as red as apples, and hair that was jet black and silky. Consequently, the king, a middle-aged man with a dignified appearance, clad in magnificent royal robes, wearing a golden crown on his head, sporting neatly trimmed facial hair, and exuding steady composure, along with the queen, decided to name her "Snow White." All the people in the kingdom bestowed their deepest blessings upon Snow White.</t>
+          <t>一个遥远国度的全景，展现出宏伟的宫殿和周围的自然景观。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>little princess, skin as white as snow, cheeks as red as apples, jet black silky hair, beautiful detailed eyes, delicate nose, beautiful detailed lips, long eyelashes, dressed in a royal gown, golden crown, middle-aged king, dignified appearance, magnificent royal robes, neatly trimmed facial hair, steady composure, queen beside him, grand castle background, rich velvet curtains, marble floor, intricate tapestries, soft ambient lighting, warm color tone, magical fairytale atmosphere, highly detailed painting, realistic style, cinematic quality, 8k resolution</t>
+          <t>The viewer beholds a sweeping panorama of a distant land, revealing the grandeur of majestic palaces harmoniously integrated with the breathtaking natural surroundings.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>不久以后，王后果然生下了一个可爱的小公主，这个女孩的皮肤白得像雪一般，双颊红得有如苹果，头发乌黑柔顺，因此，国王和王后就把她取名为“白雪公主”。 全国的人民都为白雪公主深深祝福。</t>
+          <t>a beautiful panorama of majestic palaces, breathtaking natural surroundings, mountains in the background, lush greenery, harmonious integration of architecture and nature, golden hour lighting, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+palace architecture with intricate carvings, grand domes, arched windows, reflective marble surfaces, vivid colors, realistic textures, sharp focus, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+natural surroundings featuring rolling hills, dense forests, crystal clear lakes, vibrant flora, realistic shadows, ultra-fine painting, photorealistic rendering, vivid colors, extreme detail description, professional, sharp focus, (realistic,photorealistic:1.37)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>白雪公主在国王(一位中年男子，面容威严，身穿华丽的王袍，头戴金色皇冠，留有整齐的胡须，举止沉稳。)白雪公主和王后的宠爱之下，逐渐长大了，终于成了一个人见人爱的美少女。 白雪公主非常善良、有爱心、她经常和动物一起玩耍。</t>
+          <t>宫殿内的一间豪华房间，装饰着精美的挂毯和家具，显得温馨而庄重。</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Under the care of the king, a middle-aged man with a dignified appearance, dressed in magnificent royal robes, wearing a golden crown, with neatly trimmed facial hair and a composed demeanor, and the queen, Snow White grew up over time. Eventually, she blossomed into a beautiful young girl admired by all who met her. Snow White was exceptionally kind-hearted and compassionate, often seen playing with animals in the serene surroundings of the palace grounds. Her gentle nature endeared her to both people and creatures alike.</t>
+          <t>宫殿内的一间豪华房间，装饰着精美的挂毯和家具，显得温馨而庄重。</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>middle-aged king with a dignified appearance, magnificent royal robes, golden crown, neatly trimmed facial hair, composed demeanor, beautiful detailed eyes, strong nose, well-defined lips, long eyelashes, Snow White standing beside him, beautiful young girl, kind-hearted and compassionate expression, gentle smile, flowing black hair, rosy cheeks, delicate features, soft white dress, animals surrounding her, serene palace grounds, lush greenery, vibrant flowers, soft natural lighting, highly detailed textures, cinematic composition, realistic style, warm color tones, 8k resolution, sharp focus, dynamic depth of field</t>
+          <t>A luxurious room inside the palace, adorned with exquisite tapestries and finely crafted furniture, presented an atmosphere that was both warm and dignified.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>白雪公主在国王白雪公主和王后的宠爱之下，逐渐长大了，终于成了一个人见人爱的美少女。 白雪公主非常善良、有爱心、她经常和动物一起玩耍。</t>
+          <t>luxurious palace room, exquisite tapestries, finely crafted furniture, warm and dignified atmosphere, golden decorations, ornate chandeliers, soft ambient lighting, rich color tones, ultra-detailed, aesthetic composition, (best quality,4k,8k,highres:1.3), ultra-fine painting, sharp focus, vivid colors, physically-based rendering, HDR, UHD, professional, studio lighting, extreme detail description</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>森林的动物，像小鹿、小兔子、松鼠、小鸟都喜欢白雪公主，因为白雪公主会给它们吃食物，还会讲故事给它们听。 个性善良犹如天使般的白雪公主，过着幸福快乐的生活。 可是，好景不长，白雪公主的母亲生病去世了。</t>
+          <t>国王和王后站在房间中央，双手合十，低头闭眼。</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The animals in the forest, such as the little deer, rabbits, squirrels, and birds, all adored Snow White, for she would not only provide them with food but also tell them enchanting stories. Snow White, whose character was as kind and pure as an angel, lived a life filled with happiness and joy. However, this blissful period did not last long, as Snow White's mother fell ill and eventually passed away.</t>
+          <t>国王(character features: 一位中年男子，面容端庄，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的佩剑，行走时步伐沉稳。)和王后站在房间中央，双手合十，低头闭眼。</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>snow white in a mystical forest, surrounded by adoring animals like deer, rabbits, squirrels, and birds, beautiful detailed eyes, delicate nose, gentle lips, long eyelashes, extremely detailed face, flowing gown with soft textures, holding a basket of food, enchanting stories flowing from her mouth, kind and pure aura, angelic character, happiness and joy radiating, golden sunlight filtering through trees, lush greenery, vibrant flowers, magical fairy lights, high detail, cinematic style, warm color tones, soft lighting, fantasy art, whimsical atmosphere, serene environment, realistic yet dreamlike, 8k quality</t>
+          <t>The king, a middle-aged man with a dignified appearance, clad in a splendid golden robe and wearing a gem-encrusted crown on his head, with a finely crafted sword hanging from his waist, walked steadily as he moved. He stood in the center of the room alongside the queen, their hands clasped together in prayer, their heads bowed, and their eyes closed peacefully.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>森林的动物，像小鹿、小兔子、松鼠、小鸟都喜欢白雪公主，因为白雪公主会给它们吃食物，还会讲故事给它们听。 个性善良犹如天使般的白雪公主，过着幸福快乐的生活。 可是，好景不长，白雪公主的母亲生病去世了。</t>
+          <t>one middle aged king, one queen about thirty, indoor setting, grand palace hall, dim candlelight, soft ambient lighting, eyes closed, offering silent prayers, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+middle aged king with a dignified appearance, splendid golden robe, gem encrusted crown, finely crafted sword at his waist, strong jawline, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting  
+BREAK  
+queen, woman in her thirties, fair skin, elegant posture, slender figure, silk gown with intricate embroidery, delicate pearl necklace, gentle maternal eyes, closed lips, peaceful expression, long black hair tied neatly, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, sharp details</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>国王(一位中年男子，面容威严，身穿华丽的王袍，头戴金色皇冠，留有整齐的胡须，举止沉稳。)为了白雪公主就迎娶了一位新王后(一位约四十岁的女人，容貌美丽但冷峻，皮肤白皙无瑕，深褐色卷发盘成复杂的发髻，眼神锐利而高傲，身穿深红色锦缎长袍，胸口镶嵌宝石，脖子上戴着金链，手指戴着多枚戒指，走路时脚步轻快却带着压迫感。)，可是，这位新王后(一位约四十岁的女人，容貌美丽但冷峻，皮肤白皙无瑕，深褐色卷发盘成复杂的发髻，眼神锐利而高傲，身穿深红色锦缎长袍，胸口镶嵌宝石，脖子上戴着金链，手指戴着多枚戒指，走路时脚步轻快却带着压迫感。)却是个精通法术的女巫。 她虽然很美丽，但是个性很骄傲、暴躁。 尤其她最恨别人比她美丽。 “这是你新母后！”</t>
+          <t>房间上方的天花板描绘着天穹图案，光线透过窗户洒在祈祷的两人身上。</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The king, a middle-aged man with a dignified appearance, wearing splendid royal robes and a golden crown, sporting a neatly trimmed beard, and moving with composure, married a new queen for the sake of Snow White. The new queen was a woman in her forties, possessing a beautiful yet severe countenance, with flawless pale skin and deep brown curls arranged in a complex bun. Her sharp and arrogant gaze complemented her deep red brocade gown adorned with gemstones at the chest, a golden necklace around her neck, and multiple rings on her fingers. Her light yet oppressive footsteps echoed as she walked. However, this new queen was not only a monarch but also a witch skilled in sorcery. Though she was exceptionally beautiful, her character was marked by pride and irritability. Most of all, she detested anyone surpassing her in beauty. "This is your new stepmother!"</t>
+          <t>房间上方的天花板描绘着天穹图案，光线透过窗户洒在祈祷的两人身上。</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>king, middle-aged man, dignified appearance, splendid royal robes, golden crown, neatly trimmed beard, composed posture, beautiful detailed eyes, strong nose, elegant lips, long eyelashes, queen, woman in her forties, beautiful yet severe countenance, flawless pale skin, deep brown curls, complex bun, sharp gaze, arrogant expression, deep red brocade gown, gemstones at the chest, golden necklace, multiple rings, light oppressive footsteps, witch, skilled in sorcery, pride, irritability, detests beauty surpassing hers, grand hall, marble floor, ornate throne, majestic atmosphere, realistic texture, highly detailed, cinematic lighting, dramatic shadows, rich colors, dark reds and golds, regal setting, photorealistic style, 8k quality</t>
+          <t>The ceiling above the room was adorned with intricate patterns depicting the vault of heaven, and as sunlight streamed through the windows, it gently illuminated the two individuals who were engaged in prayer.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>国王为了白雪公主就迎娶了一位新王后，可是，这位新王后却是个精通法术的女巫。 她虽然很美丽，但是个性很骄傲、暴躁。 尤其她最恨别人比她美丽。 “这是你新母后！”</t>
+          <t>two individuals engaged in prayer, indoor setting, sunlight streaming through windows, intricate ceiling patterns depicting the vault of heaven, gentle illumination, solemn atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(first individual, a man in his forties), dignified appearance, neatly trimmed beard, closed eyes, hands clasped in prayer, wearing a simple yet elegant robe, beautiful detailed face, realistic skin tones, sharp focus, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(second individual, a woman in her thirties), serene expression, long flowing hair tied loosely, wearing a modest dress with delicate lace embroidery, gentle posture, elegant fingers interlaced in prayer, beautiful detailed eyes, long eyelashes, vivid colors, studio lighting, perfect lighting, (realistic,photorealistic:1.37)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>当国王(一位中年男子，面容威严，身穿华丽的王袍，头戴金色皇冠，留有整齐的胡须，举止沉稳。)向白雪公主介绍新王后(一位约四十岁的女人，容貌美丽但冷峻，皮肤白皙无瑕，深褐色卷发盘成复杂的发髻，眼神锐利而高傲，身穿深红色锦缎长袍，胸口镶嵌宝石，脖子上戴着金链，手指戴着多枚戒指，走路时脚步轻快却带着压迫感。)时，她还正为死去的母后感到悲伤呢。 新王后(一位约四十岁的女人，容貌美丽但冷峻，皮肤白皙无瑕，深褐色卷发盘成复杂的发髻，眼神锐利而高傲，身穿深红色锦缎长袍，胸口镶嵌宝石，脖子上戴着金链，手指戴着多枚戒指，走路时脚步轻快却带着压迫感。)有一面很奇特的镜子，从镜子里可以得到一切你想知道的答案。 所以，王后经常对着镜子问：“魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)、魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)，谁是世界上最美丽的女人？”</t>
+          <t>祭坛或神像的特写，象征着上苍的存在，香火缭绕。</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>When the king, a middle-aged man with a dignified appearance, wearing splendid royal robes and a golden crown, sporting neatly trimmed facial hair and exuding steady composure, introduced the new queen to Snow White, she was still grieving for her deceased mother, the former queen. The new queen, a woman in her early forties, possessed striking beauty marked by an austere demeanor, flawless pale skin, deep brown curls intricately styled into a complex bun, sharp and haughty eyes, a deep red brocade gown adorned with gemstones at the chest, a golden necklace around her neck, multiple rings on her fingers, and a brisk yet intimidating gait, owned a most peculiar mirror capable of providing answers to any question one might pose. Thus, the queen frequently approached the mirror and inquired, "Magic Mirror, oh grand and ancient mirror with a surface smooth as water, framed in black marble intricately carved with elaborate patterns, emanating an aura of mystique, and possessing a voice deep and magnetic, who is the fairest woman in all the world?"</t>
+          <t>祭坛或神像的特写，象征着上苍的存在，香火缭绕。</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>king, middle-aged, dignified appearance, splendid royal robes, golden crown, neatly trimmed facial hair, steady composure, beautiful detailed eyes, strong nose, elegant lips, long eyelashes, new queen, early forties, striking beauty, austere demeanor, flawless pale skin, deep brown curls, complex bun, sharp haughty eyes, deep red brocade gown, gemstones at chest, golden necklace, multiple rings, brisk intimidating gait, snow white, grieving, deceased mother, former queen, peculiar mirror, answers to any question, magic mirror, grand ancient mirror, surface smooth as water, black marble frame, intricate patterns, mystique aura, deep magnetic voice, fairest woman in all the world, regal atmosphere, rich textures, dramatic lighting, dark yet luxurious background, realistic portrait, highly detailed, cinematic style, gothic elegance, warm gold tones, cool blue shadows, 8k quality</t>
+          <t>The camera zooms in on the altar or deity statue, symbolizing the presence of a higher power, as incense coils release fragrant smoke that fills the air.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>当国王向白雪公主介绍新王后时，她还正为死去的母后感到悲伤呢。 新王后有一面很奇特的镜子，从镜子里可以得到一切你想知道的答案。 所以，王后经常对着镜子问：“魔镜、魔镜，谁是世界上最美丽的女人？”</t>
+          <t>{Altar with deity statue, incense smoke filling the air, sacred and mystical atmosphere, dimly lit temple interior, golden rays of light filtering through windows, intricate carvings on walls, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic}  
+{Ancient altar adorned with delicate carvings, glowing softly under golden light, realistic textures, ultra-fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), studio lighting, vivid colors, sharp focus}  
+{Deity statue with majestic presence, intricate details in robes and crown, serene expression, beautiful detailed eyes, long eyelashes, realistic skin tones, perfect lighting, photorealistic, ultra-detailed, (realistic,photorealistic:1.37)}  
+{Incense coils releasing fragrant smoke, swirling patterns in the air, ethereal glow, mystical ambiance, dynamic composition, HDR lighting, sharp focus, professional, vivid colors, bokeh effect, physically-based rendering}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>“全世界最美的女人就是你，王后。” 可是，有一天，当王后再问魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)同样的问题时，魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)却回答说： “现在白雪公主比你美丽。” 新王后(一位约四十岁的女人，容貌美丽但冷峻，皮肤白皙无瑕，深褐色卷发盘成复杂的发髻，眼神锐利而高傲，身穿深红色锦缎长袍，胸口镶嵌宝石，脖子上戴着金链，手指戴着多枚戒指，走路时脚步轻快却带着压迫感。)听了非常生气。</t>
+          <t>王后在皇宫的产房内，躺在床上，面容疲惫但带着微笑。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"The courtier once proclaimed, 'Your Majesty, the queen, you are the fairest woman in all the world.' However, one day, when the queen, a regal figure with an aura of authority and grace, posed the same question to the magic mirror—a vast ancient mirror with a surface as smooth as water, framed by black marble intricately carved with elaborate patterns, emanating a mysterious atmosphere and possessing a deep, magnetic voice—it responded differently. The mirror declared, 'Currently, Snow White surpasses you in beauty.' Upon hearing this reply, the new queen, a woman in her forties with striking yet stern features, unblemished pale skin, rich dark brown curls arranged into a sophisticated bun, sharp and proud eyes, adorned in a deep red silk brocade robe embellished with gemstones at the chest, wearing a golden necklace around her neck and multiple rings on her fingers, who exuded an oppressive presence despite her swift and light steps, became exceedingly enraged."</t>
+          <t>王后在皇宫的产房内，躺在床上，面容疲惫但带着微笑。</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>queen, regal figure, authoritative aura, graceful posture, striking features, stern expression, unblemished pale skin, rich dark brown curls, sophisticated bun, sharp eyes, proud gaze, long eyelashes, detailed facial structure, beautiful detailed lips, deep red silk brocade robe, gemstone embellishments, golden necklace, multiple rings, intricate black marble frame, ancient mirror, smooth surface like water, mysterious atmosphere, magnetic voice, Snow White reference, enraged emotion, oppressive presence, light steps, high detail, realistic texture, cinematic lighting, dark and dramatic color tone, gothic art style, fantasy realism, 8k quality</t>
+          <t>The queen, lying on the bed in the delivery room of the palace, appeared tired but smiled gently as she gazed at her newborn child.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>“全世界最美的女人就是你，王后。” 可是，有一天，当王后再问魔镜同样的问题时，魔镜却回答说： “现在白雪公主比你美丽。” 新王后听了非常生气。</t>
+          <t>one queen, one newborn child, palace delivery room setting, soft warm lighting, tender moment, emotional connection, realistic skin tones, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+queen with fair skin, delicate facial features, beautiful detailed eyes, long eyelashes, gentle smile, exhausted yet content expression, luxurious silk gown with intricate embroidery, golden crown resting beside her, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), HDR, UHD, vivid colors, perfect lighting  
+BREAK  
+newborn child wrapped in a soft white blanket adorned with golden edges, tiny hands visible, serene and peaceful expression, realistic baby skin texture, delicate fingers and toes, extreme detail description, studio lighting, (realistic,photorealistic:1.37), sharp focus, vivid colors, professionally composed</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>“可恶，怎么白雪公主和七个小矮人(七个身材矮小的男性，年龄各异，从二十岁到五十岁不等，头发颜色各不相同，有的留胡子，有的光头，穿着各式各样的粗布衣服，有的戴帽子，有的围围巾，脚穿厚重的皮鞋，性格各异但都善良淳朴。)可以有人比我更美丽，我一定要把她除去。” 于是，她就命令宫廷的武士说： “我不想再看到白雪公主了，你找个借口，把她带到森林里偷偷杀掉。</t>
+          <t>一个摇篮放在产房中央，里面躺着一个刚出生的小婴儿。</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The evil queen growled in frustration, "How can Snow White be more beautiful than me? I simply cannot tolerate her existence any longer." The seven dwarfs were a group of short-statured men, each with distinct characteristics. Their ages ranged from twenty to fifty, their hair colors varied, and some had beards while others were clean-shaven. They wore coarse cloth garments in different styles; some donned hats, others scarves, and all wore heavy leather boots. Despite their differing personalities, they were all kind-hearted and simple. Determined to eliminate Snow White, the queen summoned the royal knight and issued an order: "I never want to see Snow White again. You must find a pretext to take her into the forest and secretly dispose of her there."</t>
+          <t>一个摇篮放在产房中央，里面躺着一个刚出生的小婴儿。</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>evil queen with sharp glare, beautiful detailed eyes filled with anger, high arched eyebrows, thin lips curled into a snarl, detailed facial features, long black hair flowing down her back, wearing an elegant dark purple gown adorned with golden embroidery, holding a crystal orb in her hand, standing in a grand throne room, dramatic lighting casting shadows on her face, rich velvet textures, dark moody atmosphere, cinematic quality, oil painting style, deep color tones, contrast between light and shadow, royal knight kneeling before the queen, Snow White subtly reflected in the crystal orb, seven dwarfs depicted in the background working in a mine, each with unique hairstyles and clothing styles, coarse cloth garments, various hats and scarves, heavy leather boots, diverse ages and appearances, warm earthy tones for the dwarfs’ setting, intricate details throughout the scene, fantasy realism art style, highly detailed composition</t>
+          <t>In the center of the delivery room, a cradle was placed, and inside it lay a newly born baby, peacefully resting amidst the soft folds of a blanket.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>“可恶，怎么白雪公主和七个小矮人可以有人比我更美丽，我一定要把她除去。” 于是，她就命令宫廷的武士说： “我不想再看到白雪公主了，你找个借口，把她带到森林里偷偷杀掉。</t>
+          <t>one newborn baby, delivery room setting, soft ambient lighting, peaceful mood, hospital-like environment with clean and sterile aesthetics, minimalist composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+newborn baby with delicate facial features, closed eyes, tiny nose, soft rosy cheeks, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), nestled in a cradle, surrounded by soft folds of a white blanket, serene expression, lifelike detail, vivid colors, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>杀了以后，把她的心和舌头带回来，做为你杀死她的证据。 听到没有？ 不可以有差错……” “是的，王后……” 武士听了这话之后，就真的把白雪公主带到森林里去了。</t>
+          <t>小公主的脸部特写，皮肤雪白、双颊红润、头发乌黑柔顺。</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>After killing her, the huntsman was instructed to bring back her heart and tongue as evidence of her death. The queen made sure he understood that there must be no mistakes. In response, the huntsman obediently agreed and, acting on the queen's orders, took Snow White deep into the forest.</t>
+          <t>小公主的脸部特写，皮肤雪白、双颊红润、头发乌黑柔顺。</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dark forest, eerie atmosphere, Snow White in a red cloak, terrified expression, detailed eyes showing fear, delicate nose, slightly parted lips, long eyelashes, huntsman with a stern face, rugged texture, holding a hunting knife, dark medieval clothing, deep shadows, golden afternoon light filtering through trees, moss-covered trunks, twisted roots, rich details in foliage, gothic art style, realistic textures, cinematic quality, muted color tones, dramatic lighting, 8k resolution, intricate backgrounds, emotional depth, professional photography composition</t>
+          <t>The portrait of the young princess was striking, her skin as white as snow, her cheeks flushed with a rosy hue, and her hair flowing smoothly in deep black waves.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>杀了以后，把她的心和舌头带回来，做为你杀死她的证据。 听到没有？ 不可以有差错……” “是的，王后……” 武士听了这话之后，就真的把白雪公主带到森林里去了。</t>
+          <t>one young princess  
+BREAK  
+young princess, skin as white as snow, rosy cheeks, deep black flowing hair, beautiful detailed eyes, long eyelashes, elegant posture, delicate facial features, intricate golden crown, elaborate royal gown with shimmering embroidery, soft studio lighting, sharp focus, ultra-detailed, (realistic,photorealistic:1.37), vivid colors, professional, HDR, UHD, masterpiece, best quality, 4k, 8k, highres, bokeh, physically-based rendering, aesthetic</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>当武士抽出刀来杀公主的时候，他看到正在采花的公主，纯洁，善良，犹如天使一般，武士不忍心杀她，就向白雪公主说： “皇后命令我杀掉公主你，可是我实在狠不下心，所以你还是往森林里逃走吧！”</t>
+          <t>王后轻轻抱着小公主，眼神充满慈爱。</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>As the samurai drew his sword to kill the princess, he caught sight of her picking flowers. Pure and kind-hearted, she appeared like an angel, which made the samurai hesitate to harm her. Consequently, the samurai said to Snow White, "The queen has ordered me to take your life, but I cannot bring myself to do it. Therefore, you should flee into the forest to save yourself."</t>
+          <t>王后轻轻抱着小公主，眼神充满慈爱。</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>samurai, princess, garden, picking flowers, angelic presence, hesitation, beautiful detailed eyes, delicate nose, soft lips, long eyelashes, traditional samurai armor, katana sword, flowing kimono, vibrant flowers, lush greenery, sunlight filtering through trees, soft lighting, warm color tones, detailed textures, realistic style, high quality, cinematic composition, emotional atmosphere, 8k resolution</t>
+          <t>The queen gently held the young princess in her arms, her eyes filled with tender affection.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>当武士抽出刀来杀公主的时候，他看到正在采花的公主，纯洁，善良，犹如天使一般，武士不忍心杀她，就向白雪公主说： “皇后命令我杀掉公主你，可是我实在狠不下心，所以你还是往森林里逃走吧！”</t>
+          <t>one queen and one young princess  
+queen holding the young princess in her arms, tender affection in her eyes, elegant palace room background with soft lighting, warm color tones, intricate details of royal decorations, velvet curtains, golden ornaments, marble floors, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+queen, woman in her thirties, fair skin, slender figure, long flowing hair styled elegantly, silk gown with intricate gold embroidery, pearl necklace, gentle maternal eyes filled with love, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+young princess, child around 5 years old, delicate features, curly blonde hair, wearing a small velvet dress with lace trim, tiny crown on her head, innocent expression, snuggled into the queen’s arms, soft skin texture, beautiful detailed lips, vivid colors, studio lighting, perfect lighting, (realistic,photorealistic:1.37)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>说完武士见到一头猪，就跑过去宰了它，并取下心和舌头以作为证据。 之后，武士便回皇宫去了。 听到猫头鹰叫声的白雪公主，越走越觉得森林好可怕。 突然，眼前有一栋小木屋，于是便又惊又喜的叫着：</t>
+          <t>宫殿大厅内布置得喜气洋洋，挂满了彩带和鲜花。</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>After the samurai finished speaking, he noticed a boar nearby and swiftly ran towards it, slaughtering the animal with precision. He then carefully extracted its heart and tongue as proof of his deed before returning to the palace. Meanwhile, Princess Snow White, upon hearing the eerie hoot of an owl, felt an increasing sense of fear as she ventured deeper into the darkening forest. Suddenly, she spotted a quaint little wooden cottage ahead, and with a mixture of surprise and relief, she exclaimed joyfully:</t>
+          <t>宫殿大厅内布置得喜气洋洋，挂满了彩带和鲜花。</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>samurai, boar hunt, precision strike, heart and tongue extraction, proof of deed, return to palace, Princess Snow White, eerie owl hoot, growing fear, darkening forest, quaint wooden cottage, surprise and relief, traditional Japanese armor, sharp katana, detailed eyes, strong nose, determined lips, long eyelashes, realistic texture, hyper-detailed face, dark atmospheric forest, moonlight illumination, soft shadows, gothic fairy tale style, rich color tones, deep contrast, cinematic lighting, high resolution, ultra-detailed artwork</t>
+          <t>The palace hall was decorated with great festivity, adorned with colorful ribbons and fresh flowers hanging from every possible corner.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>说完武士见到一头猪，就跑过去宰了它，并取下心和舌头以作为证据。 之后，武士便回皇宫去了。 听到猫头鹰叫声的白雪公主，越走越觉得森林好可怕。 突然，眼前有一栋小木屋，于是便又惊又喜的叫着：</t>
+          <t>{Palace hall interior, grand festive decoration, colorful ribbons, fresh flowers hanging from every corner, opulent chandeliers, rich velvet curtains, golden ornaments, elegant marble floor, warm ambient lighting, vibrant color tones, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic}
+BREAK  
+{Prompt for the first character - Palace guard standing by the door}  
+palace guard, tall and imposing figure, detailed armor with gold accents, stern expression, beautifully detailed eyes, strong jawline, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK  
+{Prompt for the second character - Royal servant arranging decorations}  
+royal servant, young woman in her twenties, delicate features, kind smile, intricate embroidered dress, focused gaze, soft yet determined posture, beautiful detailed eyes, long eyelashes, realistic skin tones, vivid colors, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>“啊，是小木屋！” 白雪公主急忙向前敲敲门，可是屋子里没有人来开门。 她就自作主张的把门打开。 进入小木屋后，里面竟然整齐排列着七张小小的床。</t>
+          <t>全国臣民站在皇宫外的广场上，脸上洋溢着喜悦的表情。</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"A little cottage!" exclaimed Snow White as she hurried forward and knocked on the door, but no one came to open it from inside. She then took the initiative to open the door herself. Upon entering the cottage, Snow White found that there were seven small beds neatly arranged inside.</t>
+          <t>全国臣民站在皇宫外的广场上，脸上洋溢着喜悦的表情。</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>little cottage, Snow White, wooden door, detailed敲door action, seven small beds, neatly arranged, beautiful detailed eyes, delicate nose, charming lips, long eyelashes, white snow-like skin, red cheeks, blue dress, golden sunlight streaming in, cozy interior, rustic furniture, soft lighting, warm color tone, fairy tale style, highly detailed illustration, 8k quality, vibrant colors, magical atmosphere, enchanting scenery, lush green surroundings, storybook ambiance</t>
+          <t>The entire nation's subjects gathered in the square outside the palace, their faces beaming with expressions of joy.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>“啊，是小木屋！” 白雪公主急忙向前敲敲门，可是屋子里没有人来开门。 她就自作主张的把门打开。 进入小木屋后，里面竟然整齐排列着七张小小的床。</t>
+          <t>{A vast crowd of people, thousands of subjects, gathered in a grand square outside an opulent palace}  
+{The square is filled with vibrant energy, colorful banners fluttering in the breeze, golden sunlight casting warm tones across the scene, detailed cobblestone streets underfoot, ornate fountains spraying water, a majestic palace in the background with towering spires and intricate carvings, festive atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic}  
+BREAK  
+{People of all ages and backgrounds, diverse appearances, smiling faces full of joy, beautifully detailed eyes conveying happiness, realistic skin tones varying by ethnicity, sharp focus on facial expressions, casual yet elegant clothing styles reflecting different social classes, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>白雪公主在森林里跑了一天，觉得非常疲倦，就在那七张小小的床上躺了下来，不知不觉的睡着了。</t>
+          <t>一名宫廷官员高举公告，上面写着‘白雪公主’的名字。</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>After running through the forest for an entire day, Snow White felt extremely exhausted. She then lay down on the seven tiny beds and soon fell asleep without even realizing it.</t>
+          <t>一名宫廷官员高举公告，上面写着‘白雪公主’的名字。</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Snow White lying on seven tiny beds in a small cottage, beautiful detailed eyes closed, soft delicate lips slightly parted, elegant nose structure, long eyelashes, flowing black hair spread across multiple pillows, wearing a traditional Snow White dress with blue and red tones, extremely tired expression, serene facial features, detailed realistic skin texture, soft bed covers with intricate patterns, wooden floor with natural grain texture, rustic wooden walls surrounding the room, warm golden lighting from a nearby candle, soft shadows creating a cozy atmosphere, high-quality detailed rendering, hyper-realistic artistic style, soft pastel color tones, gentle ambient lighting, enchanting fairy tale scene, magical forest background visible through a window, peaceful sleeping pose, attention to fine details</t>
+          <t>A court official held up a proclamation high for all to see, clearly displaying the name of "Snow White" inscribed upon it.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>白雪公主在森林里跑了一天，觉得非常疲倦，就在那七张小小的床上躺了下来，不知不觉的睡着了。</t>
+          <t>one court official, crowd in background, medieval town square setting, daytime, vibrant colors, detailed architecture, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+court official with a serious expression, wearing elaborate robes of office, holding up a rolled parchment high in the air, proclamation clearly visible with "Snow White" inscribed in elegant calligraphy, well-defined facial features, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting  
+Scene description for the background: medieval town square bustling with activity, cobblestone streets, ornate buildings with intricate carvings and windows, townsfolk gathered in the background whispering and pointing at the proclamation, sunlight streaming down creating soft shadows, rich textures and patterns, photorealistic style, perfect lighting, (realistic,photorealistic:1.37), vibrant color palette, sharp focus throughout the scene</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>傍晚，当白雪公主和七个小矮人(七个身材矮小的男性，年龄各异，从二十岁到五十岁不等，头发颜色各不相同，有的留胡子，有的光头，穿着各式各样的粗布衣服，有的戴帽子，有的围围巾，脚穿厚重的皮鞋，性格各异但都善良淳朴。)七个小矮人(七个身材矮小的男性，年龄各异，从二十岁到五十岁不等，头发颜色各不相同，有的留胡子，有的光头，穿着各式各样的粗布衣服，有的戴帽子，有的围围巾，脚穿厚重的皮鞋，性格各异但都善良淳朴。)扛着锄头回来时，发现自己的家有人在，而且是睡在自己的床上，大家都很奇怪的问 ： “这个漂亮的女孩子是谁啊？” “她睡得好香哪！” “这个小姑娘长得真美丽。”</t>
+          <t>天空中放飞了许多庆祝的和平鸽，象征着对小公主的祝福。</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>In the evening, when the seven dwarfs, who were small in stature, ranging in age from twenty to fifty years old, with varying hair colors, some bearded and others bald, wearing coarse cloth clothing of different styles, some with hats and others with scarves, all wearing heavy leather shoes and possessing diverse yet kind and simple personalities, returned home carrying their hoes, they found that someone was in their house, sleeping in their beds. Surprised, the dwarfs questioned, "Who is this beautiful girl?" "She is sleeping so soundly!" "This young lady is truly gorgeous."</t>
+          <t>天空中放飞了许多庆祝的和平鸽，象征着对小公主的祝福。</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>seven dwarfs, varying ages from twenty to fifty, different hair colors, some bearded and others bald, coarse cloth clothing in various styles, hats and scarves, heavy leather shoes, diverse yet kind personalities, carrying hoes, returning home in the evening, surprised expressions, beautiful detailed eyes, expressive noses, gentle lips, long eyelashes, wooden house interior, beds arranged neatly, someone sleeping in their beds, curious atmosphere, soft lighting, warm color tones, detailed textures, fairy tale style, realistic details, high-quality image, 8k resolution, intricate shadows and highlights</t>
+          <t>The onlookers observed numerous white doves, symbols of peace and celebration, being released into the sky, representing the blessings for the little princess.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>傍晚，当白雪公主和七个小矮人七个小矮人扛着锄头回来时，发现自己的家有人在，而且是睡在自己的床上，大家都很奇怪的问 ： “这个漂亮的女孩子是谁啊？” “她睡得好香哪！” “这个小姑娘长得真美丽。”</t>
+          <t>numerous white doves, little princess, celebration theme, symbols of peace, blessings, grand outdoor ceremony, sunny day, golden sunlight, elegant garden setting, lush greenery, blooming flowers, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting
+BREAK
+(little princess, girl in her early teens), beautiful detailed eyes, long eyelashes, gentle smile, innocent expression, elaborate ceremonial dress with intricate lace and embroidery, pearl necklace, soft wavy hair styled in a crown braid, radiant skin, graceful posture, (realistic,photorealistic:1.37), vivid colors, sharp focus, ultra fine painting, (masterpiece:1.2)
+BREAK
+white doves, symbolizing peace and celebration, numerous birds flying gracefully into the sky, pure white feathers with intricate details, realistic wing movements, sharp focus on each dove, sunlight casting soft shadows, photorealistic rendering, (best quality,4k,8k,highres:1.3), vivid colors, HDR, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>小矮人们纷纷议论的声音吵醒了白雪公主。 小矮人们很生气的说： “你为什么闯进我们的房子呢？”</t>
+          <t>一个宏伟的城堡，花园里鲜花盛开，阳光洒满庭院。</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The voices of the dwarfs chattering awakened Snow White. The dwarfs, feeling quite angry, questioned her, demanding to know why she had entered their house without permission.</t>
+          <t>一个宏伟的城堡，花园里鲜花盛开，阳光洒满庭院。</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Snow White, dwarfs, beautiful detailed eyes, delicate nose, charming lips, long eyelashes, detailed facial features, magical forest, wooden cabin, angry expressions, questioning posture, chattering atmosphere, dim lighting, earthy color tone, realistic style, high detail, cinematic quality, natural textures, moss-covered stones, soft shadows, warm hues, enchanting ambiance</t>
+          <t>The observer beheld a magnificent castle with blossoms adorning the garden, as sunlight bathed the courtyard in warmth.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>小矮人们纷纷议论的声音吵醒了白雪公主。 小矮人们很生气的说： “你为什么闯进我们的房子呢？”</t>
+          <t>a magnificent castle, blossoms in the garden, sunlight bathing the courtyard, warm atmosphere, vibrant colors, lush greenery, blooming flowers, intricate architecture, grand entrance, detailed stonework, realistic shadows, sharp focus, ultra-detailed, aesthetic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, (best quality,4k,8k,highres:1.2), studio lighting, vivid colors, extreme detail description, golden hour lighting, masterful realism, photorealistic style</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>“各位先生，真是对不起，因为我在森林中迷路了，走了一整天的路，实在是又饿又累，看见这栋小屋，我就走进来休息了。” 白雪公主又把事情的经过，一五一十地告诉小矮人。</t>
+          <t>白雪公主站在城堡的露台上，国王和王后在她身旁微笑注视着她。</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The girl apologized to the men, explaining that she had lost her way in the forest and had been walking all day, leaving her extremely hungry and tired. Upon seeing the cottage, she had entered to rest. Snow White then recounted the entire sequence of events to the dwarfs in detail.</t>
+          <t>白雪公主站在城堡的露台上，国王(character features: 一位中年男子，面容端庄，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的佩剑，行走时步伐沉稳。)和王后在她身旁微笑注视着她。</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>girl in a forest, surrounded by dwarfs, beautiful detailed eyes, long eyelashes, delicate nose, soft lips, tired and hungry expression, wearing a simple dress with forest elements, wooden cottage in the background, warm lighting inside the cottage, dim natural light from outside, autumn leaves scattered on the ground, moss-covered stones, realistic textures, high detail, cinematic style, soft color tones, cozy atmosphere, 8k quality, intricate details, deep shadows, soft bokeh, tranquil ambiance</t>
+          <t>Snow White stood on the terrace of the castle, her elegance captivating everyone's attention. Beside her stood the king, a middle-aged man with a dignified appearance, clad in a splendid golden royal robe and wearing a gem-encrusted crown on his head, with an exquisite sword hanging at his waist, his steps steady as he walked. The queen was also there, smiling gently by her side, as they both looked at Snow White with affection and pride.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>“各位先生，真是对不起，因为我在森林中迷路了，走了一整天的路，实在是又饿又累，看见这栋小屋，我就走进来休息了。” 白雪公主又把事情的经过，一五一十地告诉小矮人。</t>
+          <t>one girl (Snow White), one middle-aged king, one queen, terrace of a medieval castle, sunset background with warm golden tones, elegant royal attire, affectionate family moment, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White, young princess), fair skin, rosy cheeks, raven-black hair styled in loose curls, red corset dress with gold accents, blue cape, delicate hands clasped gracefully, beautiful detailed eyes, long eyelashes, soft smile, elegant posture, radiant beauty, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(middle-aged king), dignified appearance, splendid golden robe adorned with intricate embroidery, gem-encrusted crown on his head, exquisite sword hanging at his waist, strong and steady stance, kind yet authoritative expression, detailed facial features, beautiful detailed eyes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting  
+BREAK  
+(queen, elegant woman), fair skin, slender figure, silk gown with golden thread embroidery and pearl embellishments, gentle maternal smile, graceful hands folded elegantly, beautiful detailed eyes, long eyelashes, soft gaze filled with pride and affection, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>小矮人们听了非常同情白雪公主的遭遇，就把她留下来。 “你就在这里住下来吧！” 白雪公主听到小矮人愿意留下她，很高兴的说：</t>
+          <t>白雪公主坐在花园的长椅上，周围是各种小动物，包括小鸟、兔子和松鼠，它们围绕在她身边。</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The dwarfs, after hearing the tragic story of Snow White, felt profound sympathy for her misfortune and decided to take her in. They offered her a place to stay among them in their cozy little home. Snow White, upon realizing that the kind dwarfs were willing to let her stay, felt an immense wave of relief and happiness as she gratefully accepted their generous offer.</t>
+          <t>白雪公主坐在花园的长椅上，周围是各种小动物，包括小鸟、兔子和松鼠，它们围绕在她身边。</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>dwarfs, Snow White, cozy little home, wooden interior, warm lighting, detailed eyes, beautiful nose, gentle smile, long eyelashes, soft fabric textures, rustic furniture, small beds, golden hues, earthy tones, compassionate expressions, heartfelt scene, emotional connection, soft shadows, high detail, realistic style, fantasy theme, 8k quality, cinematic composition, tender atmosphere</t>
+          <t>In the garden, Snow White was sitting on a bench, with various small animals, including birds, rabbits, and squirrels, gathering around her.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>小矮人们听了非常同情白雪公主的遭遇，就把她留下来。 “你就在这里住下来吧！” 白雪公主听到小矮人愿意留下她，很高兴的说：</t>
+          <t>one girl (Snow White), various small animals including birds, rabbits, and squirrels, enchanting garden setting with vibrant flowers and lush greenery, soft sunlight filtering through trees, magical fairy tale atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, vivid colors, studio lighting, perfect lighting, (best quality,4k,8k,highres:1.3), (masterpiece:1.2)
+BREAK
+(Snow White, young princess), fair skin, long black hair flowing softly, delicate facial features, beautiful detailed eyes, long eyelashes, elegant posture, wearing a traditional blue and red dress with golden accents, gentle smile, realistic skin tones, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting
+BREAK
+various small animals including birds, rabbits, and squirrels, lifelike textures, soft fur or feathers, playful expressions, harmoniously gathered around Snow White, realistic anatomy, sharp focus, ultra detailed, aesthetic, vivid colors, studio lighting, perfect lighting, (best quality,4k,8k,highres:1.3)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>“真是太感谢了，我愿意在这里为你们做饭、铺床、洗衣服、打扫，我什么都愿意为你们做。” “欢迎你，从此这里就是你的家了。” 白雪公主每天都把这个小木屋打扫得非常清洁。</t>
+          <t>白雪公主蹲下身，轻轻抚摸一只小白兔，表情温柔。</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The dwarfs were extremely grateful for her willingness to help, and she gladly offered to cook, make beds, wash clothes, and clean for them. The dwarfs welcomed her warmly, telling her that from then on, their home would also be hers. Every day, Snow White diligently ensured that the small wooden cottage was impeccably clean.</t>
+          <t>白雪公主蹲下身，轻轻抚摸一只小白兔，表情温柔。</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>snow white, dwarfs, small wooden cottage, beautiful detailed eyes, delicate nose, charming lips, long eyelashes, extremely detailed face, kind expression, clean home environment, wooden floor, rustic furniture, sunlight streaming through windows, warm lighting, cozy atmosphere, 4k resolution, highly detailed, realistic painting style, soft color tones, natural light, welcoming scene, domestic chores, friendship, happiness, harmonious composition</t>
+          <t>Snow White squatted down and gently stroked a small white rabbit with a tender expression on her face.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>“真是太感谢了，我愿意在这里为你们做饭、铺床、洗衣服、打扫，我什么都愿意为你们做。” “欢迎你，从此这里就是你的家了。” 白雪公主每天都把这个小木屋打扫得非常清洁。</t>
+          <t>one girl, small white rabbit, enchanted forest background, soft sunlight filtering through trees, tender moment, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White, young girl with fair skin, rosy cheeks, black hair in braids, red ribbon in hair, gentle maternal eyes, beautiful detailed lips, long eyelashes, delicate facial features, elegant posture, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3))  
+BREAK  
+(small white rabbit, fluffy fur, soft texture, bright alert eyes, realistic details, sharp focus, ultra fine painting, (best quality,4k,8k,highres:1.3), vivid colors, professional, bokeh)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>七个小矮人(七个身材矮小的男性，年龄各异，从二十岁到五十岁不等，头发颜色各不相同，有的留胡子，有的光头，穿着各式各样的粗布衣服，有的戴帽子，有的围围巾，脚穿厚重的皮鞋，性格各异但都善良淳朴。)从森林里回来后，就有可口的晚餐等着他们。 就这样日复一日，白雪公主和小矮人过着快乐的生活。 新王后(一位约四十岁的女人，容貌美丽但冷峻，皮肤白皙无瑕，深褐色卷发盘成复杂的发髻，眼神锐利而高傲，身穿深红色锦缎长袍，胸口镶嵌宝石，脖子上戴着金链，手指戴着多枚戒指，走路时脚步轻快却带着压迫感。)以为白雪公主已经死了，有一天她又问魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)说： “魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)、魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)，谁是世界上最美丽的人呢？”</t>
+          <t>花园全景，白雪公主与动物们嬉戏玩耍，远处可见国王和王后透过窗户关注着她。</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The seven dwarfs (seven short-statured men of varying ages, ranging from twenty to fifty years old, with different hair colors, some bearded while others bald, dressed in various coarse cloth garments, some wearing hats and others scarves, all wearing heavy leather shoes, each possessing distinct yet kind and simple personalities) returned from the forest to find a delicious dinner awaiting them. Day by day, Snow White prepared meals for the dwarfs, and together they lived a happy life filled with laughter and joy. Meanwhile, the new queen (a woman of about forty, with striking beauty but a stern demeanor, her flawless pale skin complemented by deep brown curls arranged in an intricate bun, her sharp and haughty gaze piercing through anyone she met, adorned in a deep red silk gown embellished with gemstones at the chest, a golden chain around her neck, and multiple rings on her fingers, her presence commanding and oppressive as she moved with swift elegance) believed Snow White to be dead. One day, she approached the magic mirror (an enormous ancient mirror with a surface smooth as water, framed in black marble intricately carved with complex patterns, emanating an aura of mystery, its voice deep and magnetic) and asked: "Magic mirror, magic mirror, who is the fairest in the land?"</t>
+          <t>花园全景，白雪公主与动物们嬉戏玩耍，远处可见国王(character features: 一位中年男子，面容端庄，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的佩剑，行走时步伐沉稳。)和王后透过窗户关注着她。</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>seven short-statured men, varying ages from twenty to fifty, different hair colors, some bearded others bald, detailed coarse cloth garments, various hats and scarves, heavy leather shoes, kind and simple personalities, beautiful detailed eyes, strong noses, beautiful detailed lips, long eyelashes, joyful expressions, wooden table filled with delicious food, warm lighting, cozy cabin interior, intricate patterns on walls, deep red silk gown, flawless pale skin, deep brown curls in an intricate bun, sharp haughty gaze, golden chain around neck, multiple rings on fingers, commanding presence, striking beauty, stern demeanor, enormous ancient mirror, smooth surface like water, black marble frame, complex carved patterns, mysterious aura, deep magnetic voice, Snow White theme, fairy tale style, rich details, cinematic quality, vibrant color tones, soft shadows, dynamic composition</t>
+          <t>In the panoramic view of the garden, Snow White was seen joyfully playing and interacting with the animals. In the distance, the king, a middle-aged man with a dignified appearance, clad in a splendid golden robe, wearing a gem-encrusted crown, and carrying an exquisite sword at his waist, walked with steady steps, and the queen were observing her through the window.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>七个小矮人从森林里回来后，就有可口的晚餐等着他们。 就这样日复一日，白雪公主和小矮人过着快乐的生活。 新王后以为白雪公主已经死了，有一天她又问魔镜说： “魔镜、魔镜，谁是世界上最美丽的人呢？”</t>
+          <t>one girl (Snow White), various animals, one middle-aged king, one queen  
+panoramic garden view filled with vibrant flowers and lush trees, sunny daylight lighting, joyful atmosphere, dynamic composition, ultra-detailed nature elements, HDR, UHD, sharp details, professional, bokeh, physically based rendering, vivid colors, (best quality,4k,8k,highres:1.3), aesthetic  
+BREAK  
+(Snow White), young girl with fair skin, long black hair in loose curls, red ribbon in hair, innocent expression, beautiful detailed eyes, long eyelashes, rosy cheeks, elegant white dress with blue accents, barefoot, surrounded by playful animals like deer, rabbits, and birds, interacting joyfully, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, sharp focus  
+BREAK  
+middle-aged king with a dignified appearance, splendid golden robe, gem-encrusted crown, detailed facial features, beautiful detailed eyes, realistic skin tones, sharp focus, ultra fine painting, carrying an exquisite sword at his waist, walking with steady steps, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+queen observing through the window, elegant posture, fair skin, slender figure, long flowing hair styled intricately, silk gown with intricate embroidery, pearl hair ornament, gentle maternal eyes, detailed facial features, beautiful detailed lips, realistic skin tones, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)回答王后说： “王后，你很美丽，可是白雪公主比你更美丽，她现在在森林中和七个小矮人(七个身材矮小的男性，年龄各异，从二十岁到五十岁不等，头发颜色各不相同，有的留胡子，有的光头，穿着各式各样的粗布衣服，有的戴帽子，有的围围巾，脚穿厚重的皮鞋，性格各异但都善良淳朴。)过着快乐幸福的生活。” 王后听了这个回答之后，才知道白雪公主并没有死，她感到很愤怒。</t>
+          <t>夜晚，白雪公主在城堡房间里，窗外星空闪烁，桌上放着一本打开的书，几只小动物安静地躺在地毯上。</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The ancient magic mirror, its surface as smooth as water and its frame intricately carved from black marble with a mysterious aura, responded to the queen in a deep, magnetic voice: "Queen, you are beautiful, yet Snow White is more beautiful than you. She is currently living happily and contentedly in the forest with the seven dwarfs, who are kind-hearted and simple despite their varying personalities. These dwarfs are short-statured men of different ages, ranging from twenty to fifty years old, with diverse hair colors, some bearded while others bald, dressed in coarse fabric clothing of various styles—some wearing hats, others scarves—all clad in heavy leather shoes." Upon hearing this reply, the queen realized that Snow White was still alive, and she felt an overwhelming surge of anger rising within her.</t>
+          <t>夜晚，白雪公主在城堡房间里，窗外星空闪烁，桌上放着一本打开的书，几只小动物安静地躺在地毯上。</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ancient magic mirror, smooth water-like surface, intricately carved black marble frame, mysterious aura, deep magnetic voice, beautiful queen with detailed facial features, elegant nose, sharp eyes, luxurious eyelashes, perfectly shaped lips, Snow White in the forest, seven dwarfs, kind-hearted and simple personalities, short-statured men of varying ages, diverse hair colors, beards and bald heads, coarse fabric clothing, different styles including hats and scarves, heavy leather shoes, lush green forest background, soft natural lighting, dark emotional tone, intricate details, cinematic quality, realistic style, dramatic contrast</t>
+          <t>At night, Snow White was in the castle's room where the starry sky twinkled outside the window. On the table rested an open book, while several small animals lay quietly on the carpet.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>魔镜回答王后说： “王后，你很美丽，可是白雪公主比你更美丽，她现在在森林中和七个小矮人过着快乐幸福的生活。” 王后听了这个回答之后，才知道白雪公主并没有死，她感到很愤怒。</t>
+          <t>one girl (Snow White), small animals, castle room setting, starry sky outside the window, open book on the table, quiet atmosphere, soft lighting, romantic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic
+BREAK
+(Snow White), beautiful young girl with pale skin, rosy cheeks, shiny black hair tied in a braid, delicate facial features, beautiful detailed eyes, long eyelashes, elegant nose, red lips, blue dress with golden edges, white apron, bare feet, sitting posture, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, sharp focus, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)
+BREAK
+small animals (rabbits, squirrels, birds), lying quietly on a carpet, fluffy fur, realistic textures, cute expressions, sharp details, natural colors, soft shadows, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)
+castle room interior, wooden furniture, stone walls with tapestries, large window showing a starry night sky, twinkling stars, open book resting on the table, pages slightly curled, warm candlelight illuminating the scene, cozy atmosphere, romantic and magical mood, soft bokeh effect, physically based rendering, ultra detailed, aesthetic, HDR, UHD, sharp details, professional</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>“真是可恶极了，一定要让白雪公主从世界上消失” 坏心肠的王后想到了一个办法，她在鲜红的苹果外面，涂上了她调配的毒药，准备去毒死白雪公主。 “嘿！ 嘿！ 白雪公主只要吃一口这个有毒的苹果，就一定会死去。</t>
+          <t>一个安静的城堡房间，白雪公主的母亲躺在床上，面容安详，周围笼罩着悲伤的气息。</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The evil queen, consumed by malice, devised a sinister plan to ensure that Snow White would vanish from the world forever. She carefully coated a bright red apple with a potent poison that she had crafted herself, intending to use it to kill Snow White. Confident in her scheme, the queen believed that as soon as Snow White took a single bite of the poisoned apple, she would undoubtedly meet her demise.</t>
+          <t>一个安静的城堡房间，白雪公主的母亲躺在床上，面容安详，周围笼罩着悲伤的气息。</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>evil queen, dark and menacing presence, sharp angular features, beautiful detailed eyes filled with malice, thin lips curled into a sinister smile, elegant yet cold nose, long black hair flowing over her shoulders, crimson red lips, wearing an intricate dark gown with gold embroidery, holding a bright red apple coated in shimmering poison, detailed realistic texture, gothic art style, deep dramatic shadows, rich color tones of red and black, dark atmospheric lighting, high fantasy realism, ultra-detailed portrait, 8k quality, cinematic composition, dramatic tension, intense focus on facial expression, lush background with dark forest elements, mysterious fog swirling around the scene</t>
+          <t>In a quiet castle chamber, the mother of Snow White lay on the bed with a peaceful expression on her face, while an atmosphere of sorrow enveloped the surroundings.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>“真是可恶极了，一定要让白雪公主从世界上消失” 坏心肠的王后想到了一个办法，她在鲜红的苹果外面，涂上了她调配的毒药，准备去毒死白雪公主。 “嘿！ 嘿！ 白雪公主只要吃一口这个有毒的苹果，就一定会死去。</t>
+          <t>one woman lying on a bed  
+quiet castle chamber, somber atmosphere, soft candlelight, dimly lit room, gothic architectural details, rich tapestries, dark wooden furniture, sorrowful mood, muted color tones, low-key lighting, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic
+BREAK
+(Snow White's mother), elegant noblewoman in her late twenties, lying peacefully on a bed, serene expression, pale fair skin, delicate features, beautiful detailed eyes closed gently, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid yet subdued colors, perfect lighting, gentle ambiance</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>到那个时候，我就是世界上最美丽的女人了。” 然后，王后就打扮成老太婆的模样，提着一篮苹果到森林里去了。 坏王后提着一篮苹果来到了小矮人的小木屋前。 “可爱的小姑娘，你要不要买一个又红又香的苹果呀！</t>
+          <t>城堡的大厅内，国王站在中央，身着正式礼服，面对一位穿着华丽的新王后。</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>By that time, the queen would become the most beautiful woman in the world. Then, the queen disguised herself as an old woman and went to the forest with a basket of apples. The evil queen arrived at the dwarfs' cottage with a basket of apples. She called out, "Dear little girl, would you like to buy a red and fragrant apple!"</t>
+          <t>城堡的大厅内，国王(character features: 一位中年男子，面容端庄，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的佩剑，行走时步伐沉稳。)站在中央，身着正式礼服，面对一位穿着华丽的新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)。</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>queen disguised as old woman, detailed wrinkled skin, beautiful yet sinister eyes, thin lips with a slight smirk, sharp nose, long eyelashes, wearing tattered cloak, carrying basket of red apples, dark forest background, wooden dwarfs cottage, mysterious atmosphere, realistic texture, cinematic lighting, deep shadows, vibrant red apples, gothic style, dark color tones, high detail, 8k quality, dramatic contrast</t>
+          <t>In the grand hall of the castle, the king, a middle-aged man with a dignified appearance, stood at the center. He was adorned in a splendid golden robe, a gem-encrusted crown upon his head, and a finely detailed sword hanging from his waist, his steps measured and steady as he moved. Before him stood the new queen, a woman of about forty, her beauty enhanced by pale skin and black curls that cascaded over her shoulders. She wore a deep red gown embroidered with golden dragon patterns, her fingers adorned with several gemstone rings, her gaze cold and haughty. She often accessorized with gold necklaces and earrings, completing her regal presence.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>到那个时候，我就是世界上最美丽的女人了。” 然后，王后就打扮成老太婆的模样，提着一篮苹果到森林里去了。 坏王后提着一篮苹果来到了小矮人的小木屋前。 “可爱的小姑娘，你要不要买一个又红又香的苹果呀！</t>
+          <t>one middle-aged king, one queen about forty, grand hall of the castle, marble floors with intricate patterns, tall stained glass windows allowing soft sunlight to filter in, regal banners hanging from the walls, golden chandeliers casting a warm glow, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+middle-aged king with a dignified appearance, splendid golden robe adorned with intricate embroidery, gem-encrusted crown, finely detailed sword at his waist, measured and steady posture, strong facial features, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+queen, woman in her forties, pale skin, black curls cascading over her shoulders, deep red gown embroidered with golden dragon patterns, gold necklaces and earrings enhancing her regal presence, fingers adorned with several gemstone rings, cold and haughty gaze, elegant yet commanding posture, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>我送一个给你吃吧，相信你一定会喜欢的。” 本来就很喜欢吃苹果的白雪公主，看到又红又大的苹果，便高兴地说： “哇！ 这红红的苹果多么的可爱呀！ 一定很好吃的。” 于是白雪公主就伸手接过那个苹果。</t>
+          <t>新王后的特写，她手持一根法杖，眼中闪烁着神秘的光芒，透露出骄傲和强势的性格。</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The queen offered her a bite of the apple, confident that she would surely enjoy it. Snow White, who was fond of apples to begin with, saw the red and large fruit and joyfully exclaimed, "Wow! This red apple is so adorable! It must taste wonderful." Consequently, Snow White reached out and accepted the apple from the queen.</t>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)的特写，她手持一根法杖，眼中闪烁着神秘的光芒，透露出骄傲和强势的性格。</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>queen, snow white, red apple, detailed queen's face, beautiful detailed eyes, elegant nose, delicate lips, long eyelashes, royal gown, intricate crown, lush garden background, vibrant flowers, sunny daylight, soft natural lighting, rich color tones, highly detailed textures, realistic style, cinematic quality, 8k resolution, enchanting atmosphere, fairy tale scene, joyful expression, extended hand offering apple, lifelike skin details, flowing hair, soft focus on main subjects, vivid red apple with shiny texture</t>
+          <t>The close-up of the new queen, a woman in her early forties with striking beauty, revealed her pale skin and black curly hair that cascaded over her shoulders. She wore a deep red robe embroidered with golden dragon patterns, and multiple gemstone rings adorned her fingers. Her eyes, cold and proud, glimmered with a mysterious light as she held a staff in her hand. Around her neck rested a gold necklace, matching the earrings that dangled from her ears, all reflecting an air of arrogance and authority.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>我送一个给你吃吧，相信你一定会喜欢的。” 本来就很喜欢吃苹果的白雪公主，看到又红又大的苹果，便高兴地说： “哇！ 这红红的苹果多么的可爱呀！ 一定很好吃的。” 于是白雪公主就伸手接过那个苹果。</t>
+          <t>one new queen in her early forties  
+close-up shot, pale skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklace, matching earrings, cold and proud eyes glimmering with a mysterious light, holding a staff, regal posture, studio lighting, sharp focus, vivid colors, photorealistic, ultra-detailed, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), HDR, UHD, physically-based rendering, striking beauty, elegant composition, professional
+BREAK  
+(new queen, woman in her early forties), pale skin, detailed facial features, beautiful detailed eyes, long eyelashes, cold and proud gaze, realistic skin tones, black curly hair cascading over shoulders, deep red robe with intricate golden dragon embroidery, multiple gemstone rings adorning fingers, gold necklace resting around neck, matching earrings dangling from ears, holding a staff, authoritative presence, (realistic,photorealistic:1.37), sharp focus, ultra-fine painting, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>结果，白雪公主才咬了一口，就马上倒在地上，昏死过去了。 坏心的王后看到她倒在地上，大笑着说：“哈！哈！ 白雪公主从此以后就从这个世界上消失了。”</t>
+          <t>城堡庭院中，新王后与国王并肩而行，她的表情冷峻，目光扫视周围的一切，充满占有欲。</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>As a result, as soon as the young princess Snow White took a bite of the poisoned apple, she immediately collapsed on the ground and fell into a death-like faint. Upon witnessing this scene, the evil queen, who was actually Snow White's wicked stepmother, let out a malicious laugh and exclaimed, "Ha! Ha! Now, my dear Snow White, you shall vanish from this world forever!"</t>
+          <t>城堡庭院中，新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)与国王(character features: 一位中年男子，面容端庄，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的佩剑，行走时步伐沉稳。)并肩而行，她的表情冷峻，目光扫视周围的一切，充满占有欲。</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Snow White, beautiful detailed eyes, delicate nose, soft lips, long eyelashes, pale skin, red apple fallen beside her, white dress with blue accents, golden crown, surrounded by dark forest, evil queen standing nearby, malicious smile, dark cape, dramatic lighting, deep shadows, gothic style, rich details, vibrant colors, cinematic quality, fantasy atmosphere, realistic textures, high resolution, intricate background, dramatic contrast</t>
+          <t>In the castle courtyard, the new queen, a woman of about forty with striking beauty, pale skin, and black curly hair cascading over her shoulders, walked alongside the king, her deep red robe embroidered with golden dragon patterns flowing gracefully, multiple gemstone rings adorning her fingers, her gaze cold and arrogant as it swept across the surroundings with an air of possession. The king, a middle-aged man with a dignified appearance, was dressed in splendid golden royal robes, a gem-encrusted crown on his head, and a finely crafted sword hanging from his waist, his steps steady and composed.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>结果，白雪公主才咬了一口，就马上倒在地上，昏死过去了。 坏心的王后看到她倒在地上，大笑着说：“哈！哈！ 白雪公主从此以后就从这个世界上消失了。”</t>
+          <t>one middle-aged king, one new queen about forty, castle courtyard, evening light casting long shadows, gothic architecture with intricate stonework, lush greenery framing the scene, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(new queen, woman in her forties), striking beauty, pale skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, cold and arrogant gaze, elegant posture, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting  
+BREAK  
+(middle-aged king, dignified appearance), splendid golden royal robes, gem-encrusted crown, finely crafted sword hanging from waist, steady and composed steps, strong jawline, intelligent eyes, detailed facial features, realistic skin tones, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>小矮人傍晚回家的时后，看到白雪公主躺在地上像死了一样，他们马上把她抬到床上，尽力的施救，可是白雪公主仍然没有醒过来。 小矮人们哭哭啼啼的把白雪公主，放在一个装满鲜花的玻璃棺材内，准备举行盛大的葬礼。</t>
+          <t>镜子前的新王后，她凝视镜中的自己，眼神中流露出强烈的嫉妒心和不安分的情绪。</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>In the evening, as the dwarfs returned home, they found Snow White lying on the ground as if she were dead. Immediately, they carried her to the bed and did their utmost to save her. However, Snow White remained unconscious despite their efforts. Overwhelmed with grief, the dwarfs placed Snow White into a glass coffin filled with flowers and made preparations for a grand funeral ceremony.</t>
+          <t>镜子前的新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)，她凝视镜中的自己，眼神中流露出强烈的嫉妒心和不安分的情绪。</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>dwarfs, Snow White, glass coffin, flowers, evening atmosphere, forest cabin, sad expressions, detailed dwarf faces, beautiful detailed eyes, delicate nose, soft lips, long eyelashes, realistic skin texture, wooden floor, candlelight illumination, warm golden tones, dark blue shadows, soft floral patterns, intricate carvings on the coffin, traditional dwarven clothing, distressed fabric textures, solemn ambiance, high detail, cinematic style, 8k quality, dramatic lighting, deep emotional contrast, lush greenery background, mystical fairy tale setting</t>
+          <t>The new queen, standing in front of the mirror, was a woman in her early forties with remarkable beauty. Her pale skin glowed under the light, and her black curled hair cascaded gracefully over her shoulders. She wore a deep crimson robe adorned with golden dragon patterns, and on her fingers were multiple gemstone rings that sparkled brilliantly. Her gaze, both stern and arrogant, often rested upon the gold necklaces and earrings she habitually wore. As she stared at her reflection, intense jealousy and restlessness flickered in her eyes.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>小矮人傍晚回家的时后，看到白雪公主躺在地上像死了一样，他们马上把她抬到床上，尽力的施救，可是白雪公主仍然没有醒过来。 小矮人们哭哭啼啼的把白雪公主，放在一个装满鲜花的玻璃棺材内，准备举行盛大的葬礼。</t>
+          <t>one woman in her early forties, standing in front of a large ornate mirror, luxurious royal bedroom setting, golden chandeliers casting soft warm light, deep crimson drapes, intricate wooden floors, regal atmosphere, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), (realistic,photorealistic:1.27), HDR, UHD, vivid colors, studio lighting
+BREAK  
+(new queen, woman in her early forties), pale glowing skin, black curled hair cascading gracefully over shoulders, deep crimson robe with golden dragon patterns, multiple gemstone rings sparkling on fingers, gold necklaces and earrings adorning her neck and ears, beautiful detailed eyes, long eyelashes, stern and arrogant gaze, intense jealousy and restlessness flickering in eyes, elegant yet commanding posture, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>这时，邻国的王子正好路过森林，看到了玻璃棺材里美丽可爱的公主，还有在旁哀悼的小矮人和小动物们。 王子知道事情的经过之后，含着泪水悲伤地的注视白雪公主说： “可怜的公主，如果你能复活的话，该有多好呀！”</t>
+          <t>一个富丽堂皇的宫殿房间，新王后站在一面巨大的魔镜前，神情专注。</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>At that moment, the prince from a neighboring kingdom happened to be passing through the forest. He came upon a glass coffin in which lay a beautiful and lovely princess. Around her were small dwarfs and little animals, all mourning her loss. Upon learning the details of the situation, the prince, with tears welling up in his eyes, gazed sorrowfully at Snow White and said, "Dear princess, how wonderful it would be if you could come back to life."</t>
+          <t>一个富丽堂皇的宫殿房间，新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)站在一面巨大的魔镜前，神情专注。</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>prince in a forest, wearing royal attire, detailed facial features, compassionate expression, tears in his eyes, elegant posture, beautiful detailed eyes, strong nose, soft lips, long eyelashes, extremely detailed face, glass coffin with princess inside, Snow White lying peacefully, delicate and lovely appearance, pale skin, rosy cheeks, gentle smile, surrounded by small dwarfs and forest animals, all dressed in medieval-style clothing, mourning atmosphere, lush green forest background, sunlight filtering through trees, magical ambiance, intricate textures on the prince's clothes, high-quality realistic rendering, cinematic lighting, warm yet somber color tones, rich details, emotional depth, romantic and fairy-tale style, 8k resolution, sharp focus, vibrant yet subdued colors</t>
+          <t>In a magnificent palace chamber, the new queen, a woman of about forty with stunning beauty, porcelain skin, and black curly hair cascading over her shoulders, stood before an enormous enchanted mirror. She was dressed in a deep crimson robe embroidered with golden dragon patterns, her fingers adorned with multiple gemstone rings, and her neck and ears embellished with gold necklaces and earrings. Her gaze was intense and focused, reflecting a cold arrogance.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>这时，邻国的王子正好路过森林，看到了玻璃棺材里美丽可爱的公主，还有在旁哀悼的小矮人和小动物们。 王子知道事情的经过之后，含着泪水悲伤地的注视白雪公主说： “可怜的公主，如果你能复活的话，该有多好呀！”</t>
+          <t>one new queen in her forties, magnificent palace chamber, enormous enchanted mirror, cold arrogance, intense gaze, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), studio lighting, vivid colors  
+BREAK  
+(new queen, woman in her forties), stunning beauty, porcelain skin, black curly hair cascading over shoulders, deep crimson robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklaces and earrings, beautiful detailed eyes, long eyelashes, realistic skin tones, cold arrogant expression, intense focused gaze, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>王子向白雪公主献上了花束，含情脉脉的地凝视着她说：“她的皮肤雪白，脸颊红润，好像睡着一般，根本不像死去的人。” 最后，王子情不自禁地俯身吻了她。 突然，白雪公主从口中吐出了吃进去的苹果。</t>
+          <t>魔镜表面泛着淡淡的光芒，反射出新王后的身影。</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The prince presented a bouquet of flowers to Snow White and gazed at her affectionately, saying, "Her skin is as white as snow, her cheeks are rosy, and she looks as if she is merely asleep, not at all like someone who has passed away." Overcome with emotion, the prince bent down and gently kissed her. Suddenly, Snow White expelled the piece of apple that had been lodged in her throat.</t>
+          <t>魔镜表面泛着淡淡的光芒，反射出新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)的身影。</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>prince, Snow White, bouquet of flowers, romantic scene, beautiful detailed eyes, delicate nose, soft lips, long eyelashes, extremely detailed face, white skin, rosy cheeks, gentle kiss, lifelike expression, realistic textures, high detail, cinematic lighting, warm tones, enchanting atmosphere, fairy tale style, magical ambiance, lush garden background, vibrant colors, 8k quality, photorealistic art style</t>
+          <t>The surface of the magical mirror emitted a faint glow, reflecting the figure of the new queen, a woman in her forties. She was beautiful, with pale skin and black curly hair that fell over her shoulders. She wore a deep red robe embroidered with golden dragon patterns, and on her fingers were multiple gemstone rings. Her eyes revealed a cold and arrogant gaze, and she often adorned herself with gold necklaces and earrings.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>王子向白雪公主献上了花束，含情脉脉的地凝视着她说：“她的皮肤雪白，脸颊红润，好像睡着一般，根本不像死去的人。” 最后，王子情不自禁地俯身吻了她。 突然，白雪公主从口中吐出了吃进去的苹果。</t>
+          <t>one woman in her forties, magical mirror emitting faint glow, reflection of the new queen, pale skin, black curly hair, deep red robe with golden dragon patterns, multiple gemstone rings, gold necklaces and earrings, cold and arrogant gaze, elegant posture, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), studio lighting
+BREAK
+(new queen, woman in her forties), beautiful detailed eyes, long eyelashes, pale skin, black curly hair falling over shoulders, deep red silk robe with intricate golden dragon embroidery, multiple gemstone rings on fingers, gold necklaces and earrings, cold and arrogant gaze, elegant posture, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic,photo-realistic:1.37), vivid colors, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>原来是王子对公主的爱，使毒苹果失去了效力，公主也逐渐恢复了体温，睁开明亮的双眼。 白雪公主苏醒了过来，好像是从长睡中醒来一般，她的脸颊和唇依旧是那么的红润。 “哇！ 你们看到了吧！ 白雪公主活过来了！</t>
+          <t>新王后的表情逐渐放松，似乎对魔镜的回答感到满意。</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>It was the prince's love for the princess that rendered the poisoned apple powerless, allowing her to gradually regain her body heat and open her bright eyes. Snow White awoke as if from a long slumber, her cheeks and lips still as rosy as ever. The onlookers exclaimed in amazement, witnessing the miraculous revival of Snow White.</t>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)的表情逐渐放松，似乎对魔镜的回答感到满意。</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>prince, princess, Snow White, romantic revival, bright eyes, rosy cheeks, detailed lips, long eyelashes, beautiful detailed face, powerless poisoned apple, miraculous awakening, onlookers in amazement, soft lighting, warm color tones, realistic texture, high detail, cinematic style, enchanting atmosphere, magical realism, classic fairy tale scene, lush forest background, golden sunlight, delicate lace dress, royal crown, elegant pose, natural skin tone, stunning hair, soft focus, vibrant colors, 8k quality</t>
+          <t>The expression on the face of the new queen, a woman of about forty with striking beauty, fair skin, and black curly hair that cascaded over her shoulders, gradually relaxed as she listened to the response from the magic mirror. She was dressed in a deep red robe embroidered with golden dragon patterns, adorned with multiple gemstone rings on her fingers, and wore a gold necklace and earrings that complemented her regal appearance. Her gaze, often cold and haughty, now seemed to soften, indicating her satisfaction with what she had heard.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>原来是王子对公主的爱，使毒苹果失去了效力，公主也逐渐恢复了体温，睁开明亮的双眼。 白雪公主苏醒了过来，好像是从长睡中醒来一般，她的脸颊和唇依旧是那么的红润。 “哇！ 你们看到了吧！ 白雪公主活过来了！</t>
+          <t>one new queen about forty  
+starry palace background, golden embellishments, flickering candlelights, opulent throne room setting, eyes focused on a magic mirror, regal ambiance, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(new queen, woman in her forties), striking beauty, fair skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklace and earrings, beautiful detailed eyes, long eyelashes, realistic skin tones, cold yet softening gaze, elegant posture, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>白雪公主复活了！” 小矮人们都雀跃不已，兴奋地叫着。 王子更是满心欢喜地说： “真是太好了！ 白雪公主重生了，上帝真的不会让我失望啊！” 连在旁的动物们也吱吱喳喳谈论不休。</t>
+          <t>魔镜的表面开始波动，形成新的影像，白雪公主的身影出现在其中。</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The dwarfs jumped for joy and called out excitedly as the news spread that Snow White had come back to life. The prince, overwhelmed with happiness, expressed his delight by saying, "This is truly wonderful! Snow White has been reborn, and God has indeed not let me down." Even the animals nearby joined in the celebration, chattering noisily among themselves about the miraculous event.</t>
+          <t>魔镜的表面开始波动，形成新的影像，白雪公主的身影出现在其中。</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>dwarfs celebrating, Snow White reborn, prince expressing happiness, joyful atmosphere, detailed dwarfs with happy expressions, beautiful detailed eyes, smiling lips, round noses, long eyelashes, vibrant forest setting, magical ambiance, colorful flowers blooming, sunlight filtering through trees, soft lighting, animals joining the celebration, birds chirping, squirrels and rabbits nearby, fairy tale style, whimsical artistic style, rich color tones, warm golden hues, high-quality detailed textures, enchanting scene, realistic yet fantastical elements, 8k resolution, ultra-detailed artwork</t>
+          <t>The surface of the magic mirror began to ripple, creating new images as it reflected the figure of Snow White emerging within its depths.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>白雪公主复活了！” 小矮人们都雀跃不已，兴奋地叫着。 王子更是满心欢喜地说： “真是太好了！ 白雪公主重生了，上帝真的不会让我失望啊！” 连在旁的动物们也吱吱喳喳谈论不休。</t>
+          <t>one magic mirror, one Snow White  
+magic mirror with a rippling surface, intricate golden frame adorned with gemstones, dark atmospheric background, mysterious mood, soft ambient lighting, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), studio lighting, vivid colors  
+BREAK  
+magic mirror, ornate golden frame, embedded with sapphires and rubies, rippling reflective surface, shimmering water-like texture, mysterious aura, dark surroundings, glowing edges, realistic reflections, sharp focus, (masterpiece:1.2), (realistic,photorealistic:1.37), vivid colors, perfect lighting  
+BREAK  
+(Snow White), young woman with porcelain skin, rosy cheeks, raven-black hair flowing down her back, elegant posture, beautiful detailed eyes, long eyelashes, delicate nose, full beautiful lips, wearing a traditional red, blue, and yellow dress, emerging from the depths of the mirror, ethereal glow, sharp focus, (best quality,4k,8k,highres:1.2), (realistic,photorealistic:1.37), vivid colors, studio lighting, extreme detail description</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>王子向白雪公主说明了他的来历之后，就握着公主的双手，温柔的说：“公主，你愿意和我一起回皇宫，做我的王妃吗？” 白雪公主羞怯地点头答应了。</t>
+          <t>新王后的脸色骤然阴沉，眼神中流露出愤怒和嫉妒。</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>After the prince had explained his origins to Snow White, he took her hands gently in his and tenderly asked: "Princess, would you be willing to return with me to the royal palace and become my queen?" Snow White, blushing with shyness, nodded her head and gave her consent.</t>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)的脸色骤然阴沉，眼神中流露出愤怒和嫉妒。</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>prince, Snow White, romantic moment, tender handholding, beautiful detailed eyes, delicate nose, soft lips, long eyelashes, extremely detailed faces, blush on cheeks, elegant royal attire, golden crown, intricate embroidery, lush forest background, magical atmosphere, twinkling lights, fairy tale style, soft lighting, warm color tones, high detail, cinematic quality, realistic art style</t>
+          <t>The face of the new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, suddenly turned dark. Her deep red robe, embroidered with golden dragon patterns, shimmered as she moved, and on her fingers were multiple gemstone rings. Her eyes, cold and filled with disdain, now revealed anger and jealousy. She often wore gold necklaces and earrings that accentuated her regal presence.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>王子向白雪公主说明了他的来历之后，就握着公主的双手，温柔的说：“公主，你愿意和我一起回皇宫，做我的王妃吗？” 白雪公主羞怯地点头答应了。</t>
+          <t>one middle-aged queen  
+stunning palace hall interior, dramatic lighting with shadows, golden decorations reflecting faint light, tense atmosphere, detailed textures of marble floors and ornate walls, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra-detailed, aesthetic  
+BREAK  
+(new queen, woman in her forties), striking beauty, pale skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, shimmering movement, multiple gemstone rings on fingers, cold eyes filled with disdain, anger, and jealousy, gold necklaces and earrings accentuating regal presence, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra-fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>小矮人和森林白雪公主和七个小矮人(七个身材矮小的男性，年龄各异，从二十岁到五十岁不等，头发颜色各不相同，有的留胡子，有的光头，穿着各式各样的粗布衣服，有的戴帽子，有的围围巾，脚穿厚重的皮鞋，性格各异但都善良淳朴。)的动物们，有的手舞足蹈，有的欢声歌唱，为王子和白雪公主歌颂庆贺。 “祝愿王子和公主，永远幸福快乐！”</t>
+          <t>新王后紧握双手，身体微微颤抖，目光锁定在魔镜中的白雪公主影像上。</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The dwarfs and the animals in the forest, along with Snow White and the seven dwarfs (seven short-statured men of varying ages ranging from twenty to fifty years old, with different hair colors, some bearded while others bald, dressed in various coarse cloth garments, some wearing hats and others scarves around their necks, all wearing heavy leather shoes, each possessing distinct personalities yet all kind-hearted and simple), celebrated joyfully. Some danced enthusiastically, while others sang cheerful songs in honor of the prince and Snow White. "May the prince and princess be blessed with eternal happiness and joy!" they chorused together.</t>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)紧握双手，身体微微颤抖，目光锁定在魔镜中的白雪公主影像上。</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>dwarfs, Snow White, enchanted forest, diverse animals, seven short men, varying ages, detailed facial features, kind-hearted expressions, simple personalities, coarse cloth garments, textured fabrics, hats, scarves, heavy leather shoes, distinct hair colors, bearded and bald, vibrant celebration, joyful dancing, cheerful singing, magical atmosphere, lush greenery, golden sunlight filtering through trees, soft moss-covered ground, intricate details, realistic textures, beautiful detailed eyes, expressive noses, charming lips, long eyelashes, warm color tones, natural lighting, cinematic quality, fantasy art style, rich composition, harmonious scene</t>
+          <t>The new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, stood gripping her hands tightly as her body trembled slightly. She was dressed in a deep red robe embroidered with golden dragon patterns, and adorned with multiple gemstone rings on her fingers, gold necklaces, and earrings that complemented her cold and arrogant gaze. Her eyes were fixed intently on the image of Snow White in the magic mirror.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>小矮人和森林白雪公主和七个小矮人的动物们，有的手舞足蹈，有的欢声歌唱，为王子和白雪公主歌颂庆贺。 “祝愿王子和公主，永远幸福快乐！”</t>
+          <t>one new queen about forty  
+starry palace background, dimly lit room with flickering candlelight, ornate golden mirror reflecting the image of Snow White, tense atmosphere, dramatic lighting, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(new queen, woman in her forties), striking beauty, pale skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklaces and earrings, cold and arrogant gaze, beautiful detailed eyes, long eyelashes, trembling body, tightly gripping hands, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>王子带着白雪公主，骑着白马向小矮人和森林里的动物们告别，他们一直回头向小矮人们挥手说再见： “小矮人们，感谢你们对我的照顾，我会永远记得你们的。” “祝你们幸福，再见！”</t>
+          <t>新王后坐在宫殿的宝座上，面无表情地对武士下达命令，武士恭敬地站在一旁听命。</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The prince took Snow White with him, rode a white horse, and bid farewell to the seven dwarfs and the animals in the forest. They kept looking back and waving their hands to say goodbye to the dwarfs: "Dear dwarfs, thank you for your care and protection. I will never forget you." The prince and Snow White then rode off into the distance as the dwarfs and animals called out, "Wish you happiness and safety! Goodbye!"</t>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)坐在宫殿的宝座上，面无表情地对武士(character features: 一位壮年男子，约三十岁，肤色偏深，短发整齐，身穿棕色皮革盔甲，外披灰色斗篷，腰间悬挂长剑，脚穿黑色皮靴，表情严肃而坚定。)下达命令，武士(character features: 一位壮年男子，约三十岁，肤色偏深，短发整齐，身穿棕色皮革盔甲，外披灰色斗篷，腰间悬挂长剑，脚穿黑色皮靴，表情严肃而坚定。)恭敬地站在一旁听命。</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>prince, Snow White, white horse, seven dwarfs, forest animals, waving goodbye, beautiful detailed eyes, delicate nose, charming lips, long eyelashes, elegant prince attire, stunning Snow White dress, lush green forest, golden sunlight, emotional farewell scene, soft natural lighting, vibrant colors, cinematic style, high detail, realistic texture, romantic atmosphere, distant horizon, heartfelt expressions, 4k quality, photorealistic art style</t>
+          <t>The new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, sat on the throne in the palace. She wore a deep red robe embroidered with golden dragon patterns, adorned her fingers with several gemstone rings, and often accessorized with gold necklaces and earrings. Her gaze was cold and arrogant as she gave orders to the warrior, a middle-aged man around thirty with a darker complexion, neatly cut short hair, and dressed in brown leather armor beneath a gray cloak. The warrior, who stood respectfully by her side, listened attentively while wearing a serious and determined expression, his longsword hanging at his waist and black boots upon his feet.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>王子带着白雪公主，骑着白马向小矮人和森林里的动物们告别，他们一直回头向小矮人们挥手说再见： “小矮人们，感谢你们对我的照顾，我会永远记得你们的。” “祝你们幸福，再见！”</t>
+          <t>one queen and one warrior in a palace setting, grand throne room with high arched windows, intricate marble floors, soft golden sunlight streaming through stained glass, regal banners hanging from the walls, dramatic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(new queen, woman in her forties), striking beauty, pale skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, adorned with gold necklaces and earrings, gemstone rings on fingers, cold and arrogant gaze, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting  
+BREAK  
+(warrior, middle-aged man in his thirties), darker complexion, neatly cut short hair, brown leather armor beneath gray cloak, black boots, longsword at waist, serious and determined expression, attentive listening posture, muscular build, strong jawline, beautiful detailed eyes, realistic skin tones, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>他们离开森林，回到邻国之后，马上受到全国人民的欢迎。 在人民的心目中，他们真是天生一对。 坏心的王后自从毒害了白雪公主之后，就以为白雪公主必死无疑，所以非常高兴。 有一天，她满怀自信地的问魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)：</t>
+          <t>武士带着白雪公主走进一片幽深的森林，白雪公主毫无防备地走在前面。</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>After they left the forest and returned to the neighboring kingdom, they were immediately welcomed by all the people of the nation. In the hearts of the citizens, the prince and Snow White were truly a perfect match. The wicked queen, after poisoning Snow White, had believed that Snow White was certainly dead and thus felt an immense sense of joy. One day, with unwavering confidence, she approached the magic mirror—a massive ancient mirror whose surface gleamed smooth as water, framed in black marble intricately carved with elaborate patterns, exuding an air of mystery—and asked it with a deep and magnetic voice:</t>
+          <t>武士(character features: 一位壮年男子，约三十岁，肤色偏深，短发整齐，身穿棕色皮革盔甲，外披灰色斗篷，腰间悬挂长剑，脚穿黑色皮靴，表情严肃而坚定。)带着白雪公主走进一片幽深的森林，白雪公主毫无防备地走在前面。</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>prince, Snow White, welcoming crowd in a kingdom, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, ancient magic mirror, black marble frame, intricate carvings, smooth surface like water, wicked queen, confident posture, mysterious atmosphere, golden sunlight, vibrant flags, cheerful celebration, gothic architectural style, rich textures, cinematic lighting, warm color tone, highly detailed illustration, realistic art style, 8k resolution, sharp focus, dynamic composition</t>
+          <t>The warrior, a robust man in his thirties with dark skin, short neat hair, and an expression of solemn determination, led Snow White into a deep and mysterious forest. He was clad in brown leather armor, draped in a gray cloak, and carried a long sword at his waist, while wearing black leather boots. Unaware of any potential danger, Snow White walked innocently ahead of him as they ventured further into the shadowy woods.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>他们离开森林，回到邻国之后，马上受到全国人民的欢迎。 在人民的心目中，他们真是天生一对。 坏心的王后自从毒害了白雪公主之后，就以为白雪公主必死无疑，所以非常高兴。 有一天，她满怀自信地的问魔镜：</t>
+          <t>one warrior and Snow White, deep and mysterious forest, shadowy woods, dim lighting, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+warrior, robust man in his thirties, dark skin, short neat hair, solemn determination expression, brown leather armor, gray cloak, long sword at waist, black leather boots, detailed muscular physique, beautiful detailed eyes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+Snow White, innocent young woman, pale skin, long black hair, red ribbon in hair, simple yet elegant dress, gentle facial features, beautiful detailed eyes, beautiful detailed lips, long eyelashes, unaware of danger, walking ahead, vivid colors, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>“魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)、魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)，现在世界上最美丽的人应该是我了吧！” 魔镜(一面巨大的古老镜子，表面光滑如水，边框由黑色大理石制成，雕刻着繁复的花纹，散发出神秘的气息，声音低沉而富有磁性。)回答说： “除了白雪公主以外，你是最美丽的人，但是，在邻国生活的白雪公主比你漂亮千万倍。” 王后听了觉得很奇怪，她想白雪公主不是被她害死了吗？</t>
+          <t>武士举起刀，犹豫不决，白雪公主背对着他，正在观察周围的树木和动物。</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The Queen stood before the Enchanted Mirror, a massive ancient artifact with a surface as smooth as water and a frame crafted from black marble, intricately carved with elaborate patterns that exuded an aura of mystery. Its voice was deep and magnetic. "Enchanted Mirror," she declared, "am I not now the fairest in the land?" The Enchanted Mirror responded, "You are indeed the fairest, my Queen, except for Snow White. She, who lives in the neighboring kingdom, surpasses you in beauty by a thousandfold." Upon hearing this, the Queen was filled with bewilderment. Hadn't Snow White been killed by her own hand?</t>
+          <t>武士(character features: 一位壮年男子，约三十岁，肤色偏深，短发整齐，身穿棕色皮革盔甲，外披灰色斗篷，腰间悬挂长剑，脚穿黑色皮靴，表情严肃而坚定。)举起刀，犹豫不决，白雪公主背对着他，正在观察周围的树木和动物。</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>queen standing before enchanted mirror, massive ancient artifact, surface smooth as water, frame crafted from black marble, intricate carvings exuding mystery, queen with elaborate crown, flowing gown, elegant posture, beautiful detailed eyes, long eyelashes, perfectly shaped nose, captivating lips, deep magnetic aura, enchanted mirror reflecting faint glow, ornate patterns glowing softly, dark atmospheric background, mysterious lighting, rich details, cinematic style, fantasy art, vibrant yet somber color tones, high-quality ultra-detailed artwork</t>
+          <t>The warrior, a sturdy middle-aged man around thirty with deep-toned skin and neatly cropped hair, stood clad in brown leather armor beneath a gray cloak. At his side hung a longsword, sheathed and ready, while black boots encased his feet. His expression was one of stern resolve as he hesitated, raising his blade. Before him, Snow White, her back turned, appeared absorbed in studying the trees and wildlife around her, seemingly unaware of the momentous decision hanging in the balance.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>“魔镜、魔镜，现在世界上最美丽的人应该是我了吧！” 魔镜回答说： “除了白雪公主以外，你是最美丽的人，但是，在邻国生活的白雪公主比你漂亮千万倍。” 王后听了觉得很奇怪，她想白雪公主不是被她害死了吗？</t>
+          <t>one middle-aged warrior, one Snow White, forest setting, sunlight filtering through trees, tense atmosphere, dramatic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+middle-aged warrior with deep-toned skin, neatly cropped hair, sturdy build, brown leather armor, gray cloak, black boots, longsword sheathed at his side, stern expression, resolved eyes, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(Snow White, young woman in her late teens), fair skin, long flowing black hair, elegant red and blue dress, delicate features, gentle demeanor, absorbed in studying nature, back turned, unaware of the tension, graceful posture, beautiful detailed eyes, soft lighting, vivid colors, studio lighting, perfect lighting</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>可是又想到白雪公主运气一向很好， “简直是气死人了，我就不相信不能杀掉白雪公主！” 王后原本就是个女巫，于是她骑着魔扫帚，带着魔剑，飞往邻国，准备去除掉她的眼中钉。</t>
+          <t>武士放下刀，转身离开白雪公主，脸上露出复杂的神情。</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The queen, however, reflected upon the fact that Snow White had always been extraordinarily fortunate, which infuriated her even more. "It is absolutely maddening! I refuse to believe that there isn't a way to eliminate Snow White!" Determined and fueled by her rage, the queen, who was also a powerful witch, mounted her enchanted broomstick, wielding a magical sword, and soared through the skies towards the neighboring kingdom, intent on eradicating the source of her resentment.</t>
+          <t>武士(character features: 一位壮年男子，约三十岁，肤色偏深，短发整齐，身穿棕色皮革盔甲，外披灰色斗篷，腰间悬挂长剑，脚穿黑色皮靴，表情严肃而坚定。)放下刀，转身离开白雪公主，脸上露出复杂的神情。</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>angry queen, detailed face with sharp features, piercing eyes filled with rage, thin lips curled in a snarl, elegant yet sinister nose, long black hair flowing in the wind, elaborate royal gown with dark colors, intricate patterns, magical aura surrounding her, enchanted broomstick beneath her feet, glowing magical sword held firmly in hand, stormy skies with dark clouds swirling around her, lightning illuminating the scene, dramatic lighting with deep shadows and bright highlights, rich textures on clothing and surroundings, cinematic composition, gothic fantasy style, dark color palette with hints of purple and red, high detail, realistic anatomy, dynamic pose showcasing determination and fury, 8k quality, photorealistic rendering, atmospheric depth, intense emotion conveyed through facial expression and body language</t>
+          <t>The samurai, a middle-aged man of about thirty with deep-toned skin and neatly cut short hair, wore brown leather armor beneath a gray cloak. At his side hung a longsword, and on his feet were black leather boots. His expression was one of stern determination as he sheathed his blade and turned away from Snow White, his face betraying a complex array of emotions.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>可是又想到白雪公主运气一向很好， “简直是气死人了，我就不相信不能杀掉白雪公主！” 王后原本就是个女巫，于是她骑着魔扫帚，带着魔剑，飞往邻国，准备去除掉她的眼中钉。</t>
+          <t>one middle-aged samurai  
+snow-covered forest at twilight, soft snowflakes falling gently, dimly lit by the last rays of sunlight filtering through dense pine trees, atmospheric fog lingering in the air, a sense of quiet tension and reflection, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), (realistic,photorealistic:1.37)  
+BREAK  
+middle-aged samurai with deep-toned skin, neatly cut short hair, brown leather armor beneath a gray cloak, black leather boots, longsword at his side, stern determined expression, complex emotions etched on his face, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, vivid colors, studio lighting, perfect lighting, (masterpiece:1.2)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>当她飞到邻国的上空时，突然一道闪电朝坏王后打来。 “劈！叭！” 一阵响声把女巫王后从扫帚上打下来。 女巫王后终于受到上帝的处罚，结束了作恶多端的生命。</t>
+          <t>武士在屠宰场中获取了一颗猪的心脏和舌头，用布包裹起来。</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>As she flew over the neighboring country, a sudden bolt of lightning struck the evil queen. The thunderous crack caused the witch queen to fall from her broomstick. Ultimately, the wicked queen was punished by God, and her life of malevolence came to an end.</t>
+          <t>武士(character features: 一位壮年男子，约三十岁，肤色偏深，短发整齐，身穿棕色皮革盔甲，外披灰色斗篷，腰间悬挂长剑，脚穿黑色皮靴，表情严肃而坚定。)在屠宰场中获取了一颗猪的心脏和舌头，用布包裹起来。</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>witch queen falling from broomstick, bolt of lightning striking her, dramatic thunderstorm background, dark clouds swirling, beautiful detailed eyes with fear, sharp nose with a sinister expression, lips curled in shock, long flowing hair, elaborate dark gown tearing apart, golden crown falling off, extreme detail on face and hands, realistic textures on skin and clothes, high-quality digital painting, cinematic lighting with lightning illuminating the scene, dark moody colors transitioning to bright white light, dynamic composition, photorealistic style mixed with fantasy elements, intense emotional moment, 8k resolution, highly detailed art</t>
+          <t>The warrior, a middle-aged man in his thirties with deep-toned skin and neatly cut short hair, was clad in brown leather armor beneath a gray cloak. At his side hung a longsword, and he wore black leather boots on his feet. His expression remained serious and resolute as he stood within the slaughterhouse. There, he carefully obtained a pig's heart and tongue, wrapping them securely in cloth before tucking the bundle away.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>当她飞到邻国的上空时，突然一道闪电朝坏王后打来。 “劈！叭！” 一阵响声把女巫王后从扫帚上打下来。 女巫王后终于受到上帝的处罚，结束了作恶多端的生命。</t>
+          <t>one middle-aged warrior  
+slaughterhouse interior, dimly lit by flickering oil lamps, raw meat hanging from hooks, blood-streaked wooden tables, rustic stone walls, earthy and gritty atmosphere, muted color palette, realistic lighting, sharp focus, ultra-detailed textures, professional composition, vivid colors, bokeh, physically based rendering, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+middle-aged warrior in his thirties, deep-toned skin, neatly cut short hair, brown leather armor under a gray cloak, black leather boots, longsword at his side, serious and resolute expression, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, dynamic posture, (realistic,photorealistic:1.37), studio lighting, perfect lighting, HDR, UHD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>此时，王子的国家却举国欢腾，因为美丽的白雪公主答应了王子的求婚，正在举行盛大的婚礼。 小矮人和森林的动物们也被邀请来参加婚礼，在全国人民的祝福声中，王子和白雪公主将永远快乐的生活在一起。</t>
+          <t>武士回到宫殿，将包裹着猪的心脏和舌头的布呈递给新王后，新王后仔细查看。</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>At this moment, the prince's kingdom was filled with jubilation, as the beautiful Snow White had accepted the prince's proposal, and a grand wedding ceremony was being held. The seven dwarfs and the animals from the forest were also invited to attend the wedding. With the blessings of all the citizens, the prince and Snow White exchanged vows, and from that day on, they would live together in everlasting happiness.</t>
+          <t>武士(character features: 一位壮年男子，约三十岁，肤色偏深，短发整齐，身穿棕色皮革盔甲，外披灰色斗篷，腰间悬挂长剑，脚穿黑色皮靴，表情严肃而坚定。)回到宫殿，将包裹着猪的心脏和舌头的布呈递给新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)，新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)仔细查看。</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Snow White, prince, grand wedding ceremony, beautiful detailed eyes, delicate nose, elegant lips, long eyelashes, white dress, royal blue cape, golden crown, jubilant kingdom, seven dwarfs, forest animals, red carpet, floral decorations, sparkling jewels, enchanting atmosphere, fairy tale style, soft lighting, warm color tone, highly detailed, cinematic quality, romantic vibes, magical setting, celebration scene, classic art style, vibrant colors</t>
+          <t>The warrior, a robust man in his thirties with slightly dark skin and neatly trimmed short hair, wearing brown leather armor covered by a gray cloak, carrying a longsword at his waist and black boots on his feet, and bearing a solemn and resolute expression, returned to the palace. He then respectfully presented a cloth bundle containing a pig's heart and tongue to the new queen, a beautiful woman in her forties with pale skin and black curly hair that cascaded over her shoulders, adorned in a deep red robe embroidered with golden dragon patterns, her fingers embellished with several gemstone rings, her eyes displaying a cold and arrogant gaze, and habitually wearing gold necklaces and earrings. The new queen carefully examined the contents of the bundle.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>此时，王子的国家却举国欢腾，因为美丽的白雪公主答应了王子的求婚，正在举行盛大的婚礼。 小矮人和森林的动物们也被邀请来参加婚礼，在全国人民的祝福声中，王子和白雪公主将永远快乐的生活在一起。</t>
+          <t>two characters: a warrior and a queen  
+palace interior setting, grand hall with marble floors and towering columns, dimly lit by golden candlelight, ornate chandeliers casting soft shadows, regal atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+warrior, robust man in his thirties, slightly dark skin, neatly trimmed short hair, brown leather armor covered by a gray cloak, black boots, longsword at waist, solemn and resolute expression, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting  
+BREAK  
+queen, beautiful woman in her forties, pale skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, gemstone rings on fingers, gold necklaces and earrings, cold and arrogant gaze, elegant posture, gentle maternal eyes, realistic skin tones, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>白雪公主独自站在森林中，周围树木茂密，光线昏暗，表现出环境的阴森和她的害怕。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>白雪公主独自站在森林中，周围树木茂密，光线昏暗，表现出环境的阴森和她的害怕。</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Amidst the dense forest, Snow White stood alone, surrounded by towering trees that loomed over her, casting long shadows in the dim light. The eerie atmosphere of the woods was palpable, and her trembling figure clearly revealed her growing fear as she gazed uncertainly into the darkening surroundings.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>one girl  
+dense forest, towering trees, long shadows, dim light, eerie atmosphere, darkening surroundings, trembling figure, growing fear, uncertain gaze, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), (realistic,photorealistic:1.37)  
+BREAK  
+Snow White, young girl with fair skin, delicate features, beautiful detailed eyes filled with fear, trembling lips, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, red hooded cloak, white dress with blue accents, slender hands clasped together, elegant yet vulnerable posture, vivid colors, perfect lighting, studio lighting, (masterpiece:1.2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>白雪公主在森林中行走，远处出现一座小木屋，木屋被树木环绕，显得温馨而隐蔽。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>白雪公主在森林中行走，远处出现一座小木屋，木屋被树木环绕，显得温馨而隐蔽。</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>As Snow White walked through the forest, she noticed a quaint little cottage appearing in the distance. The cottage, surrounded by dense trees, looked warm and secluded, offering a perfect sanctuary amidst the wilderness.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>one girl  
+quaint little cottage surrounded by dense trees, warm and secluded atmosphere, forest setting, soft sunlight filtering through the leaves, vibrant greenery, wooden fence around the cottage, rustic wooden door slightly ajar, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White), young girl with fair skin, rosy cheeks, long black hair tied in braids, red ribbon in her hair, innocent expression, beautiful detailed eyes, long eyelashes, delicate nose, elegant posture, wearing a traditional blue and white dress with golden accents, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>白雪公主靠近小木屋，伸手推开木屋的门，门发出轻微的吱呀声。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>白雪公主靠近小木屋，伸手推开木屋的门，门发出轻微的吱呀声。</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>As Snow White approached the small wooden cabin, she gently extended her hand to push the door of the cabin open, causing it to emit a slight creaking sound.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>one girl (Snow White)  
+small wooden cabin, forest background, moss-covered logs, soft sunlight filtering through trees, autumn leaves scattered on the ground, gentle breeze causing door to creak slightly, rustic and serene atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, vivid colors, studio lighting, perfect lighting, aesthetic  
+BREAK  
+(Snow White), young girl with porcelain skin, rosy cheeks, raven-black hair tied in loose curls, red lips, beautiful detailed eyes with curiosity, long eyelashes, delicate nose, slender fingers extending towards cabin door, intricate blue dress adorned with gold embroidery, golden necklace gleaming softly under sunlight, bare feet peeking out from beneath skirt hem, graceful yet adventurous posture, (realistic,photorealistic:1.37), vivid colors, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>白雪公主进入小木屋内部，室内布置简单但整洁，有七张整齐排列的小床。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>白雪公主进入小木屋内部，室内布置简单但整洁，有七张整齐排列的小床。</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>As Snow White entered the interior of the small wooden cabin, she found that the room was simply yet neatly arranged. Inside, there were seven little beds tidily placed in a row, each one looking comfortable and well-kept.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>one girl in a wooden cabin, seven little beds arranged neatly, cozy and warm interior, soft lighting, fairy tale atmosphere, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic
+BREAK
+(Snow White), beautiful detailed eyes, long eyelashes, gentle facial features, fair skin, red lips, black hair with a ribbon, elegant yet simple dress, delicate hands, (realistic,photorealistic:1.37), vivid colors, perfect lighting, sharp focus, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>白雪公主走向其中一张小床，身体疲惫地躺下，逐渐闭上眼睛入睡。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>白雪公主走向其中一张小床，身体疲惫地躺下，逐渐闭上眼睛入睡。</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The princess, whose name was Snow White, approached one of the small beds, and with a body weary from her long and arduous journey, she laid down gently upon it. As her eyes slowly closed, she drifted into a deep slumber.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>one princess  
+small cottage interior, cozy wooden room, seven small beds arranged neatly, soft evening light filtering through the window, tranquil atmosphere, warm color tones, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(princess, Snow White), fair skin, rosy cheeks, long black hair flowing over her shoulders, delicate facial features, beautiful detailed eyes (closed in slumber), long eyelashes, soft red lips, elegant posture while sleeping, intricate embroidered gown in blue and white, golden accessories adorning her dress, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>小矮人们的房屋内部，门缓缓被推开，小矮人们一个接一个地走进房间。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>小矮人们的房屋内部，门缓缓被推开，小矮人们一个接一个地走进房间。</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The interior of the dwarves' house was revealed as the door was slowly pushed open, and then the dwarves entered the room one by one in an orderly manner.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>three dwarves  
+dwarven house interior, wooden beams, stone walls, dimly lit by warm firelight, cozy atmosphere, detailed craftsmanship in furniture, cluttered yet organized space, tools and mining gear hanging on walls, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(dwarf, male), short stature, broad shoulders, thick beard with intricate braids, friendly expression, beautifully detailed eyes, long eyelashes, realistic skin tones, earthy color palette, sturdy leather armor, axe slung over back, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),  
+BREAK  
+(dwarf, male), slightly younger appearance, shorter beard, curious gaze, holding a lantern that emits soft golden light, detailed facial features, beautiful detailed eyes, rugged yet charming look, vibrant yet muted colors, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting  
+BREAK  
+(dwarf, male), oldest of the group, wisest demeanor, longest and most intricately decorated beard, wearing a simple but well-worn cloak, carrying a staff carved from ancient wood, wise and kind eyes, gentle smile, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>小矮人们围坐在桌旁，看到白雪公主坐在椅子上，脸上带着疲惫的神情。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>小矮人们围坐在桌旁，看到白雪公主坐在椅子上，脸上带着疲惫的神情。</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>The dwarfs gathered around the table and observed Snow White sitting on the chair with a look of exhaustion on her face.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>seven dwarfs, one girl (Snow White), wooden table in a cozy cabin, warm lighting, evening atmosphere, soft shadows, rustic wooden furniture, detailed textures,动态 composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), vivid colors, studio lighting  
+BREAK  
+(Snow White, tired expression, delicate facial features, beautiful detailed eyes, long eyelashes, pale skin, flowing golden hair, elegant white dress with blue accents, gentle posture, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37))  
+BREAK  
+(dwarf 1, bearded man, rugged appearance, detailed facial features, worn clothing, curious expression, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37))  
+BREAK  
+(dwarf 2, shorter dwarf, round face, friendly expression, colorful outfit, intricate textures, detailed hands, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37))  
+BREAK  
+(dwarf 3, bald head, thick eyebrows, concerned look, earthy tones clothing, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37))  
+BREAK  
+(dwarf 4, older dwarf, long beard, wise eyes, dark green cloak, intricate embroidery, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37))  
+BREAK  
+(dwarf 5, cheerful dwarf, smiling face, red cap, bright yellow shirt, vibrant colors, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37))  
+BREAK  
+(dwarf 6, stout figure, crossed arms, serious expression, brown leather vest, metal buttons, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37))  
+BREAK  
+(dwarf 7, young-looking dwarf, playful grin, orange scarf, messy hair, dynamic pose, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37))</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>白雪公主低着头讲述自己的遭遇，小矮人们表情逐渐变得严肃和同情。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>白雪公主低着头讲述自己的遭遇，小矮人们表情逐渐变得严肃和同情。</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>As Snow White hung her head and recounted her misfortunes, the seven dwarfs listened attentively, their expressions gradually shifting from curiosity to seriousness and empathy.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>one girl and seven dwarfs, enchanted forest setting, soft twilight lighting, mystical atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White, young girl with fair skin, delicate features, long black hair, elegant dress with intricate embroidery, beautiful detailed eyes, long eyelashes, expressive face showing sadness, sharp focus, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting)  
+BREAK  
+(seven dwarfs, each uniquely dressed and styled, varied facial expressions from curiosity to empathy, detailed beards, realistic textures, vibrant clothing, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3))</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>小矮人们互相交换眼神，点头示意彼此达成共识。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>小矮人们互相交换眼神，点头示意彼此达成共识。</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>The little dwarves exchanged glances with each other and nodded in agreement, silently communicating and confirming their mutual understanding.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>three little dwarves  
+cozy underground cavern, softly glowing crystal formations, dimly lit by flickering torches, rustic wooden furniture, a sense of camaraderie and trust in the air, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+little dwarf with a sturdy build, round face with freckles, twinkling eyes filled with wisdom, neatly trimmed beard, wearing a brown leather vest and boots, holding a small hammer in hand, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+second little dwarf with a slightly mischievous grin, curly red hair peeking out from under a woolen cap, rosy cheeks, wearing a green tunic with patches, carrying a lantern over one shoulder, gentle demeanor, elegant posture, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting  
+BREAK  
+third little dwarf with a thoughtful expression, bald head with visible scars, broad nose, wearing a simple gray cloak with frayed edges, clutching a scroll tightly in both hands, detailed facial features, beautiful detailed lips, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>小矮人中的一个站起来，指向白雪公主，做出邀请她留下的手势。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>小矮人中的一个站起来，指向白雪公主，做出邀请她留下的手势。</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>One of the dwarfs stood up, pointed at Snow White, and gestured for her to stay.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>one dwarf, one Snow White  
+dwarf standing up, pointing at Snow White, gesturing for her to stay, magical forest setting, lush greenery, dappled sunlight filtering through trees, enchanting atmosphere, fairy tale style, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(dwarf, male), stout figure, bearded face, furrowed brow, determined expression, rugged clothing made of coarse fabric, leather boots, strong hands gesturing, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting  
+BREAK  
+(Snow White, young woman), fair skin, delicate features, long black hair, elegant dress with intricate embroidery, timid yet curious expression, gentle posture, beautiful detailed eyes, beautiful detailed lips, extremely detailed eyes and face, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>白雪公主露出感激的笑容，轻轻鞠躬表示愿意留下并帮助他们。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>白雪公主露出感激的笑容，轻轻鞠躬表示愿意留下并帮助他们。</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Snow White, with a grateful smile on her face, gracefully bowed her head, expressing her willingness to stay and assist them.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>one girl  
+snow covered forest, wooden cottage in the background, winter atmosphere, soft snowflakes falling, warm golden lighting, grateful expression, bowing gesture, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), (realistic,photorealistic:1.37)  
+BREAK  
+(Snow White), beautiful young girl, pale skin with rosy cheeks, long black hair flowing over her shoulders, red hooded cloak with white fur trim, graceful posture, delicate hands folded in front, head bowed slightly, grateful smile on her face, beautiful detailed eyes, long eyelashes, elegant nose, small beautiful detailed lips, realistic skin tones, sharp focus, ultra fine painting, vivid colors, studio lighting, perfect lighting, (masterpiece:1.2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>白雪公主站在厨房里，拿起扫帚和清洁工具，准备开始做家务。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>白雪公主站在厨房里，拿起扫帚和清洁工具，准备开始做家务。</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>In the kitchen, Snow White stood up and picked up the broom and cleaning supplies, ready to start doing housework.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>one girl  
+kitchen setting, wooden floor, sunlight streaming through the window, clean and tidy environment, soft warm lighting, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White), young girl with fair skin, long black hair tied in a neat braid, red ribbon in hair, innocent round face, beautiful detailed eyes, long eyelashes, gentle smile, wearing a blue and white dress with apron, holding a broom and cleaning supplies, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>小矮人们继续自己的日常活动，而白雪公主在背景中忙碌地打扫房间。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>小矮人们继续自己的日常活动，而白雪公主在背景中忙碌地打扫房间。</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The dwarfs continued with their daily routines, bustling about with various tasks, while Snow White, in the background, was diligently cleaning the room, ensuring every corner was tidy and spotless.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>seven dwarfs, Snow White, bustling daily routines, various tasks, cleaning the room, tidy and spotless, cozy cottage interior, wooden furniture, soft sunlight streaming through windows, vibrant colors, detailed textures, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic
+BREAK
+(Snow White, young princess), fair skin, rosy cheeks, delicate facial features, beautiful detailed eyes, long eyelashes, elegant posture, red bow in hair, blue and white dress with apron, meticulous cleaning motions, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK
+(dwarf, worker), short stature, rugged appearance, detailed beards, strong hands holding tools, focused expression, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK
+(dwarf, miner), short stature, rugged appearance, detailed beards, strong hands holding pickaxe, focused expression, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK
+(dwarf, cook), short stature, rounded figure, detailed beards, wearing apron, holding cooking utensils, cheerful smile, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK
+(dwarf, gardener), short stature, detailed beards, wearing gardening gloves, holding watering can, gentle demeanor, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK
+(dwarf, woodcutter), short stature, detailed beards, strong arms, holding axe, determined expression, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK
+(dwarf, craftsman), short stature, detailed beards, working on intricate designs, focused expression, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>新王后站在城堡的窗户旁，手中拿着一瓶毒药，表情愤怒且坚定。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)站在城堡的窗户旁，手中拿着一瓶毒药，表情愤怒且坚定。</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>The new queen, a woman of about forty with striking beauty, stood by the window in the castle, her pale skin contrasting sharply with her deep red robe embroidered with golden dragon patterns. Her black curled hair cascaded over her shoulders, and multiple gemstone rings adorned her fingers. With a cold and arrogant gaze, she often wore gold necklaces and earrings. In her hand, she tightly clutched a vial of poison, her expression a mix of fury and resolute determination.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>one woman in her forties, new queen, standing by a castle window, deep red robe embroidered with golden dragon patterns, pale skin, black curled hair, multiple gemstone rings, gold necklaces and earrings, vial of poison in hand, cold and arrogant gaze, mix of fury and determination, sharp contrast between pale skin and deep red robe, intricate embroidery details, realistic skin tones, ultra-detailed, (best quality,4k,8k,highres:1.3), (realistic,photorealistic,photo-realistic:1.37), HDR, UHD, studio lighting, perfect lighting, vivid colors, sharp focus, physically based rendering, aesthetic
+BREAK
+(new queen, woman in her forties), striking beauty, pale skin, deep red robe embroidered with golden dragon patterns, black curled hair cascading over shoulders, multiple gemstone rings on fingers, gold necklaces and earrings, beautiful detailed eyes, long eyelashes, cold and arrogant gaze, expression of fury and resolute determination, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, professional, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>桌上有一个新鲜的苹果，毒药瓶靠近苹果，几滴液体正从瓶口滴落。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>桌上有一个新鲜的苹果，毒药瓶靠近苹果，几滴液体正从瓶口滴落。</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>On the table, there was a fresh apple placed near a poison bottle, with a few drops of liquid dripping slowly from the bottle's mouth onto the apple.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>a beautiful still life scene with an eerie atmosphere, a wooden table under dim lighting, a fresh red apple placed near a poison bottle, liquid dripping slowly from the bottle's mouth onto the apple, dark moody background, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), realistic lighting, dramatic shadows, vivid colors
+BREAK
+(fresh red apple), shiny surface, perfectly ripe, detailed texture, droplets of liquid forming on its skin, hyper-realistic, photorealistic, (masterpiece:1.2), studio lighting, sharp focus, extreme detail description, professional, vivid colors
+BREAK
+(poison bottle), antique glass design, intricate patterns etched into the glass, few drops of liquid slowly dripping from the mouth, menacing aura, dark liquid inside, hyper-realistic, photorealistic, (realistic,photorealistic:1.37), perfect lighting, sharp focus, extreme detail description, professional</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>新王后用手指蘸取毒药，仔细地涂抹在苹果的一侧，动作谨慎而专注。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)用手指蘸取毒药，仔细地涂抹在苹果的一侧，动作谨慎而专注。</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>The new queen, a woman of about forty with striking beauty, pale skin, and black curled hair that cascaded over her shoulders, was dressed in a deep crimson robe embroidered with golden dragon patterns. Adorned with multiple gemstone rings on her fingers, a stern and haughty gaze in her eyes, as well as gold necklaces and earrings, she carefully dipped her fingertips into the poison and meticulously applied it to one side of the apple with cautious precision.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>one middle-aged queen  
+stunning royal chamber, dimly lit by golden candlelight, rich velvet drapes framing the scene, intricate marble floors reflecting soft light, dramatic tension in the air, photorealistic textures, sharp focus on details, HDR lighting, UHD quality, vivid colors, physically-based rendering, ultra-detailed craftsmanship, aesthetic masterpiece
+BREAK  
+(middle-aged queen), striking beauty, pale skin, black curled hair cascading over shoulders, deep crimson robe with golden dragon embroidery, multiple gemstone rings adorning fingers, gold necklaces and earrings enhancing her regal appearance, stern and haughty gaze, beautiful detailed eyes with long eyelashes, realistic skin tones, sharp focus, ultra-fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting, meticulous attention to detail  
+BREAK  
+(poisoned apple), red glossy surface, one side delicately coated with translucent poison, intricate texture visible under golden candlelight, ultra-realistic depiction, sharp focus, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>涂满毒药的苹果完整地摆放在桌上，表面反射出一丝诡异的光泽。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>涂满毒药的苹果完整地摆放在桌上，表面反射出一丝诡异的光泽。</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The apple, coated with poison, was placed intact on the table, its surface reflecting a strange gleam.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{A single apple on a wooden table, eerie atmosphere, dimly lit room, reflective surface of the apple, subtle poison droplets visible, gothic style, dark moody colors, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic}  
+BREAK  
+(apple, coated with poison, realistic texture, hyper-detailed skin, strange gleam reflection, toxic droplets, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), HDR, UHD, sharp focus, vivid colors, studio lighting)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>新王后将苹果握在手中，转身准备离开房间，她的表情充满阴谋与决心。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)将苹果握在手中，转身准备离开房间，她的表情充满阴谋与决心。</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, stood there wearing a deep crimson robe embroidered with golden dragon patterns. Adorned with multiple gemstone rings on her fingers, gold necklaces, and earrings, she exuded an air of cold arrogance. Clutching the apple tightly in her hand, she turned around with a purposeful stride to leave the room, her expression revealing a cunning plot and unwavering determination.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>one middle-aged queen  
+stunning royal chamber with rich velvet drapes, intricate marble flooring, and golden chandeliers casting soft, warm lighting, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(new queen, woman in her forties), striking beauty, pale skin, black curly hair cascading over shoulders, deep crimson robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklaces, earrings, cold arrogance, beautiful detailed eyes revealing cunning plot and unwavering determination, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>新王后穿着老太婆的服装，手持一个红润的毒苹果，站在白雪公主的房间门口。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)穿着老太婆的服装，手持一个红润的毒苹果，站在白雪公主的房间门口。</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>The new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, was dressed in a deep red robe embroidered with golden dragon patterns. She wore multiple gemstone rings on her fingers, and her eyes carried a cold and haughty gaze. Often adorned with gold necklaces and earrings, she now stood at the entrance to Snow White's room, disguised in an old woman's clothing. In her hand, she held a lustrous red poisoned apple.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>one middle-aged queen  
+a dark and ominous castle corridor, flickering torchlight casting long shadows, the air filled with an eerie silence, baroque architectural details, Snow White’s ornate door at the end of the corridor, deep reds and golds dominating the color palette, dramatic lighting emphasizing contrasts, ultra-detailed textures, HDR, UHD, sharp focus, professional, bokeh, physically based rendering, vivid colors, dynamic composition, aesthetic  
+BREAK  
+middle-aged queen in her forties, striking beauty, pale skin, black curly hair cascading over her shoulders, cold and haughty eyes, beautiful detailed eyes with a piercing gaze, long eyelashes, realistic skin tones, sharp focus, deep red robe embroidered with golden dragon patterns, intricate embroidery, multiple gemstone rings adorning her fingers, gold necklaces and earrings adding to her regal appearance, elegant yet imposing posture, (realistic,photorealistic:1.37), ultra-fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+old woman disguise, wrinkled face with subtle makeup for realism, grayish-brown cloak covering her luxurious attire, weathered hands holding a lustrous red poisoned apple, detailed texture on the apple's glossy surface reflecting faint candlelight, slight crows' feet around her disguised eyes, (realistic,photorealistic:1.37), vivid colors, perfect lighting, sharp details, professional, ultra-detailed depiction, studio lighting, bokeh effect</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>毒苹果被放置在白雪公主面前的小桌上，新王后以老太婆的形象微微躬身等待。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>毒苹果被放置在白雪公主面前的小桌上，新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)以老太婆的形象微微躬身等待。</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>The poisoned apple was placed on a small table in front of Snow White, and the new queen, who was a woman in her forties with stunning beauty, fair skin, and black curly hair that fell over her shoulders, stood there in a deep red robe embroidered with golden dragon patterns. Adorned with multiple gemstone rings on her fingers, a cold and arrogant gaze in her eyes, and often wearing gold necklaces and earrings, she now disguised herself as an old woman, slightly bowing her body as she waited patiently.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>one Snow White, one new queen in disguise as an old woman, dark forest background with a small wooden table, poisoned apple on the table, dim lighting, eerie atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White, innocent young girl), fair skin, long black hair, red ribbon tied neatly, delicate facial features, beautiful detailed eyes, long eyelashes, elegant posture, wearing traditional Snow White dress (blue and white dress with golden accents), (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (best quality,4k,8k,highres:1.2)  
+BREAK  
+(new queen disguised as an old woman, woman in her forties), stunning beauty, fair skin, black curly hair falling over shoulders, deep red robe embroidered with golden dragon patterns, adorned with multiple gemstone rings, gold necklaces, and earrings, cold arrogant gaze, slightly bowed body posture, realistic skin tones showing subtle aging effects for disguise, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>白雪公主伸出手指触碰毒苹果，表情带着一丝犹豫。</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>白雪公主伸出手指触碰毒苹果，表情带着一丝犹豫。</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Snow White hesitantly extended her delicate finger to gently touch the enticing, poisoned apple, her expression revealing a hint of uncertainty.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>one young girl  
+mysterious ancient forest, dimly lit by dappled moonlight filtering through the dense canopy, eerie silence with a subtle breeze rustling leaves, gothic atmosphere, deep shadows contrasting with soft glimmers of light, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White), innocent young princess, pale porcelain skin, rosy cheeks, delicate facial features, long raven-black hair tied in loose curls, red ribbon adorned with gold embroidery, elegant yet modest dress in shades of blue and white, beautiful detailed eyes revealing uncertainty, slightly furrowed brow, pursed lips expressing hesitation, slender hand extending toward an enticing poisoned apple, lifelike textures, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>白雪公主将毒苹果举到嘴边，正准备咬下一口。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>白雪公主将毒苹果举到嘴边，正准备咬下一口。</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>The young princess, Snow White, lifted the poisoned apple to her lips, just about to take a bite.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>one young princess  
+poisoned apple, lips, just about to take a bite, forest clearing, dark and eerie atmosphere, gothic style, deep shadows, dramatic lighting, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), (realistic,photorealistic:1.37)  
+BREAK  
+(Snow White, young princess), innocent expression, pale skin, rosy cheeks, beautiful detailed eyes, long eyelashes, delicate nose, soft pink lips, black long hair tied with a red ribbon, elegant yet simple dress, slender hands holding a poisoned apple, lifelike textures, realistic skin tones, sharp focus, vivid colors, perfect lighting, studio lighting, extreme detail description, professional, (masterpiece:1.2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>白雪公主已经咬了一口毒苹果，她的表情瞬间变得痛苦不堪。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>白雪公主已经咬了一口毒苹果，她的表情瞬间变得痛苦不堪。</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The queen observed as Snow White took a bite of the poisoned apple, and her expression immediately contorted with unbearable agony.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>one queen, one girl (Snow White), dark and ominous forest setting, gothic castle in the background, dimly lit by flickering torches, tense and dramatic mood, sharp focus, vivid colors, HDR, UHD, dynamic composition, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(queen, woman in her forties), regal appearance, elegant but sinister demeanor, intricate golden crown, deep red velvet gown with black lace, sharp angular features, piercing eyes filled with anguish and malice, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(Snow White, young girl in her teens), innocent expression, pale skin contrasting against vibrant red lips, flowing black hair, iconic blue and red dress with white collar, delicate hands holding a bitten poisoned apple, subtle signs of distress on her face, beautiful detailed eyes, long lashes, soft lighting highlighting her vulnerability, realistic skin tones, sharp focus, ultra fine painting, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>白雪公主身体摇晃着，缓缓倒向一旁的椅子，双眼紧闭。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>白雪公主身体摇晃着，缓缓倒向一旁的椅子，双眼紧闭。</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The princess's body swayed as she slowly collapsed onto the nearby chair, her eyes tightly closed.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>one princess  
+elegant royal chamber, luxurious furniture, golden decorations, soft ambient lighting, warm color tones, detailed textures, baroque style, dramatic mood, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(princess, young woman), delicate facial features, beautiful detailed eyes, long eyelashes, pale skin, slender hands, elegant posture, luxurious dress with intricate embroidery, elaborate hairstyle adorned with pearls, closed eyes, expression of exhaustion, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>白雪公主躺在地上，脸色苍白，一动不动，仿佛失去了生命迹象。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>白雪公主躺在地上，脸色苍白，一动不动，仿佛失去了生命迹象。</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>The princess lay on the ground, her face deathly pale, her body completely still, giving no signs of life.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>one princess  
+princess lying on the ground, pale face, still body, no signs of life, dark and somber mood, dim lighting, gothic style, detailed stone floor with cracks, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), dramatic shadows, vivid colors, realistic textures  
+BREAK  
+princess with deathly pale skin, delicate features, closed eyes, long eyelashes, elegant gown with intricate lace patterns, flowing golden hair spread around her head, beautiful detailed face, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37), perfect lighting, studio lighting, extreme detail description</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>夕阳下，小矮人们的木屋前，白雪公主躺在地上，小矮人们围在她身边。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>夕阳下，小矮人们的木屋前，白雪公主躺在地上，小矮人们围在她身边。</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Under the glow of the setting sun, Snow White lay motionless on the ground in front of the dwarves' wooden cottage, as the seven dwarves anxiously gathered around her, their faces filled with worry and concern.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>one Snow White, seven dwarves, wooden cottage in a forest clearing, setting sun casting golden light, worried expressions on the dwarves' faces, emotional scene, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White, pale skin, long black hair spread across the ground, red lips, delicate features, beautiful detailed eyes closed, peaceful expression, white and gold dress with intricate embroidery, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3))  
+BREAK  
+(seven dwarves, each with unique facial features and attire, detailed beards, worried expressions, concerned postures, vivid colors, studio lighting, perfect lighting, (realistic,photorealistic:1.37), extreme detail description, professional)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>小矮人们表情凝重，其中几个低头叹息，周围是静谧的森林背景。</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>小矮人们表情凝重，其中几个低头叹息，周围是静谧的森林背景。</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>The little dwarfs stood solemnly, their expressions heavy with concern, as a few of them lowered their heads and sighed sorrowfully. They were surrounded by the tranquil backdrop of a serene forest, its stillness emphasizing their somber mood.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>three little dwarfs  
+tranquil forest setting, somber mood, soft natural lighting filtering through trees, earthy color tones, fallen leaves scattered on the ground, deep green foliage, serene atmosphere, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), (realistic,photorealistic:1.37)  
+BREAK  
+little dwarf with a concerned expression, heavy eyebrows, stubble beard, round nose, small but sturdy frame, wearing a brown cloak and leather boots, beautiful detailed eyes showing worry, long eyelashes, realistic skin tones, sharp focus, vivid colors  
+BREAK  
+little dwarf lowering his head in sorrow, short red hair peeking from under a wide-brimmed hat, slightly curved posture indicating sadness, wearing a green tunic with intricate embroidery, gentle hands clasped together, elegant yet rugged facial features, (masterpiece:1.2), ultra fine painting  
+BREAK  
+little dwarf sighing sorrowfully, bald head with visible wrinkles, wearing a simple gray shirt and patched trousers, broad shoulders slumped forward, thick fingers resting on a wooden staff, expressive mouth conveying deep thought, detailed texture on clothing, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>小矮人们将白雪公主轻轻抬起，走向木屋内准备好的玻璃棺材。</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>小矮人们将白雪公主轻轻抬起，走向木屋内准备好的玻璃棺材。</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>The dwarfs gently lifted Snow White and carried her toward the glass coffin that had been prepared inside the cottage.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>seven dwarfs, Snow White, a small cottage interior, soft candlelight, wooden floors, glass coffin, tender moment, emotional atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), studio lighting, vivid colors, warm tones  
+BREAK  
+(Snow White, young princess), pale skin, rosy cheeks, long black hair, delicate features, closed eyes, peaceful expression, beautiful detailed face, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37), vivid colors, perfect lighting  
+BREAK  
+(dwarf, worker type, bearded man), sturdy build, kind eyes, wrinkled forehead, detailed facial features, red cap, blue shirt, brown trousers, strong hands, realistic textures, sharp focus, ultra fine painting, (best quality,4k,8k,highres:1.2), studio lighting, vivid colors, warm tones  
+BREAK  
+(dwarf, second dwarf, cheerful type, bald man), smiling face, round glasses, green vest, yellow shirt, detailed clothing textures, expressive eyes, friendly demeanor, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37), vivid colors, perfect lighting  
+... [Repeat similar descriptions for the remaining five dwarfs with unique characteristics] ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>木屋内部，玻璃棺材放在装饰简单但庄重的平台上，周围点缀着蜡烛和鲜花。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>木屋内部，玻璃棺材放在装饰简单但庄重的平台上，周围点缀着蜡烛和鲜花。</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Inside the wooden cabin, the glass coffin was placed on a simply decorated yet solemn platform, with candles and flowers scattered around as embellishments.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>a glass coffin, wooden cabin interior, solemn atmosphere, candles flickering, flowers scattered, simple yet elegant platform, soft lighting, muted color tones, ultra-detailed, (best quality,4k,8k,highres:1.2), sharp focus, HDR, UHD, physically based rendering, realistic, photorealistic, studio lighting, aesthetic
+BREAK  
+glass coffin with intricate details, reflective surface, placed on a solemn platform, surrounded by white lilies and red roses, flickering candlelight casting warm glows, minimalist yet respectful design, high-quality textures, (masterpiece:1.2), (realistic,photorealistic:1.37), vivid colors, sharp details  
+BREAK  
+wooden cabin interior, rustic walls made of aged wood, dimly lit by soft candlelight, scattered flower arrangements adding a touch of elegance, solemn and peaceful mood, detailed wood grain texture, precise craftsmanship in every element, professional composition, bokeh effect enhancing depth, ultra-fine painting style, (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>小矮人们小心翼翼地将白雪公主放入玻璃棺材中，她的面容安详。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>小矮人们小心翼翼地将白雪公主放入玻璃棺材中，她的面容安详。</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The dwarfs gently placed Snow White into the glass coffin, her face appearing peaceful.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>seven dwarfs, Snow White in a glass coffin, forest clearing, soft twilight lighting, emotional atmosphere, detailed environment with moss-covered trees and flowers, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), (realistic,photorealistic:1.37)
+BREAK
+(dwarf, bearded man, small stature), worried expression, kind eyes, wearing a brown cloak, holding the edge of the glass coffin, gentle posture, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK
+(dwarf, elderly appearance), sorrowful gaze, wrinkled face, holding a lantern, warm golden light, long white beard, intricate clothing details, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),
+BREAK
+(Snow White, young woman), pale but peaceful face, closed eyes, lying in a glass coffin, long black hair flowing, wearing a blue silk dress with gold embroidery, rosy cheeks, delicate hands crossed on chest, beautiful detailed lips, extremely detailed face, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3),</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>玻璃棺材被盖上，透过透明的盖子可以看到白雪公主安静地躺着。</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>玻璃棺材被盖上，透过透明的盖子可以看到白雪公主安静地躺着。</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>The glass coffin was closed, and one could see Snow White lying peacefully inside through the transparent lid.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>one Snow White in a glass coffin, surrounded by forest environment, soft ambient lighting, peaceful mood, masterful composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White), beautiful detailed face, peaceful expression, rosy cheeks, long eyelashes, closed eyes, delicate hands placed on her chest, wearing a blue and red dress, golden crown on her head, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>小矮人们站在玻璃棺材旁，低着头，似乎在默哀。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>小矮人们站在玻璃棺材旁，低着头，似乎在默哀。</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The little dwarfs stood solemnly beside the glass coffin, their heads bowed low as if they were observing a moment of silence in mourning.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>seven little dwarfs  
+glass coffin, solemn atmosphere, dimly lit cavern, soft candlelight casting warm hues, intricate carvings on the coffin, detailed stone textures, deep shadows enhancing mood, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(little dwarf, male), short stature, bearded face, bowed head, wearing a simple tunic with earthy tones, strong hands clasped together in respect, beautiful detailed eyes showing sadness, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(little dwarf, male), slightly older appearance, thicker beard, wearing a leather belt adorned with small tools, humble expression, intricate clothing texture, extremely detailed face and hands, gentle lighting highlighting emotions, (realistic,photorealistic:1.37), vivid colors, perfect lighting  
+BREAK  
+(little dwarf, male), younger-looking with less facial hair, curious yet respectful gaze, fingers lightly touching the glass coffin, vibrant red cap, detailed embroidered shirt, sharp facial features, beautiful detailed lips, lifelike skin tone, studio lighting, sharp focus, extreme detail description  
+BREAK  
+(little dwarf, male), rounder face, kind-hearted expression, holding a lit candle in one hand, wearing a patchwork cloak, rich textures and patterns, meticulously rendered fabric folds, (realistic,photorealistic:1.37), vivid colors, bokeh effect, professional  
+BREAK  
+(little dwarf, male), stout build, wearing an apron covered in soot from working in the mines, weathered but caring face, standing slightly apart from the others, thoughtful demeanor, realistic wrinkles and creases, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(little dwarf, male), wisest among them, sporting a longer beard streaked with gray, wearing a cloak lined with fur, wise yet sorrowful eyes, detailed jewelry around his neck, sharp contrast between light and shadow, physically based rendering, sharp focus, ultra-fine painting  
+BREAK  
+(little dwarf, male), smallest of the group, looking up at the others with wide-eyed innocence, wearing a bright yellow scarf, delicate facial features, soft lighting emphasizing vulnerability, beautiful detailed eyes filled with curiosity, (realistic,photorealistic:1.37), vivid colors, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>木屋外，夜幕降临，星星点点的灯光照亮通往森林的小路，准备第二天的葬礼。</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>木屋外，夜幕降临，星星点点的灯光照亮通往森林的小路，准备第二天的葬礼。</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>As the night fell, the caretaker of the wooden cabin lit lanterns that dotted the path leading into the forest, their warm glow guiding visitors who would attend the funeral scheduled for the next day.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>one caretaker  
+wooden cabin at night, lantern-lit path leading into a dark forest, warm golden glow contrasting with cool moonlight, somber mood, funeral preparations visible, detailed wooden textures, mist swirling around the base of trees, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), (realistic,photorealistic:1.37)  
+BREAK  
+caretaker in their forties, rugged appearance, weathered face showing years of hard work, simple yet sturdy clothing, lantern in hand casting a soft amber light on their face, beautiful detailed eyes reflecting sadness and determination, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, vivid colors, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>邻国王子骑马经过，看到躺在地上的白雪公主。</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>邻国王(character features: 一位中年男子，面容端庄，身穿华丽的金色王袍，头戴镶嵌宝石的皇冠，腰间悬挂精致的佩剑，行走时步伐沉稳。)子骑马经过，看到躺在地上的白雪公主。</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The neighboring king, a middle-aged man with a dignified appearance, wearing a splendid golden royal robe, a gem-encrusted crown on his head, and a精致sword hanging at his waist, was passing by on horseback when he noticed Snow White lying on the ground.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>one middle-aged king on horseback, Snow White lying on the ground, forest setting with sunlight filtering through trees, tranquil mood, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+middle-aged king with a dignified appearance, splendid golden robe, gem-encrusted crown, detailed facial features, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), riding a majestic black horse, holding reins firmly, wearing a精致sword at his waist, exuding authority and grace  
+BREAK  
+(Snow White, young woman), pale skin, delicate figure, long flowing black hair, red lips, gentle facial expression, elegant posture, dressed in her iconic blue and gold dress, lying on the ground in a graceful position, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, beautiful detailed eyes, long eyelashes, sharp focus</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>王子停下马来，俯身靠近白雪公主的脸。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>王子停下马来，俯身靠近白雪公主的脸。</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The prince halted his horse, then leaned down gracefully to approach Snow White's face with utmost gentleness.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>one prince, one Snow White, forest setting, soft sunlight filtering through trees, romantic mood, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(prince, handsome man in his twenties), chiseled features, strong jawline, beautiful detailed eyes, long eyelashes, dark flowing hair, elegant medieval attire, golden armor with intricate engravings, leather gloves, confident yet tender expression, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(Snow White, young woman in her late teens), fair skin, rosy cheeks, delicate facial features, extremely detailed eyes and face, long black hair cascading down her back, red silk dress with golden accents, lace collar, gentle innocent smile, lying on the ground in a peaceful pose, vivid colors, perfect lighting, (realistic,photorealistic:1.37), studio lighting, sharp focus, extreme detail description</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>王子轻轻吻了白雪公主的嘴唇。</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>王子轻轻吻了白雪公主的嘴唇。</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The prince gently placed his lips on Snow White's, bestowing a soft kiss that carried the weight of hope and admiration.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>one prince and one Snow White, enchanted forest background, soft morning light filtering through trees, magical atmosphere, vibrant flowers surrounding them, romantic and tender mood, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+prince with a kind expression, elegant medieval attire, neatly styled brown hair, chiseled yet gentle facial features, beautiful detailed eyes filled with admiration, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(Snow White, princess), pale fair skin, delicate figure, long flowing black hair, red lips, intricate blue dress adorned with gold embroidery, extremely detailed eyes reflecting hope, gentle blush on cheeks, elegant posture, (realistic,photorealistic:1.37), vivid colors, perfect lighting, studio lighting, sharp focus, extreme detail description</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>白雪公主喉咙一动，毒苹果被吐了出来。</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>白雪公主喉咙一动，毒苹果被吐了出来。</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>As Snow White's throat convulsed, the poisoned apple was expelled from her mouth.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>one girl  
+poisoned apple on the ground, convulsing throat, distressed expression, forest setting, dim lighting, mysterious atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), (realistic,photorealistic:1.37)  
+BREAK  
+(Snow White, young girl in distress), pale skin, slender figure, long black hair, detailed facial features, beautiful detailed eyes, long eyelashes, delicate nose, exquisite mouth with slight strain, realistic skin tones, sharp focus, ultra fine painting, red poisoned apple near her mouth, lying on the ground, vivid colors, perfect lighting, emotional expression, masterfully rendered</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>白雪公主缓缓睁开眼睛，恢复了生机。</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>白雪公主缓缓睁开眼睛，恢复了生机。</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>The princess, as white as snow, gradually opened her eyes, and the vitality returned to her.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>one princess  
+mysterious forest setting, soft morning light filtering through trees, lush greenery, delicate flower petals scattered on the ground, tranquil atmosphere, magical ambiance, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), vivid colors, soft lighting  
+BREAK  
+princess with porcelain-like skin, as white as snow, long flowing black hair, elegant slender figure, wearing an intricate embroidered white gown, beautiful detailed eyes gradually opening, long eyelashes, rosy cheeks, delicate nose, stunning facial features, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37), perfect lighting, serene expression, lifelike portrayal</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>王子单膝跪地，手中拿着戒指，面向白雪公主，表情认真而深情。</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>王子单膝跪地，手中拿着戒指，面向白雪公主，表情认真而深情。</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>The prince, with a serious and heartfelt expression, knelt down on one knee and held a ring in his hand as he faced Snow White.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>one prince, one Snow White, romantic proposal scene, enchanted forest background, soft morning sunlight filtering through trees, delicate flower petals floating in the air, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(prince, man in his twenties), handsome face with serious and heartfelt expression, short brown hair, well-tailored blue suit, kneeling on one knee holding a sparkling diamond ring, strong build, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(Snow White, young woman in her late teens), pale fair skin, long black hair flowing over her shoulders, red corset dress with golden accents, gentle yet surprised expression, delicate features, beautiful detailed lips, extremely detailed eyes and face, graceful posture, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>白雪公主站在王子面前，双手交叠于胸前，面带惊喜和幸福的表情。</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>白雪公主站在王子面前，双手交叠于胸前，面带惊喜和幸福的表情。</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>The princess, Snow White, stood before the prince with her hands folded across her chest, her face beaming with an expression of surprise and happiness.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>one princess and one prince, romantic forest clearing at sunset, soft golden hour lighting, detailed medieval attire, lush greenery surrounding, dreamlike atmosphere, sharp focus, ultra-detailed, (best quality,4k,8k,highres:1.3), (realistic,photorealistic:1.2), vivid colors, HDR, bokeh, physically-based rendering, masterpiece
+BREAK
+(Snow White, young princess in her late teens), fair skin, rosy cheeks, lustrous black hair cascading down her back, red lips with a surprised yet happy smile, beautiful detailed eyes filled with wonder, delicate facial features, long eyelashes, white and gold dress adorned with intricate patterns, hands folded across chest, poised posture, (realistic,photorealistic:1.37), studio lighting, sharp focus, vivid colors, (masterpiece:1.2)
+BREAK
+(young prince in his early twenties), strong jawline, kind eyes reflecting admiration, neatly trimmed dark hair, rich blue velvet suit with golden embroidery, confident stance, slight smile on his face, realistic skin tones, detailed facial features, (ultra-fine painting:1.2), sharp focus, professional, vivid colors, (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>小矮人们围成一圈，脸上洋溢着笑容，其中一个举起酒杯庆祝。</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>小矮人们围成一圈，脸上洋溢着笑容，其中一个举起酒杯庆祝。</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>The dwarves gathered in a circle, their faces beaming with joy, as one of them raised a goblet to toast in celebration.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{Group of dwarves, about six to eight}  
+{Dwarves gathered in a circle, celebrating with laughter and smiles, one raising a goblet for a toast, dimly lit underground cavern filled with warm golden light from lanterns, rustic wooden tables covered with food and drink, rough stone walls adorned with torches, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), (realistic,photorealistic:1.37)}  
+BREAK  
+(dwarf, male, bearded face, round cheeks, twinkling eyes filled with joy, rosy complexion, long eyelashes, wearing a brown leather vest, holding up a goblet of ale, detailed facial features, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2))  
+BREAK  
+(dwarf, male, shorter stature, broad shoulders, smiling widely, wearing a green tunic with golden embroidery, stubby fingers gripping the edge of the table, beautiful detailed eyes, vivid colors, studio lighting, perfect lighting)  
+BREAK  
+(dwarf, female, slightly taller, braided hair adorned with small beads, gentle expression, wearing a simple yet elegant dress made of woven fabric, intricate patterns on her sleeves, elegant posture, (realistic,photorealistic:1.37), sharp details, professional, bokeh)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>森林中的动物们聚集在小矮人周围，有的跳跃，有的拍手，表现出喜悦的气氛。</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>森林中的动物们聚集在小矮人周围，有的跳跃，有的拍手，表现出喜悦的气氛。</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>In the forest, various animals gathered around the dwarfs, some jumping joyfully while others clapped their hands, creating an atmosphere filled with happiness and excitement.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>various animals, dwarfs, joyful gathering in the forest, vibrant greenery, sunlight filtering through trees, warm and happy atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, vivid colors, enchanting lighting, (best quality,4k,8k,highres:1.2), aesthetic
+BREAK
+dwarfs, small stature, bearded faces, wearing colorful clothing, detailed facial features, beautiful detailed eyes, long eyelashes, realistic skin tones, cheerful expressions, sharp focus, ultra fine painting, (masterpiece:1.2), (realistic,photorealistic:1.37)
+BREAK
+forest animals, rabbits, deer, squirrels, birds, foxes, jumping joyfully, clapping hands, playful demeanor, soft fur textures, intricate feather details, bright and lively eyes, natural color palette, perfect lighting, studio-quality illumination, extreme detail description, professional, vivid colors, bokeh, physically-based rendering</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>王子牵着白雪公主的手，两人并肩走在通往邻国的路上。</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>王子牵着白雪公主的手，两人并肩走在通往邻国的路上。</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>The prince gently held the hand of Snow White, and they walked side by side on the road leading to the neighboring kingdom.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>one prince, one Snow White, a scenic road leading to a neighboring kingdom, lush forest background, soft sunlight filtering through trees, romantic atmosphere, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(prince, handsome young man), royal attire with intricate embroidery, neatly styled hair, strong jawline, beautiful detailed eyes, long eyelashes, elegant posture, gentle expression, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(Snow White, young woman with fair skin), delicate facial features, long black hair flowing over her shoulders, red lips, beautiful detailed eyes, long eyelashes, wearing a traditional blue and white dress with golden accents, graceful demeanor, serene smile, vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>白雪公主回望欢送的人群，脸上充满感激与不舍，王子则坚定地向前方眺望。</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>白雪公主回望欢送的人群，脸上充满感激与不舍，王子则坚定地向前方眺望。</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>As the crowd joyfully bid farewell, Snow White looked back at them with a face filled with gratitude and reluctance, while the prince, standing beside her, gazed resolutely ahead toward the distant horizon.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>one Snow White, one prince, a crowd waving farewell, a castle in the background, vibrant sunset lighting, emotional scene, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(Snow White), beautiful detailed eyes filled with gratitude and reluctance, long eyelashes, delicate facial features, flowing golden hair, intricate blue gown, elegant posture, soft smile, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(prince), strong and noble appearance, resolute gaze looking ahead, detailed armor with fine engravings, royal cape fluttering in the wind, sharp jawline, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>新王后站在高处，面容扭曲，流露出愤怒和震惊的表情，背景是阴沉的天空。</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)站在高处，面容扭曲，流露出愤怒和震惊的表情，背景是阴沉的天空。</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>The new queen, a woman of about forty with remarkable beauty, stood atop a raised platform, her pale skin and black curled hair cascading over her shoulders contrasting sharply with her deep crimson robe embroidered with golden dragon patterns. Adorned with multiple gemstone rings on her fingers, gold necklaces around her neck, and matching earrings, she exuded an air of cold arrogance. Her face, contorted in a mixture of fury and astonishment, was illuminated against the backdrop of a gloomy, overcast sky as she gazed out upon the scene below her.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>one woman in her forties, new queen, raised platform, gloomy overcast sky, deep crimson robe with golden dragon patterns, multiple gemstone rings, gold necklaces, matching earrings, pale skin, black curled hair, cold arrogance, mixture of fury and astonishment, sharp contrast, detailed facial features, ultra-detailed, HDR, UHD, sharp focus, professional, vivid colors, bokeh, physically-based rendering, (best quality,4k,8k,highres:1.2), (realistic,photorealistic,photo-realistic:1.37)
+BREAK
+(new queen, woman in her forties), pale skin, black curled hair cascading over shoulders, deep crimson robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklaces around neck, matching earrings, beautiful detailed eyes, long eyelashes, cold arrogant expression, mixture of fury and astonishment, detailed facial features, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>新王后身穿华丽的黑色长袍，骑上一把散发着幽光的魔扫帚，准备出发。</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)身穿华丽的黑色长袍，骑上一把散发着幽光的魔扫帚，准备出发。</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>The new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, was adorned in a magnificent deep red robe embroidered with golden dragon patterns. Multiple gemstone rings adorned her fingers, and her piercing gaze exuded an air of cold arrogance. She often wore gold necklaces and earrings that complemented her regal appearance. Now, she donned a lavish black gown and mounted a magical broomstick that emitted a faint, ethereal glow as she prepared to set off on her journey.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>one queen in her forties  
+magical night sky with swirling clouds, ethereal glowing moonlight, dark forest in the background, enchanting atmosphere, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, vivid colors, studio lighting, perfect lighting, (best quality,4k,8k,highres:1.3), (realistic,photorealistic,photo-realistic:1.37)  
+BREAK  
+queen in her forties, striking beauty, pale skin, black curly hair cascading over shoulders, magnificent deep red robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, piercing gaze, cold arrogance, gold necklaces and earrings, regal appearance, lavish black gown, magical broomstick emitting faint ethereal glow, poised for a journey, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), vivid colors, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>魔扫帚载着新王后飞越黑暗的天空，闪电在云层中隐约闪烁。</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>魔扫帚载着新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)飞越黑暗的天空，闪电在云层中隐约闪烁。</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>The magic broomstick carried the new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders. She was dressed in a deep red robe embroidered with golden dragon patterns, and adorned with multiple gemstone rings on her fingers, gold necklaces, and earrings. Her gaze was cold and haughty as she flew across the dark sky, where lightning faintly flickered among the clouds.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>one woman (new queen)  
+dark sky with lightning, faintly flickering clouds, magic broomstick flight, striking beauty, pale skin, black curly hair, deep red robe with golden dragon embroidery, multiple gemstone rings, gold necklaces, earrings, cold and haughty gaze, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.2), (realistic,photorealistic,photo-realistic:1.37), vivid colors, dramatic lighting  
+BREAK  
+(new queen, woman in her forties), striking beauty, pale skin, black curly hair cascading over shoulders, long eyelashes, beautiful detailed eyes, cold and haughty facial expression, deep red robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklaces, earrings, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, dramatic lighting, professional, vivid colors</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>新王后穿过一片乌云，前方是邻国的轮廓，远处山脉若隐若现。</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)穿过一片乌云，前方是邻国的轮廓，远处山脉若隐若现。</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>The new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, was adorned in a deep red robe embroidered with golden dragon patterns. She wore numerous gemstone rings on her fingers, and her gaze exuded an air of cold arrogance. Often seen with gold necklaces and earrings, she emerged through a cluster of dark clouds. Before her lay the outline of a neighboring country, its distant mountains faintly visible amidst the haze.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>one woman in her forties, striking beauty, pale skin, black curly hair, deep red robe with golden dragon patterns, gemstone rings, gold necklaces and earrings, cold arrogant gaze, emerging through dark clouds, neighboring country's distant mountains visible in the background, misty haze, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(new queen, woman in her forties), striking beauty, pale skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, numerous gemstone rings on fingers, gold necklaces and earrings, beautiful detailed eyes, long eyelashes, cold arrogant gaze, elegant posture, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>一道强烈的闪电从天空劈下，击中新王后的魔扫帚。</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>一道强烈的闪电从天空劈下，击中新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)的魔扫帚。</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A bolt of intense lightning suddenly streaked across the sky and struck the magical broomstick held by the new queen, a woman in her forties with striking beauty. Her pale skin glowed under the deep red robes adorned with golden dragon embroidery, her black curls cascading over her shoulders. Adorned with multiple gemstone rings on her fingers, gold necklaces around her neck, and matching earrings, she carried herself with an air of cold arrogance as the electricity surged through her enchanted tool.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>one middle-aged queen in her forties, striking beauty, lightning-struck magical broomstick, dark stormy sky with intense lightning, deep red robes with golden dragon embroidery, black curls, gemstone rings, gold necklaces, matching earrings, pale glowing skin, cold arrogance, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+middle-aged queen, woman in her forties, striking beauty, pale glowing skin, deep red robes with intricate golden dragon embroidery, black curly hair cascading over shoulders, multiple gemstone rings on fingers, gold necklaces around neck, matching earrings, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, dramatic lighting, cold arrogance, photorealistic expression, enchanting magical atmosphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>魔扫帚失去平衡，在空中旋转坠落，新王后惊恐地抓住扫帚柄。</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>魔扫帚失去平衡，在空中旋转坠落，新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)惊恐地抓住扫帚柄。</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>The magic broomstick lost its balance and began to spin uncontrollably as it plummeted through the air. The new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, clutched desperately at the broomstick's handle in terror. She was dressed in a deep crimson robe embroidered with golden dragon patterns, her fingers adorned with multiple gemstone rings, and her piercing gaze reflected both arrogance and coldness. Around her neck hung a gold necklace, and her ears were decorated with matching gold earrings.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>one woman in her forties, dramatic sky with storm clouds and lightning, nighttime setting, falling through the air on a spinning broomstick, pale skin, black curly hair, crimson robe with golden dragon embroidery, gold jewelry including necklace and earrings, gemstone rings, terrified expression, striking beauty, arrogant and cold gaze, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(new queen, woman in her forties), pale skin, black curly hair cascading over shoulders, deep crimson robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklace around neck, matching gold earrings, beautiful detailed eyes reflecting terror, long eyelashes, piercing gaze showing arrogance and coldness, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>新王后最终从扫帚上跌落，消失在浓密的云雾之中。</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>新王后(character features: 一位约四十岁的女性，容貌美丽，皮肤白皙，黑色卷发披肩，身穿深红色长袍，长袍上绣有金色龙纹，手指戴着多枚宝石戒指，眼神冷峻傲慢，常佩戴黄金项链和耳环。)最终从扫帚上跌落，消失在浓密的云雾之中。</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>The new queen, a woman of about forty with striking beauty, pale skin, and black curly hair that cascaded over her shoulders, was clad in a deep red robe embroidered with golden dragon patterns. Adorned with multiple gemstone rings on her fingers, gold necklaces around her neck, and gold earrings on her ears, she carried herself with a cold and arrogant gaze. Ultimately, she fell from her broomstick and vanished into the dense foggy clouds.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>one middle-aged queen, foggy cloud background, falling from a broomstick, dramatic lighting, cold and arrogant expression, pale skin, striking beauty, black curly hair, deep red robe with golden dragon patterns, multiple gemstone rings, gold necklaces, gold earrings, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(middle-aged queen, woman in her forties), striking beauty, pale skin, black curly hair cascading over shoulders, deep red robe embroidered with golden dragon patterns, multiple gemstone rings on fingers, gold necklaces around neck, gold earrings on ears, cold and arrogant gaze, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>雷雨过后的天空恢复平静，只留下一缕烟雾飘散在空气中。</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>雷雨过后的天空恢复平静，只留下一缕烟雾飘散在空气中。</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>After the thunderstorm, the sky gradually became calm again, with only a wisp of smoke lingering in the air as a reminder of the chaos that had just passed.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>a beautiful serene landscape after a thunderstorm, calm sky with soft pastel colors, distant mountains shrouded in mist, a wisp of smoke rising from burnt earth, lush green grass reflecting the evening light, droplets of water glistening on leaves, tranquil pond mirroring the sky, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), realistic lighting, vivid colors, peaceful atmosphere, post-rain ambiance, photorealistic style</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>整个国家的街道上挂满了彩旗和装饰，人们穿着节日的盛装在街上跳舞、庆祝。</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>整个国家的街道上挂满了彩旗和装饰，人们穿着节日的盛装在街上跳舞、庆祝。</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>The entire country was adorned with colorful flags and decorations, and people were seen dressed in their festive attire, dancing and celebrating joyfully in the streets.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{Crowd of people celebrating, colorful flags and decorations, streets filled with joyous atmosphere, vibrant colors, sunny daylight, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic}  
+BREAK  
+{Person dressed in festive attire, smiling face, beautiful detailed eyes, long eyelashes, cheerful expression, traditional clothing with intricate patterns, vivid colors, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)}  
+BREAK  
+{Another person dancing joyfully, elegant posture, flowing hair, decorative accessories, bright smile, detailed facial features, photorealistic textures, studio lighting, perfect lighting, (realistic,photorealistic:1.37), vivid colors, sharp focus}  
+{Colorful flags fluttering in the wind, decorative lanterns hanging above the streets, bustling crowd, joyful celebrations, vibrant cultural elements, sunny daylight, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>宏伟的城堡前搭建了华丽的婚礼舞台，周围鲜花盛开，红毯一直延伸到城堡大门。</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>宏伟的城堡前搭建了华丽的婚礼舞台，周围鲜花盛开，红毯一直延伸到城堡大门。</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A magnificent wedding stage was set up in front of the grand castle, adorned with blooming flowers all around, and a red carpet extending from the stage to the castle's grand entrance, creating a stunning scene for the couple's special day.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{Scene description, e.g. a magnificent wedding stage in front of the grand castle, blooming flowers all around, red carpet extending from the stage to the castle's grand entrance, grand castle architecture, sunny day with soft golden lighting, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic}  
+BREAK  
+{Prompt for the bride}  
+bride wearing an elegant white gown with intricate lace patterns, delicate veil flowing in the breeze, beautiful detailed eyes, long eyelashes, radiant smile, flawless skin, luxurious pearl necklace, realistic hair texture, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, sharp focus, ultra-fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+{Prompt for the groom}  
+groom in a classic black suit with a red rose boutonniere, strong facial features, meticulously styled hair, confident posture, handsome detailed face, sharp jawline, realistic skin tones, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, sharp focus, ultra-fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>王子和白雪公主站在婚礼舞台上，两人身着华丽的婚礼服饰，接受众人的祝福。</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>王子和白雪公主站在婚礼舞台上，两人身着华丽的婚礼服饰，接受众人的祝福。</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>The prince and Snow White stood on the wedding stage, both wearing elegant wedding attire, as they received blessings from the crowd gathered around them.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>one prince, one Snow White, wedding stage, elegant wedding attire, blessings from the crowd, romantic atmosphere, golden sunset lighting, soft pastel colors, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+prince with handsome features, well-built figure, white tailored suit with gold embroidery, confident smile, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(Snow White, princess, woman in her early twenties), fair skin, flowing auburn hair, delicate facial features, white lace gown with pearl accents, gentle blushing expression, beautiful detailed lips, elegant posture, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>七个小矮人身穿正式服装，面带笑容地坐在宾客席上，桌上摆满了美食和饮品。</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>七个小矮人(character features: 七位身材矮小的男性，年龄各异，皮肤粗糙，胡须长短不一，身穿不同颜色的工作服，衣服材质为粗布，袖口沾有泥土痕迹，脚穿棕色皮鞋，神态各异但均显淳朴。)身穿正式服装，面带笑容地坐在宾客席上，桌上摆满了美食和饮品。</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>The seven dwarfs, each a short-statured man of varying ages with rough skin and beards of differing lengths, were dressed in formal attire as they sat with smiles on their faces among the guest seats. They wore coarse cloth work uniforms in various colors with traces of dirt around the cuffs and brown leather shoes on their feet. Despite their varied expressions, all appeared sincere and simple-hearted. The table before them was laden with an abundance of delicious food and refreshing drinks.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>seven dwarfs, short-statured men of varying ages, rough skin, beards of differing lengths, dressed in formal attire, sitting with smiles, guest seats, coarse cloth work uniforms in various colors, traces of dirt around cuffs, brown leather shoes, sincere and simple-hearted expressions, table laden with delicious food and refreshing drinks, warm lighting, rustic dining hall setting, wooden beams, stone walls, vibrant colors, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic  
+BREAK  
+(short-statured man, dwarf, middle-aged appearance), rough skin, thick beard, coarse red cloth uniform with dirt stains, brown leather shoes, sincere smile, kind eyes, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(short-statured man, dwarf, younger appearance), stubbly beard, coarse blue cloth uniform with faded patches, brown leather shoes, gentle expression, simple-hearted demeanor, beautiful detailed lips, vivid colors, studio lighting, perfect lighting, (realistic,photorealistic:1.37)  
+BREAK  
+(short-statured man, dwarf, older appearance), weathered skin, long gray beard, coarse green cloth uniform with dirt marks, brown leather shoes, friendly smile, wise eyes, detailed facial features, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(short-statured man, dwarf, young adult appearance), short dark beard, coarse yellow cloth uniform with worn edges, brown leather shoes, cheerful grin, sincere gaze, beautiful detailed eyes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(short-statured man, dwarf, elderly appearance), wrinkled skin, white beard, coarse brown cloth uniform with dirt smudges, brown leather shoes, calm expression, wise and kind eyes, detailed face, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)  
+BREAK  
+(short-statured man, dwarf, middle-aged appearance), medium-length beard, coarse purple cloth uniform with slight wear, brown leather shoes, content smile, genuine look, beautiful detailed lips, vivid colors, studio lighting, perfect lighting, (realistic,photorealistic:1.37)  
+BREAK  
+(short-statured man, dwarf, slightly older appearance), rugged skin, neatly trimmed beard, coarse orange cloth uniform with minor stains, brown leather shoes, honest expression, warm eyes, detailed facial features, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>各种动物们也聚集在婚礼现场，有的站在树枝上，有的在草地上，共同参与这场盛会。</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>各种动物们也聚集在婚礼现场，有的站在树枝上，有的在草地上，共同参与这场盛会。</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Various animals gathered at the wedding scene, with some perched on tree branches and others standing on the grassland, all jointly participating in this grand celebration.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>various animals gathered at a wedding scene, lush forest environment with tall trees and vibrant green grassland, soft afternoon sunlight filtering through the canopy, golden hour lighting, joyful festive atmosphere, intricate floral decorations, elegant white tablecloth with animal guests seated around, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic, (best quality,4k,8k,highres:1.3), realistic, photorealistic
+BREAK
+(bridal deer, female deer in her twenties), gentle doe eyes, beautiful detailed eyes, long eyelashes, delicate facial features, white flowing dress with floral embroidery, pearl necklace, graceful posture, vivid colors, studio lighting, perfect lighting, (realistic,photorealistic:1.37)
+BREAK
+(groom fox, male fox in his early thirties), charming smile, beautifully detailed eyes, long eyelashes, orange-red fur with white accents, black suit with bow tie, confident stance, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>全国的人民手持鲜花或彩带，在城堡广场上欢呼雀跃，表达对新人的美好祝愿。</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>全国的人民手持鲜花或彩带，在城堡广场上欢呼雀跃，表达对新人的美好祝愿。</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>People across the nation, holding flowers or ribbons in their hands, joyfully cheered and danced in the Castle Square, wholeheartedly conveying their best wishes to the newlyweds.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{Crowd of people celebrating, Castle Square, daytime setting, bright sunlight, festive atmosphere, flowers and ribbons in hands, joyous expressions, dynamic composition, vivid colors, professional photography, sharp focus, extreme detail description, bokeh effect, (best quality,4k,8k,highres:1.2), photorealistic, HDR lighting, UHD, studio lighting, ultra-detailed, aesthetic}
+BREAK
+{Person 1 - Male celebrant, joyful expression, holding a bouquet of colorful flowers, detailed facial features, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, vibrant clothing, traditional attire, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting}
+BREAK
+{Person 2 - Female celebrant, smiling face, elegant posture, holding ribbons fluttering in the wind, slender fingers, gentle maternal eyes, intricate hairstyle, beautiful detailed lips, long lashes, sharp details, silk dress with embroidery, (masterpiece:1.2), (best quality,4k,8k,highres:1.3), photorealistic, bokeh, physically based rendering} 
+BREAK 
+{Background crowd - Various individuals dancing and cheering, diverse appearances and outfits, detailed faces and gestures, realistic textures, sharp focus on foreground figures, blurred background for depth, professional composition, vivid colors, bokeh effect, (best quality,4k,8k,highres:1.2), photorealistic, HDR lighting, UHD, ultra-detailed, aesthetic}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>夜幕降临时，城堡上空燃放起五彩斑斓的烟花，象征着新人将永远快乐生活。</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>夜幕降临时，城堡上空燃放起五彩斑斓的烟花，象征着新人将永远快乐生活。</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>As the night fell, the castle was illuminated by a dazzling display of fireworks bursting in the sky above it, which symbolized that the newlyweds would live happily ever after.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{A castle at night, fireworks in the sky, newlywed celebration, romantic atmosphere, moonlit backdrop, vibrant colors, dynamic composition, HDR, UHD, sharp details, professional, bokeh, physically based rendering, ultra detailed, aesthetic}  
+BREAK  
+(newlywed bride, elegant white gown with lace details, delicate floral crown, beautiful detailed eyes, long eyelashes, radiant smile, soft rosy cheeks, realistic skin tones, intricate hairstyle, (realistic,photorealistic:1.37), vivid colors, studio lighting, perfect lighting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3))  
+BREAK  
+(newlywed groom, formal black suit with gold embroidery, confident posture, strong jawline, detailed facial features, beautiful detailed eyes, long eyelashes, realistic skin tones, sharp focus, ultra fine painting, (masterpiece:1.2), (best quality,4k,8k,highres:1.3))</t>
         </is>
       </c>
     </row>
